--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Documents\BC_STRAVA_Kilimanjaro_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7918089B-9A13-4CA9-BC3A-B69D84014662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6515E220-B9FB-411D-A9F2-BBCCA1A082EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27600" yWindow="750" windowWidth="22545" windowHeight="13860" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="26">
   <si>
     <t>Participant</t>
   </si>
@@ -490,11 +490,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
+      <selection pane="bottomLeft" activeCell="O53" sqref="O53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,7 +510,7 @@
     <col min="10" max="10" width="9.21875" customWidth="1"/>
     <col min="11" max="11" width="9.77734375" customWidth="1"/>
     <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -2735,28 +2735,28 @@
         <v>45460</v>
       </c>
       <c r="C55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55">
+        <v>38</v>
+      </c>
+      <c r="E55">
+        <v>3.48</v>
+      </c>
+      <c r="F55">
+        <v>7</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
         <v>20</v>
       </c>
-      <c r="D55">
-        <v>43</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>10</v>
-      </c>
-      <c r="H55">
-        <v>33</v>
-      </c>
       <c r="I55">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -2765,6 +2765,47 @@
         <v>2</v>
       </c>
       <c r="M55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" s="1">
+        <v>45460</v>
+      </c>
+      <c r="C56" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56">
+        <v>9</v>
+      </c>
+      <c r="E56">
+        <v>0.59</v>
+      </c>
+      <c r="F56">
+        <v>61</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>6</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56" t="s">
+        <v>2</v>
+      </c>
+      <c r="M56">
         <v>2</v>
       </c>
     </row>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Documents\BC_STRAVA_Kilimanjaro_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6515E220-B9FB-411D-A9F2-BBCCA1A082EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53910811-B7CB-4DBA-8C02-561567F97643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27600" yWindow="750" windowWidth="22545" windowHeight="13860" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="26">
   <si>
     <t>Participant</t>
   </si>
@@ -490,11 +490,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O53" sqref="O53"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M63" sqref="M63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2809,6 +2809,293 @@
         <v>2</v>
       </c>
     </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" s="1">
+        <v>45460</v>
+      </c>
+      <c r="C57" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57">
+        <v>12</v>
+      </c>
+      <c r="E57">
+        <v>1.23</v>
+      </c>
+      <c r="F57">
+        <v>43</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>7</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57" t="s">
+        <v>13</v>
+      </c>
+      <c r="M57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="1">
+        <v>45460</v>
+      </c>
+      <c r="C58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58">
+        <v>75</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
+        <v>36</v>
+      </c>
+      <c r="I58">
+        <v>28</v>
+      </c>
+      <c r="J58">
+        <v>9</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58" t="s">
+        <v>13</v>
+      </c>
+      <c r="M58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="1">
+        <v>45460</v>
+      </c>
+      <c r="C59" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59">
+        <v>31</v>
+      </c>
+      <c r="E59">
+        <v>1.5</v>
+      </c>
+      <c r="F59">
+        <v>36</v>
+      </c>
+      <c r="G59">
+        <v>31</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59" t="s">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="1">
+        <v>45460</v>
+      </c>
+      <c r="C60" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60">
+        <v>37</v>
+      </c>
+      <c r="E60">
+        <v>3.74</v>
+      </c>
+      <c r="F60">
+        <v>144</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>23</v>
+      </c>
+      <c r="I60">
+        <v>10</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60" t="s">
+        <v>2</v>
+      </c>
+      <c r="M60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" s="1">
+        <v>45461</v>
+      </c>
+      <c r="C61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61">
+        <v>48</v>
+      </c>
+      <c r="E61">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="F61">
+        <v>69</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>29</v>
+      </c>
+      <c r="I61">
+        <v>16</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61" t="s">
+        <v>2</v>
+      </c>
+      <c r="M61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="1">
+        <v>45461</v>
+      </c>
+      <c r="C62" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62">
+        <v>37</v>
+      </c>
+      <c r="E62">
+        <v>4</v>
+      </c>
+      <c r="F62">
+        <v>272</v>
+      </c>
+      <c r="G62">
+        <v>4</v>
+      </c>
+      <c r="H62">
+        <v>28</v>
+      </c>
+      <c r="I62">
+        <v>3</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62" t="s">
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" s="1">
+        <v>45461</v>
+      </c>
+      <c r="C63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63">
+        <v>8</v>
+      </c>
+      <c r="E63">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F63">
+        <v>30</v>
+      </c>
+      <c r="G63">
+        <v>8</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63" t="s">
+        <v>2</v>
+      </c>
+      <c r="M63">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M33" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Documents\BC_STRAVA_Kilimanjaro_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53910811-B7CB-4DBA-8C02-561567F97643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869882C4-78F2-4E28-BEC4-0EE1CB0F499A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27600" yWindow="750" windowWidth="22545" windowHeight="13860" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Documents\BC_STRAVA_Kilimanjaro_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869882C4-78F2-4E28-BEC4-0EE1CB0F499A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E65455-3B82-497B-90F3-89D17A3D61BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27600" yWindow="750" windowWidth="22545" windowHeight="13860" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
+    <workbookView xWindow="960" yWindow="600" windowWidth="22548" windowHeight="13224" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="26">
   <si>
     <t>Participant</t>
   </si>
@@ -490,11 +490,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M63" sqref="M63"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M67" sqref="M67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3096,6 +3096,334 @@
         <v>2</v>
       </c>
     </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" s="1">
+        <v>45461</v>
+      </c>
+      <c r="C64" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64">
+        <v>21</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>20</v>
+      </c>
+      <c r="G64">
+        <v>21</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64" t="s">
+        <v>2</v>
+      </c>
+      <c r="M64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" s="1">
+        <v>45462</v>
+      </c>
+      <c r="C65" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65">
+        <v>20</v>
+      </c>
+      <c r="E65">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="F65">
+        <v>194</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>18</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65" t="s">
+        <v>2</v>
+      </c>
+      <c r="M65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" s="1">
+        <v>45462</v>
+      </c>
+      <c r="C66" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66">
+        <v>32</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>29</v>
+      </c>
+      <c r="H66">
+        <v>2</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66" t="s">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" s="1">
+        <v>45462</v>
+      </c>
+      <c r="C67" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67">
+        <v>47</v>
+      </c>
+      <c r="E67">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="F67">
+        <v>151</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>2</v>
+      </c>
+      <c r="I67">
+        <v>15</v>
+      </c>
+      <c r="J67">
+        <v>26</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67" t="s">
+        <v>13</v>
+      </c>
+      <c r="M67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" s="1">
+        <v>45462</v>
+      </c>
+      <c r="C68" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68">
+        <v>55</v>
+      </c>
+      <c r="E68">
+        <v>2.15</v>
+      </c>
+      <c r="F68">
+        <v>315</v>
+      </c>
+      <c r="G68">
+        <v>55</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68" t="s">
+        <v>2</v>
+      </c>
+      <c r="M68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" s="1">
+        <v>45462</v>
+      </c>
+      <c r="C69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69">
+        <v>48</v>
+      </c>
+      <c r="E69">
+        <v>1.99</v>
+      </c>
+      <c r="F69">
+        <v>171</v>
+      </c>
+      <c r="G69">
+        <v>48</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69" t="s">
+        <v>2</v>
+      </c>
+      <c r="M69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" s="1">
+        <v>45462</v>
+      </c>
+      <c r="C70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70">
+        <v>14</v>
+      </c>
+      <c r="E70">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F70">
+        <v>39</v>
+      </c>
+      <c r="G70">
+        <v>14</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70" t="s">
+        <v>2</v>
+      </c>
+      <c r="M70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71" s="1">
+        <v>45462</v>
+      </c>
+      <c r="C71" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71">
+        <v>57</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>13</v>
+      </c>
+      <c r="H71">
+        <v>33</v>
+      </c>
+      <c r="I71">
+        <v>8</v>
+      </c>
+      <c r="J71">
+        <v>2</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71" t="s">
+        <v>13</v>
+      </c>
+      <c r="M71">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M33" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Documents\BC_STRAVA_Kilimanjaro_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E65455-3B82-497B-90F3-89D17A3D61BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6814F518-CCAC-4D11-A911-5DBD7B40D96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="600" windowWidth="22548" windowHeight="13224" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$71</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -3425,7 +3425,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M33" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
+  <autoFilter ref="A1:M71" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Documents\BC_STRAVA_Kilimanjaro_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6814F518-CCAC-4D11-A911-5DBD7B40D96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A828C0E-0969-439A-95A6-FD08F46D33EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="600" windowWidth="22548" windowHeight="13224" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="27">
   <si>
     <t>Participant</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Walk</t>
+  </si>
+  <si>
+    <t>Stev en</t>
   </si>
 </sst>
 </file>
@@ -490,11 +493,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M67" sqref="M67"/>
+      <selection pane="bottomLeft" activeCell="M72" sqref="M72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3424,6 +3427,47 @@
         <v>2</v>
       </c>
     </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" s="1">
+        <v>45462</v>
+      </c>
+      <c r="C72" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72">
+        <v>49</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>17</v>
+      </c>
+      <c r="I72">
+        <v>25</v>
+      </c>
+      <c r="J72">
+        <v>7</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72" t="s">
+        <v>2</v>
+      </c>
+      <c r="M72">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M71" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Documents\BC_STRAVA_Kilimanjaro_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A828C0E-0969-439A-95A6-FD08F46D33EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18821898-171A-41B7-9E69-06C9D971F18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="600" windowWidth="22548" windowHeight="13224" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="26">
   <si>
     <t>Participant</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>Walk</t>
-  </si>
-  <si>
-    <t>Stev en</t>
   </si>
 </sst>
 </file>
@@ -497,7 +494,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M72" sqref="M72"/>
+      <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3429,7 +3426,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B72" s="1">
         <v>45462</v>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Documents\BC_STRAVA_Kilimanjaro_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18821898-171A-41B7-9E69-06C9D971F18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C13A7EB-E30C-45D9-88BE-5BD1EE2D6786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="600" windowWidth="22548" windowHeight="13224" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="26">
   <si>
     <t>Participant</t>
   </si>
@@ -490,18 +490,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:M72"/>
+  <dimension ref="A1:M76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
+      <selection pane="bottomLeft" activeCell="M76" sqref="M76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="6" width="13.33203125" customWidth="1"/>
     <col min="7" max="7" width="9.109375" customWidth="1"/>
@@ -3465,6 +3465,170 @@
         <v>2</v>
       </c>
     </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" s="1">
+        <v>45462</v>
+      </c>
+      <c r="C73" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73">
+        <v>29</v>
+      </c>
+      <c r="E73">
+        <v>1.22</v>
+      </c>
+      <c r="F73">
+        <v>30</v>
+      </c>
+      <c r="G73">
+        <v>29</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73" t="s">
+        <v>2</v>
+      </c>
+      <c r="M73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74" s="1">
+        <v>45463</v>
+      </c>
+      <c r="C74" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74">
+        <v>84</v>
+      </c>
+      <c r="E74">
+        <v>22.63</v>
+      </c>
+      <c r="F74">
+        <v>1283</v>
+      </c>
+      <c r="G74">
+        <v>11</v>
+      </c>
+      <c r="H74">
+        <v>68</v>
+      </c>
+      <c r="I74">
+        <v>3</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74" t="s">
+        <v>2</v>
+      </c>
+      <c r="M74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" s="1">
+        <v>45463</v>
+      </c>
+      <c r="C75" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75">
+        <v>26</v>
+      </c>
+      <c r="E75">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="F75">
+        <v>69</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>3</v>
+      </c>
+      <c r="I75">
+        <v>10</v>
+      </c>
+      <c r="J75">
+        <v>11</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75" t="s">
+        <v>2</v>
+      </c>
+      <c r="M75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" s="1">
+        <v>45463</v>
+      </c>
+      <c r="C76" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76">
+        <v>19</v>
+      </c>
+      <c r="E76">
+        <v>0.77</v>
+      </c>
+      <c r="F76">
+        <v>23</v>
+      </c>
+      <c r="G76">
+        <v>13</v>
+      </c>
+      <c r="H76">
+        <v>5</v>
+      </c>
+      <c r="I76">
+        <v>2</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76" t="s">
+        <v>2</v>
+      </c>
+      <c r="M76">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M71" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Documents\BC_STRAVA_Kilimanjaro_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C13A7EB-E30C-45D9-88BE-5BD1EE2D6786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBEF3C0-7F7D-4C77-9050-B227466316CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="600" windowWidth="22548" windowHeight="13224" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
+    <workbookView xWindow="-23610" yWindow="915" windowWidth="22545" windowHeight="13230" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="26">
   <si>
     <t>Participant</t>
   </si>
@@ -490,11 +490,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:M76"/>
+  <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M76" sqref="M76"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3629,6 +3629,252 @@
         <v>2</v>
       </c>
     </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" s="1">
+        <v>45463</v>
+      </c>
+      <c r="C77" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77">
+        <v>80</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>10</v>
+      </c>
+      <c r="H77">
+        <v>50</v>
+      </c>
+      <c r="I77">
+        <v>15</v>
+      </c>
+      <c r="J77">
+        <v>6</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77" t="s">
+        <v>13</v>
+      </c>
+      <c r="M77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>17</v>
+      </c>
+      <c r="B78" s="1">
+        <v>45463</v>
+      </c>
+      <c r="C78" t="s">
+        <v>23</v>
+      </c>
+      <c r="D78">
+        <v>74</v>
+      </c>
+      <c r="E78">
+        <v>6.04</v>
+      </c>
+      <c r="F78">
+        <v>928</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>21</v>
+      </c>
+      <c r="I78">
+        <v>33</v>
+      </c>
+      <c r="J78">
+        <v>11</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78" t="s">
+        <v>2</v>
+      </c>
+      <c r="M78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" s="1">
+        <v>45463</v>
+      </c>
+      <c r="C79" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79">
+        <v>23</v>
+      </c>
+      <c r="E79">
+        <v>1.02</v>
+      </c>
+      <c r="F79">
+        <v>23</v>
+      </c>
+      <c r="G79">
+        <v>23</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79" t="s">
+        <v>2</v>
+      </c>
+      <c r="M79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80" s="1">
+        <v>45464</v>
+      </c>
+      <c r="C80" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80">
+        <v>11</v>
+      </c>
+      <c r="E80">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F80">
+        <v>125</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>4</v>
+      </c>
+      <c r="I80">
+        <v>2</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80" t="s">
+        <v>2</v>
+      </c>
+      <c r="M80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81" s="1">
+        <v>45464</v>
+      </c>
+      <c r="C81" t="s">
+        <v>23</v>
+      </c>
+      <c r="D81">
+        <v>56</v>
+      </c>
+      <c r="E81">
+        <v>6.5</v>
+      </c>
+      <c r="F81">
+        <v>377</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>21</v>
+      </c>
+      <c r="I81">
+        <v>29</v>
+      </c>
+      <c r="J81">
+        <v>3</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81" t="s">
+        <v>2</v>
+      </c>
+      <c r="M81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>18</v>
+      </c>
+      <c r="B82" s="1">
+        <v>45464</v>
+      </c>
+      <c r="C82" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>0.15</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>2</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82" t="s">
+        <v>2</v>
+      </c>
+      <c r="M82">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M71" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Documents\BC_STRAVA_Kilimanjaro_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBEF3C0-7F7D-4C77-9050-B227466316CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112C2BFF-2D5A-475C-AC10-176C9C063CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23610" yWindow="915" windowWidth="22545" windowHeight="13230" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="26">
   <si>
     <t>Participant</t>
   </si>
@@ -490,11 +490,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:M82"/>
+  <dimension ref="A1:M86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A83" sqref="A83"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M86" sqref="M86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3875,6 +3875,170 @@
         <v>2</v>
       </c>
     </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>24</v>
+      </c>
+      <c r="B83" s="1">
+        <v>45464</v>
+      </c>
+      <c r="C83" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83">
+        <v>60</v>
+      </c>
+      <c r="E83">
+        <v>5.23</v>
+      </c>
+      <c r="F83">
+        <v>89</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>21</v>
+      </c>
+      <c r="I83">
+        <v>25</v>
+      </c>
+      <c r="J83">
+        <v>13</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83" t="s">
+        <v>13</v>
+      </c>
+      <c r="M83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" s="1">
+        <v>45464</v>
+      </c>
+      <c r="C84" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84">
+        <v>45</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>7</v>
+      </c>
+      <c r="H84">
+        <v>27</v>
+      </c>
+      <c r="I84">
+        <v>11</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84" t="s">
+        <v>2</v>
+      </c>
+      <c r="M84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" s="1">
+        <v>45464</v>
+      </c>
+      <c r="C85" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85">
+        <v>50</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>50</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85" t="s">
+        <v>2</v>
+      </c>
+      <c r="M85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" s="1">
+        <v>45464</v>
+      </c>
+      <c r="C86" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86">
+        <v>45</v>
+      </c>
+      <c r="E86">
+        <v>2.5</v>
+      </c>
+      <c r="F86">
+        <v>72</v>
+      </c>
+      <c r="G86">
+        <v>43</v>
+      </c>
+      <c r="H86">
+        <v>2</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86" t="s">
+        <v>2</v>
+      </c>
+      <c r="M86">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M71" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Documents\BC_STRAVA_Kilimanjaro_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112C2BFF-2D5A-475C-AC10-176C9C063CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01821924-45C1-4F84-A286-FB1D3D0735BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23610" yWindow="915" windowWidth="22545" windowHeight="13230" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
+    <workbookView xWindow="492" yWindow="0" windowWidth="22548" windowHeight="12360" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$92</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="26">
   <si>
     <t>Participant</t>
   </si>
@@ -490,11 +490,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:M86"/>
+  <dimension ref="A1:M92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M86" sqref="M86"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4039,8 +4039,254 @@
         <v>2</v>
       </c>
     </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>19</v>
+      </c>
+      <c r="B87" s="1">
+        <v>45464</v>
+      </c>
+      <c r="C87" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87">
+        <v>57</v>
+      </c>
+      <c r="E87">
+        <v>2.66</v>
+      </c>
+      <c r="F87">
+        <v>171</v>
+      </c>
+      <c r="G87">
+        <v>45</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87" t="s">
+        <v>2</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>19</v>
+      </c>
+      <c r="B88" s="1">
+        <v>45465</v>
+      </c>
+      <c r="C88" t="s">
+        <v>23</v>
+      </c>
+      <c r="D88">
+        <v>23</v>
+      </c>
+      <c r="E88">
+        <v>2.29</v>
+      </c>
+      <c r="F88">
+        <v>207</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>15</v>
+      </c>
+      <c r="I88">
+        <v>3</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88" t="s">
+        <v>2</v>
+      </c>
+      <c r="M88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" s="1">
+        <v>45465</v>
+      </c>
+      <c r="C89" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89">
+        <v>37</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>8</v>
+      </c>
+      <c r="H89">
+        <v>11</v>
+      </c>
+      <c r="I89">
+        <v>16</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89" t="s">
+        <v>2</v>
+      </c>
+      <c r="M89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" s="1">
+        <v>45465</v>
+      </c>
+      <c r="C90" t="s">
+        <v>23</v>
+      </c>
+      <c r="D90">
+        <v>12</v>
+      </c>
+      <c r="E90">
+        <v>1.04</v>
+      </c>
+      <c r="F90">
+        <v>46</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>2</v>
+      </c>
+      <c r="I90">
+        <v>10</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90" t="s">
+        <v>2</v>
+      </c>
+      <c r="M90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>24</v>
+      </c>
+      <c r="B91" s="1">
+        <v>45465</v>
+      </c>
+      <c r="C91" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91">
+        <v>69</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>29</v>
+      </c>
+      <c r="H91">
+        <v>36</v>
+      </c>
+      <c r="I91">
+        <v>4</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91" t="s">
+        <v>13</v>
+      </c>
+      <c r="M91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" s="1">
+        <v>45465</v>
+      </c>
+      <c r="C92" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92">
+        <v>148</v>
+      </c>
+      <c r="E92">
+        <v>6.65</v>
+      </c>
+      <c r="F92">
+        <v>768</v>
+      </c>
+      <c r="G92">
+        <v>140</v>
+      </c>
+      <c r="H92">
+        <v>7</v>
+      </c>
+      <c r="I92">
+        <v>2</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92" t="s">
+        <v>2</v>
+      </c>
+      <c r="M92">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M71" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
+  <autoFilter ref="A1:M92" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Documents\BC_STRAVA_Kilimanjaro_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01821924-45C1-4F84-A286-FB1D3D0735BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E2793A-BA49-4C5E-9A42-E2C55DBFF07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="492" yWindow="0" windowWidth="22548" windowHeight="12360" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
+    <workbookView xWindow="-23880" yWindow="1935" windowWidth="22545" windowHeight="12360" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="26">
   <si>
     <t>Participant</t>
   </si>
@@ -490,11 +490,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:M92"/>
+  <dimension ref="A1:M94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A93" sqref="A93"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4285,6 +4285,88 @@
         <v>2</v>
       </c>
     </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>19</v>
+      </c>
+      <c r="B93" s="1">
+        <v>45465</v>
+      </c>
+      <c r="C93" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93">
+        <v>90</v>
+      </c>
+      <c r="E93">
+        <v>30.04</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>7</v>
+      </c>
+      <c r="H93">
+        <v>83</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93" t="s">
+        <v>2</v>
+      </c>
+      <c r="M93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>19</v>
+      </c>
+      <c r="B94" s="1">
+        <v>45465</v>
+      </c>
+      <c r="C94" t="s">
+        <v>25</v>
+      </c>
+      <c r="D94">
+        <v>42</v>
+      </c>
+      <c r="E94">
+        <v>1.83</v>
+      </c>
+      <c r="F94">
+        <v>171</v>
+      </c>
+      <c r="G94">
+        <v>23</v>
+      </c>
+      <c r="H94">
+        <v>2</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94" t="s">
+        <v>2</v>
+      </c>
+      <c r="M94">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M92" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Documents\BC_STRAVA_Kilimanjaro_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E2793A-BA49-4C5E-9A42-E2C55DBFF07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7883D233-ACA3-4507-807E-A54BF61A49EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23880" yWindow="1935" windowWidth="22545" windowHeight="12360" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -494,7 +494,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A95" sqref="A95"/>
+      <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4255,7 +4255,7 @@
         <v>25</v>
       </c>
       <c r="D92">
-        <v>148</v>
+        <v>209</v>
       </c>
       <c r="E92">
         <v>6.65</v>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Documents\BC_STRAVA_Kilimanjaro_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7883D233-ACA3-4507-807E-A54BF61A49EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08032338-69B8-4E98-BCD0-F6413B8C7F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23880" yWindow="1935" windowWidth="22545" windowHeight="12360" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
+    <workbookView xWindow="492" yWindow="0" windowWidth="22548" windowHeight="12360" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="26">
   <si>
     <t>Participant</t>
   </si>
@@ -490,11 +490,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:M94"/>
+  <dimension ref="A1:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
+      <selection pane="bottomLeft" activeCell="M92" sqref="M92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4367,6 +4367,334 @@
         <v>2</v>
       </c>
     </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>19</v>
+      </c>
+      <c r="B95" s="1">
+        <v>45466</v>
+      </c>
+      <c r="C95" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95">
+        <v>12</v>
+      </c>
+      <c r="E95">
+        <v>1.17</v>
+      </c>
+      <c r="F95">
+        <v>131</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>5</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95" t="s">
+        <v>2</v>
+      </c>
+      <c r="M95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>18</v>
+      </c>
+      <c r="B96" s="1">
+        <v>45466</v>
+      </c>
+      <c r="C96" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96">
+        <v>67</v>
+      </c>
+      <c r="E96">
+        <v>5.91</v>
+      </c>
+      <c r="F96">
+        <v>551</v>
+      </c>
+      <c r="G96">
+        <v>3</v>
+      </c>
+      <c r="H96">
+        <v>28</v>
+      </c>
+      <c r="I96">
+        <v>22</v>
+      </c>
+      <c r="J96">
+        <v>6</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96" t="s">
+        <v>2</v>
+      </c>
+      <c r="M96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>18</v>
+      </c>
+      <c r="B97" s="1">
+        <v>45466</v>
+      </c>
+      <c r="C97" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97">
+        <v>12</v>
+      </c>
+      <c r="E97">
+        <v>0.48</v>
+      </c>
+      <c r="F97">
+        <v>7</v>
+      </c>
+      <c r="G97">
+        <v>4</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97" t="s">
+        <v>2</v>
+      </c>
+      <c r="M97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>14</v>
+      </c>
+      <c r="B98" s="1">
+        <v>45466</v>
+      </c>
+      <c r="C98" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98">
+        <v>111</v>
+      </c>
+      <c r="E98">
+        <v>3.92</v>
+      </c>
+      <c r="F98">
+        <v>551</v>
+      </c>
+      <c r="G98">
+        <v>85</v>
+      </c>
+      <c r="H98">
+        <v>2</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98" t="s">
+        <v>2</v>
+      </c>
+      <c r="M98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>24</v>
+      </c>
+      <c r="B99" s="1">
+        <v>45466</v>
+      </c>
+      <c r="C99" t="s">
+        <v>20</v>
+      </c>
+      <c r="D99">
+        <v>31</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>31</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99" t="s">
+        <v>13</v>
+      </c>
+      <c r="M99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>14</v>
+      </c>
+      <c r="B100" s="1">
+        <v>45466</v>
+      </c>
+      <c r="C100" t="s">
+        <v>20</v>
+      </c>
+      <c r="D100">
+        <v>50</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>15</v>
+      </c>
+      <c r="H100">
+        <v>24</v>
+      </c>
+      <c r="I100">
+        <v>11</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100" t="s">
+        <v>2</v>
+      </c>
+      <c r="M100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>24</v>
+      </c>
+      <c r="B101" s="1">
+        <v>45466</v>
+      </c>
+      <c r="C101" t="s">
+        <v>20</v>
+      </c>
+      <c r="D101">
+        <v>55</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>8</v>
+      </c>
+      <c r="H101">
+        <v>48</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101" t="s">
+        <v>13</v>
+      </c>
+      <c r="M101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>14</v>
+      </c>
+      <c r="B102" s="1">
+        <v>45466</v>
+      </c>
+      <c r="C102" t="s">
+        <v>23</v>
+      </c>
+      <c r="D102">
+        <v>60</v>
+      </c>
+      <c r="E102">
+        <v>3.22</v>
+      </c>
+      <c r="F102">
+        <v>85</v>
+      </c>
+      <c r="G102">
+        <v>3</v>
+      </c>
+      <c r="H102">
+        <v>8</v>
+      </c>
+      <c r="I102">
+        <v>25</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102" t="s">
+        <v>2</v>
+      </c>
+      <c r="M102">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M92" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Documents\BC_STRAVA_Kilimanjaro_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08032338-69B8-4E98-BCD0-F6413B8C7F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD99D040-2016-4A32-A53F-5E639606FF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="492" yWindow="0" windowWidth="22548" windowHeight="12360" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -494,7 +494,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M92" sqref="M92"/>
+      <selection pane="bottomLeft" activeCell="I95" sqref="I95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4390,10 +4390,10 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95">
         <v>0</v>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Documents\BC_STRAVA_Kilimanjaro_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD99D040-2016-4A32-A53F-5E639606FF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3134ECCA-FBE4-4BB7-948F-2E89E3672836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="492" yWindow="0" windowWidth="22548" windowHeight="12360" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="26">
   <si>
     <t>Participant</t>
   </si>
@@ -490,11 +490,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:M102"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I95" sqref="I95"/>
+      <selection pane="bottomLeft" activeCell="M103" sqref="M103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4695,6 +4695,47 @@
         <v>2</v>
       </c>
     </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>18</v>
+      </c>
+      <c r="B103" s="1">
+        <v>45466</v>
+      </c>
+      <c r="C103" t="s">
+        <v>21</v>
+      </c>
+      <c r="D103">
+        <v>12</v>
+      </c>
+      <c r="E103">
+        <v>4.09</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>2</v>
+      </c>
+      <c r="H103">
+        <v>10</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103" t="s">
+        <v>2</v>
+      </c>
+      <c r="M103">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M92" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Documents\BC_STRAVA_Kilimanjaro_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3134ECCA-FBE4-4BB7-948F-2E89E3672836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF4F734-07EF-45CA-AB33-BB4F17EB3F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="492" yWindow="0" windowWidth="22548" windowHeight="12360" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="27">
   <si>
     <t>Participant</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Walk</t>
+  </si>
+  <si>
+    <t>Wily Hyena</t>
   </si>
 </sst>
 </file>
@@ -490,11 +493,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:M103"/>
+  <dimension ref="A1:M107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M103" sqref="M103"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4736,6 +4739,170 @@
         <v>2</v>
       </c>
     </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>19</v>
+      </c>
+      <c r="B104" s="1">
+        <v>45467</v>
+      </c>
+      <c r="C104" t="s">
+        <v>23</v>
+      </c>
+      <c r="D104">
+        <v>10</v>
+      </c>
+      <c r="E104">
+        <v>1.01</v>
+      </c>
+      <c r="F104">
+        <v>89</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>2</v>
+      </c>
+      <c r="I104">
+        <v>4</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104" t="s">
+        <v>2</v>
+      </c>
+      <c r="M104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>19</v>
+      </c>
+      <c r="B105" s="1">
+        <v>45467</v>
+      </c>
+      <c r="C105" t="s">
+        <v>20</v>
+      </c>
+      <c r="D105">
+        <v>41</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>11</v>
+      </c>
+      <c r="H105">
+        <v>22</v>
+      </c>
+      <c r="I105">
+        <v>8</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105" t="s">
+        <v>2</v>
+      </c>
+      <c r="M105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>18</v>
+      </c>
+      <c r="B106" s="1">
+        <v>45467</v>
+      </c>
+      <c r="C106" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106">
+        <v>32</v>
+      </c>
+      <c r="E106">
+        <v>10.68</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>28</v>
+      </c>
+      <c r="I106">
+        <v>3</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106" t="s">
+        <v>2</v>
+      </c>
+      <c r="M106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>14</v>
+      </c>
+      <c r="B107" s="1">
+        <v>45467</v>
+      </c>
+      <c r="C107" t="s">
+        <v>25</v>
+      </c>
+      <c r="D107">
+        <v>28</v>
+      </c>
+      <c r="E107">
+        <v>1.4</v>
+      </c>
+      <c r="F107">
+        <v>62</v>
+      </c>
+      <c r="G107">
+        <v>28</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107" t="s">
+        <v>26</v>
+      </c>
+      <c r="M107">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M92" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Documents\BC_STRAVA_Kilimanjaro_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF4F734-07EF-45CA-AB33-BB4F17EB3F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743FB46D-B8E3-4ED4-88AF-D9E27BD06D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="492" yWindow="0" windowWidth="22548" windowHeight="12360" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="27">
   <si>
     <t>Participant</t>
   </si>
@@ -493,11 +493,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:M110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E108" sqref="E108"/>
+      <selection pane="bottomLeft" activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4903,6 +4903,129 @@
         <v>3</v>
       </c>
     </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>19</v>
+      </c>
+      <c r="B108" s="1">
+        <v>45468</v>
+      </c>
+      <c r="C108" t="s">
+        <v>20</v>
+      </c>
+      <c r="D108">
+        <v>26</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>24</v>
+      </c>
+      <c r="H108">
+        <v>2</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108" t="s">
+        <v>2</v>
+      </c>
+      <c r="M108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>18</v>
+      </c>
+      <c r="B109" s="1">
+        <v>45468</v>
+      </c>
+      <c r="C109" t="s">
+        <v>23</v>
+      </c>
+      <c r="D109">
+        <v>48</v>
+      </c>
+      <c r="E109">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="F109">
+        <v>115</v>
+      </c>
+      <c r="G109">
+        <v>3</v>
+      </c>
+      <c r="H109">
+        <v>25</v>
+      </c>
+      <c r="I109">
+        <v>11</v>
+      </c>
+      <c r="J109">
+        <v>3</v>
+      </c>
+      <c r="K109">
+        <v>4</v>
+      </c>
+      <c r="L109" t="s">
+        <v>2</v>
+      </c>
+      <c r="M109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>14</v>
+      </c>
+      <c r="B110" s="1">
+        <v>45468</v>
+      </c>
+      <c r="C110" t="s">
+        <v>23</v>
+      </c>
+      <c r="D110">
+        <v>36</v>
+      </c>
+      <c r="E110">
+        <v>3.12</v>
+      </c>
+      <c r="F110">
+        <v>95</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>14</v>
+      </c>
+      <c r="I110">
+        <v>17</v>
+      </c>
+      <c r="J110">
+        <v>3</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110" t="s">
+        <v>26</v>
+      </c>
+      <c r="M110">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M92" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Documents\BC_STRAVA_Kilimanjaro_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743FB46D-B8E3-4ED4-88AF-D9E27BD06D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A23FA0-EBCA-4B61-AEAA-8F218B37308C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="492" yWindow="0" windowWidth="22548" windowHeight="12360" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Wily Hyena</t>
+  </si>
+  <si>
+    <t>Sauntering Hippo</t>
   </si>
 </sst>
 </file>
@@ -493,11 +496,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:M110"/>
+  <dimension ref="A1:M115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A111" sqref="A111"/>
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,7 +515,7 @@
     <col min="9" max="9" width="9.33203125" customWidth="1"/>
     <col min="10" max="10" width="9.21875" customWidth="1"/>
     <col min="11" max="11" width="9.77734375" customWidth="1"/>
-    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5026,6 +5029,211 @@
         <v>3</v>
       </c>
     </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B111" s="1">
+        <v>45468</v>
+      </c>
+      <c r="C111" t="s">
+        <v>20</v>
+      </c>
+      <c r="D111">
+        <v>33</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>21</v>
+      </c>
+      <c r="H111">
+        <v>11</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111" t="s">
+        <v>26</v>
+      </c>
+      <c r="M111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>24</v>
+      </c>
+      <c r="B112" s="1">
+        <v>45468</v>
+      </c>
+      <c r="C112" t="s">
+        <v>20</v>
+      </c>
+      <c r="D112">
+        <v>73</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>8</v>
+      </c>
+      <c r="H112">
+        <v>52</v>
+      </c>
+      <c r="I112">
+        <v>12</v>
+      </c>
+      <c r="J112">
+        <v>3</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112" t="s">
+        <v>27</v>
+      </c>
+      <c r="M112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>14</v>
+      </c>
+      <c r="B113" s="1">
+        <v>45468</v>
+      </c>
+      <c r="C113" t="s">
+        <v>25</v>
+      </c>
+      <c r="D113">
+        <v>35</v>
+      </c>
+      <c r="E113">
+        <v>1.63</v>
+      </c>
+      <c r="F113">
+        <v>43</v>
+      </c>
+      <c r="G113">
+        <v>35</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113" t="s">
+        <v>26</v>
+      </c>
+      <c r="M113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>18</v>
+      </c>
+      <c r="B114" s="1">
+        <v>45469</v>
+      </c>
+      <c r="C114" t="s">
+        <v>21</v>
+      </c>
+      <c r="D114">
+        <v>79</v>
+      </c>
+      <c r="E114">
+        <v>21.21</v>
+      </c>
+      <c r="F114">
+        <v>1184</v>
+      </c>
+      <c r="G114">
+        <v>6</v>
+      </c>
+      <c r="H114">
+        <v>67</v>
+      </c>
+      <c r="I114">
+        <v>5</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114" t="s">
+        <v>2</v>
+      </c>
+      <c r="M114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>19</v>
+      </c>
+      <c r="B115" s="1">
+        <v>45469</v>
+      </c>
+      <c r="C115" t="s">
+        <v>23</v>
+      </c>
+      <c r="D115">
+        <v>19</v>
+      </c>
+      <c r="E115">
+        <v>2.14</v>
+      </c>
+      <c r="F115">
+        <v>157</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>3</v>
+      </c>
+      <c r="I115">
+        <v>10</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115" t="s">
+        <v>2</v>
+      </c>
+      <c r="M115">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M92" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Documents\BC_STRAVA_Kilimanjaro_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A23FA0-EBCA-4B61-AEAA-8F218B37308C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D280A32C-EA42-412A-9D64-A06FF3F3B82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="492" yWindow="0" windowWidth="22548" windowHeight="12360" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -496,11 +496,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:M115"/>
+  <dimension ref="A1:M117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A116" sqref="A116"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5234,6 +5234,88 @@
         <v>3</v>
       </c>
     </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>14</v>
+      </c>
+      <c r="B116" s="1">
+        <v>45469</v>
+      </c>
+      <c r="C116" t="s">
+        <v>20</v>
+      </c>
+      <c r="D116">
+        <v>42</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>3</v>
+      </c>
+      <c r="H116">
+        <v>19</v>
+      </c>
+      <c r="I116">
+        <v>19</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116" t="s">
+        <v>26</v>
+      </c>
+      <c r="M116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>14</v>
+      </c>
+      <c r="B117" s="1">
+        <v>45470</v>
+      </c>
+      <c r="C117" t="s">
+        <v>23</v>
+      </c>
+      <c r="D117">
+        <v>31</v>
+      </c>
+      <c r="E117">
+        <v>3</v>
+      </c>
+      <c r="F117">
+        <v>92</v>
+      </c>
+      <c r="G117">
+        <v>2</v>
+      </c>
+      <c r="H117">
+        <v>19</v>
+      </c>
+      <c r="I117">
+        <v>10</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117" t="s">
+        <v>26</v>
+      </c>
+      <c r="M117">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M92" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Documents\BC_STRAVA_Kilimanjaro_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D280A32C-EA42-412A-9D64-A06FF3F3B82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DEB263-74C5-4886-85DE-E3279F894B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="492" yWindow="0" windowWidth="22548" windowHeight="12360" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -496,11 +496,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:M117"/>
+  <dimension ref="A1:M118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A118" sqref="A118"/>
+      <selection pane="bottomLeft" activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5316,6 +5316,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>14</v>
+      </c>
+      <c r="B118" s="1">
+        <v>45470</v>
+      </c>
+      <c r="C118" t="s">
+        <v>20</v>
+      </c>
+      <c r="D118">
+        <v>47</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>22</v>
+      </c>
+      <c r="H118">
+        <v>24</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118" t="s">
+        <v>26</v>
+      </c>
+      <c r="M118">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M92" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Documents\BC_STRAVA_Kilimanjaro_App\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/BC_STRAVA_Kilimanjaro_App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DEB263-74C5-4886-85DE-E3279F894B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{606E6F68-87ED-42B5-8314-B1F150F4D732}"/>
   <bookViews>
-    <workbookView xWindow="492" yWindow="0" windowWidth="22548" windowHeight="12360" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
+    <workbookView xWindow="492" yWindow="600" windowWidth="22548" windowHeight="12360" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$92</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -496,11 +495,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:M118"/>
+  <dimension ref="A1:M123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B119" sqref="B119"/>
+      <selection pane="bottomLeft" activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5357,6 +5356,211 @@
         <v>3</v>
       </c>
     </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>14</v>
+      </c>
+      <c r="B119" s="1">
+        <v>45470</v>
+      </c>
+      <c r="C119" t="s">
+        <v>25</v>
+      </c>
+      <c r="D119">
+        <v>46</v>
+      </c>
+      <c r="E119">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="F119">
+        <v>36</v>
+      </c>
+      <c r="G119">
+        <v>46</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119" t="s">
+        <v>26</v>
+      </c>
+      <c r="M119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>17</v>
+      </c>
+      <c r="B120" s="1">
+        <v>45470</v>
+      </c>
+      <c r="C120" t="s">
+        <v>23</v>
+      </c>
+      <c r="D120">
+        <v>68</v>
+      </c>
+      <c r="E120">
+        <v>6.74</v>
+      </c>
+      <c r="F120">
+        <v>962</v>
+      </c>
+      <c r="G120">
+        <v>2</v>
+      </c>
+      <c r="H120">
+        <v>18</v>
+      </c>
+      <c r="I120">
+        <v>39</v>
+      </c>
+      <c r="J120">
+        <v>7</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120" t="s">
+        <v>27</v>
+      </c>
+      <c r="M120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>18</v>
+      </c>
+      <c r="B121" s="1">
+        <v>45470</v>
+      </c>
+      <c r="C121" t="s">
+        <v>20</v>
+      </c>
+      <c r="D121">
+        <v>47</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>31</v>
+      </c>
+      <c r="H121">
+        <v>15</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121" t="s">
+        <v>2</v>
+      </c>
+      <c r="M121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>19</v>
+      </c>
+      <c r="B122" s="1">
+        <v>45471</v>
+      </c>
+      <c r="C122" t="s">
+        <v>23</v>
+      </c>
+      <c r="D122">
+        <v>18</v>
+      </c>
+      <c r="E122">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="F122">
+        <v>151</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>3</v>
+      </c>
+      <c r="I122">
+        <v>11</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122" t="s">
+        <v>2</v>
+      </c>
+      <c r="M122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>14</v>
+      </c>
+      <c r="B123" s="1">
+        <v>45471</v>
+      </c>
+      <c r="C123" t="s">
+        <v>23</v>
+      </c>
+      <c r="D123">
+        <v>44</v>
+      </c>
+      <c r="E123">
+        <v>4.33</v>
+      </c>
+      <c r="F123">
+        <v>148</v>
+      </c>
+      <c r="G123">
+        <v>2</v>
+      </c>
+      <c r="H123">
+        <v>17</v>
+      </c>
+      <c r="I123">
+        <v>24</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123" t="s">
+        <v>26</v>
+      </c>
+      <c r="M123">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M92" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/BC_STRAVA_Kilimanjaro_App/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{606E6F68-87ED-42B5-8314-B1F150F4D732}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{885D9956-818C-40DE-8E65-9AE5DEC3F62A}"/>
   <bookViews>
-    <workbookView xWindow="492" yWindow="600" windowWidth="22548" windowHeight="12360" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
+    <workbookView xWindow="252" yWindow="48" windowWidth="22548" windowHeight="12360" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -495,11 +495,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:M123"/>
+  <dimension ref="A1:M126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A124" sqref="A124"/>
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5561,6 +5561,129 @@
         <v>3</v>
       </c>
     </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>24</v>
+      </c>
+      <c r="B124" s="1">
+        <v>45471</v>
+      </c>
+      <c r="C124" t="s">
+        <v>20</v>
+      </c>
+      <c r="D124">
+        <v>60</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>13</v>
+      </c>
+      <c r="H124">
+        <v>39</v>
+      </c>
+      <c r="I124">
+        <v>7</v>
+      </c>
+      <c r="J124">
+        <v>2</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124" t="s">
+        <v>27</v>
+      </c>
+      <c r="M124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>14</v>
+      </c>
+      <c r="B125" s="1">
+        <v>45471</v>
+      </c>
+      <c r="C125" t="s">
+        <v>20</v>
+      </c>
+      <c r="D125">
+        <v>26</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>11</v>
+      </c>
+      <c r="H125">
+        <v>13</v>
+      </c>
+      <c r="I125">
+        <v>3</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125" t="s">
+        <v>26</v>
+      </c>
+      <c r="M125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>17</v>
+      </c>
+      <c r="B126" s="1">
+        <v>45471</v>
+      </c>
+      <c r="C126" t="s">
+        <v>20</v>
+      </c>
+      <c r="D126">
+        <v>65</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>12</v>
+      </c>
+      <c r="H126">
+        <v>36</v>
+      </c>
+      <c r="I126">
+        <v>16</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126" t="s">
+        <v>27</v>
+      </c>
+      <c r="M126">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M92" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{885D9956-818C-40DE-8E65-9AE5DEC3F62A}"/>
+  <xr:revisionPtr revIDLastSave="182" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8FAB612-1FFD-42FD-B597-A370742FC62F}"/>
   <bookViews>
     <workbookView xWindow="252" yWindow="48" windowWidth="22548" windowHeight="12360" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -176,6 +176,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -495,11 +499,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:M126"/>
+  <dimension ref="A1:M132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A127" sqref="A127"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5684,6 +5688,252 @@
         <v>3</v>
       </c>
     </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>18</v>
+      </c>
+      <c r="B127" s="1">
+        <v>45472</v>
+      </c>
+      <c r="C127" t="s">
+        <v>23</v>
+      </c>
+      <c r="D127">
+        <v>51</v>
+      </c>
+      <c r="E127">
+        <v>4.82</v>
+      </c>
+      <c r="F127">
+        <v>210</v>
+      </c>
+      <c r="G127">
+        <v>2</v>
+      </c>
+      <c r="H127">
+        <v>35</v>
+      </c>
+      <c r="I127">
+        <v>9</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127" t="s">
+        <v>2</v>
+      </c>
+      <c r="M127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>24</v>
+      </c>
+      <c r="B128" s="1">
+        <v>45472</v>
+      </c>
+      <c r="C128" t="s">
+        <v>20</v>
+      </c>
+      <c r="D128">
+        <v>81</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>9</v>
+      </c>
+      <c r="H128">
+        <v>48</v>
+      </c>
+      <c r="I128">
+        <v>15</v>
+      </c>
+      <c r="J128">
+        <v>9</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128" t="s">
+        <v>27</v>
+      </c>
+      <c r="M128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>18</v>
+      </c>
+      <c r="B129" s="1">
+        <v>45472</v>
+      </c>
+      <c r="C129" t="s">
+        <v>25</v>
+      </c>
+      <c r="D129">
+        <v>16</v>
+      </c>
+      <c r="E129">
+        <v>0.59</v>
+      </c>
+      <c r="F129">
+        <v>10</v>
+      </c>
+      <c r="G129">
+        <v>2</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129" t="s">
+        <v>2</v>
+      </c>
+      <c r="M129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>14</v>
+      </c>
+      <c r="B130" s="1">
+        <v>45472</v>
+      </c>
+      <c r="C130" t="s">
+        <v>25</v>
+      </c>
+      <c r="D130">
+        <v>140</v>
+      </c>
+      <c r="E130">
+        <v>5.57</v>
+      </c>
+      <c r="F130">
+        <v>856</v>
+      </c>
+      <c r="G130">
+        <v>140</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130" t="s">
+        <v>26</v>
+      </c>
+      <c r="M130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>17</v>
+      </c>
+      <c r="B131" s="1">
+        <v>45472</v>
+      </c>
+      <c r="C131" t="s">
+        <v>23</v>
+      </c>
+      <c r="D131">
+        <v>31</v>
+      </c>
+      <c r="E131">
+        <v>3.12</v>
+      </c>
+      <c r="F131">
+        <v>203</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>13</v>
+      </c>
+      <c r="I131">
+        <v>14</v>
+      </c>
+      <c r="J131">
+        <v>2</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131" t="s">
+        <v>27</v>
+      </c>
+      <c r="M131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>17</v>
+      </c>
+      <c r="B132" s="1">
+        <v>45472</v>
+      </c>
+      <c r="C132" t="s">
+        <v>20</v>
+      </c>
+      <c r="D132">
+        <v>32</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>13</v>
+      </c>
+      <c r="H132">
+        <v>18</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132" t="s">
+        <v>27</v>
+      </c>
+      <c r="M132">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M92" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="182" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8FAB612-1FFD-42FD-B597-A370742FC62F}"/>
+  <xr:revisionPtr revIDLastSave="196" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E536A215-B7D9-470A-901C-185C46E7B894}"/>
   <bookViews>
     <workbookView xWindow="252" yWindow="48" windowWidth="22548" windowHeight="12360" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -499,11 +499,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:M132"/>
+  <dimension ref="A1:M133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A133" sqref="A133"/>
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M133" sqref="M133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5934,6 +5934,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>14</v>
+      </c>
+      <c r="B133" s="1">
+        <v>45473</v>
+      </c>
+      <c r="C133" t="s">
+        <v>23</v>
+      </c>
+      <c r="D133">
+        <v>91</v>
+      </c>
+      <c r="E133">
+        <v>7.46</v>
+      </c>
+      <c r="F133">
+        <v>213</v>
+      </c>
+      <c r="G133">
+        <v>3</v>
+      </c>
+      <c r="H133">
+        <v>15</v>
+      </c>
+      <c r="I133">
+        <v>35</v>
+      </c>
+      <c r="J133">
+        <v>28</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133" t="s">
+        <v>26</v>
+      </c>
+      <c r="M133">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M92" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="196" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E536A215-B7D9-470A-901C-185C46E7B894}"/>
+  <xr:revisionPtr revIDLastSave="237" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46E6963E-102C-48F5-83BD-3BF33E0DF19F}"/>
   <bookViews>
     <workbookView xWindow="252" yWindow="48" windowWidth="22548" windowHeight="12360" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -499,11 +499,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:M133"/>
+  <dimension ref="A1:M136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M133" sqref="M133"/>
+      <selection pane="bottomLeft" activeCell="A137" sqref="A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5975,6 +5975,129 @@
         <v>3</v>
       </c>
     </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>18</v>
+      </c>
+      <c r="B134" s="1">
+        <v>45473</v>
+      </c>
+      <c r="C134" t="s">
+        <v>23</v>
+      </c>
+      <c r="D134">
+        <v>40</v>
+      </c>
+      <c r="E134">
+        <v>3.52</v>
+      </c>
+      <c r="F134">
+        <v>217</v>
+      </c>
+      <c r="G134">
+        <v>3</v>
+      </c>
+      <c r="H134">
+        <v>23</v>
+      </c>
+      <c r="I134">
+        <v>8</v>
+      </c>
+      <c r="J134">
+        <v>2</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134" t="s">
+        <v>2</v>
+      </c>
+      <c r="M134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>18</v>
+      </c>
+      <c r="B135" s="1">
+        <v>45473</v>
+      </c>
+      <c r="C135" t="s">
+        <v>25</v>
+      </c>
+      <c r="D135">
+        <v>5</v>
+      </c>
+      <c r="E135">
+        <v>0.2</v>
+      </c>
+      <c r="F135">
+        <v>13</v>
+      </c>
+      <c r="G135">
+        <v>5</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135" t="s">
+        <v>2</v>
+      </c>
+      <c r="M135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>24</v>
+      </c>
+      <c r="B136" s="1">
+        <v>45473</v>
+      </c>
+      <c r="C136" t="s">
+        <v>20</v>
+      </c>
+      <c r="D136">
+        <v>32</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>32</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136" t="s">
+        <v>27</v>
+      </c>
+      <c r="M136">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M92" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="237" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46E6963E-102C-48F5-83BD-3BF33E0DF19F}"/>
+  <xr:revisionPtr revIDLastSave="250" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEF9AED6-A58F-4901-9BA2-C0AD8BEE4522}"/>
   <bookViews>
     <workbookView xWindow="252" yWindow="48" windowWidth="22548" windowHeight="12360" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -499,11 +499,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:M136"/>
+  <dimension ref="A1:M137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A137" sqref="A137"/>
+      <selection pane="bottomLeft" activeCell="A138" sqref="A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6098,6 +6098,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>14</v>
+      </c>
+      <c r="B137" s="1">
+        <v>45473</v>
+      </c>
+      <c r="C137" t="s">
+        <v>20</v>
+      </c>
+      <c r="D137">
+        <v>27</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>9</v>
+      </c>
+      <c r="H137">
+        <v>14</v>
+      </c>
+      <c r="I137">
+        <v>4</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137" t="s">
+        <v>26</v>
+      </c>
+      <c r="M137">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M92" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="250" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEF9AED6-A58F-4901-9BA2-C0AD8BEE4522}"/>
+  <xr:revisionPtr revIDLastSave="290" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{398BA8C7-D1B2-4396-AC57-D0F9A9CFD90B}"/>
   <bookViews>
     <workbookView xWindow="252" yWindow="48" windowWidth="22548" windowHeight="12360" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -499,11 +499,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:M137"/>
+  <dimension ref="A1:M140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A138" sqref="A138"/>
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6139,6 +6139,129 @@
         <v>3</v>
       </c>
     </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>17</v>
+      </c>
+      <c r="B138" s="1">
+        <v>45473</v>
+      </c>
+      <c r="C138" t="s">
+        <v>20</v>
+      </c>
+      <c r="D138">
+        <v>44</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>44</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138" t="s">
+        <v>27</v>
+      </c>
+      <c r="M138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>18</v>
+      </c>
+      <c r="B139" s="1">
+        <v>45474</v>
+      </c>
+      <c r="C139" t="s">
+        <v>20</v>
+      </c>
+      <c r="D139">
+        <v>31</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>23</v>
+      </c>
+      <c r="H139">
+        <v>8</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139" t="s">
+        <v>2</v>
+      </c>
+      <c r="M139">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>19</v>
+      </c>
+      <c r="B140" s="1">
+        <v>45474</v>
+      </c>
+      <c r="C140" t="s">
+        <v>20</v>
+      </c>
+      <c r="D140">
+        <v>47</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>40</v>
+      </c>
+      <c r="H140">
+        <v>6</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140" t="s">
+        <v>2</v>
+      </c>
+      <c r="M140">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M92" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="290" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{398BA8C7-D1B2-4396-AC57-D0F9A9CFD90B}"/>
+  <xr:revisionPtr revIDLastSave="317" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{035CC1BF-A8CE-42F4-A14E-9B8CFC156075}"/>
   <bookViews>
     <workbookView xWindow="252" yWindow="48" windowWidth="22548" windowHeight="12360" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -499,11 +499,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:M140"/>
+  <dimension ref="A1:M142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A141" sqref="A141"/>
+      <selection pane="bottomLeft" activeCell="J148" sqref="J148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6215,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="L139" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="M139">
         <v>4</v>
@@ -6259,6 +6259,88 @@
         <v>2</v>
       </c>
       <c r="M140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>14</v>
+      </c>
+      <c r="B141" s="1">
+        <v>45474</v>
+      </c>
+      <c r="C141" t="s">
+        <v>25</v>
+      </c>
+      <c r="D141">
+        <v>19</v>
+      </c>
+      <c r="E141">
+        <v>0.94</v>
+      </c>
+      <c r="F141">
+        <v>33</v>
+      </c>
+      <c r="G141">
+        <v>19</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141" t="s">
+        <v>3</v>
+      </c>
+      <c r="M141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>14</v>
+      </c>
+      <c r="B142" s="1">
+        <v>45474</v>
+      </c>
+      <c r="C142" t="s">
+        <v>25</v>
+      </c>
+      <c r="D142">
+        <v>22</v>
+      </c>
+      <c r="E142">
+        <v>1.06</v>
+      </c>
+      <c r="F142">
+        <v>49</v>
+      </c>
+      <c r="G142">
+        <v>22</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142" t="s">
+        <v>3</v>
+      </c>
+      <c r="M142">
         <v>4</v>
       </c>
     </row>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="317" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{035CC1BF-A8CE-42F4-A14E-9B8CFC156075}"/>
+  <xr:revisionPtr revIDLastSave="357" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4F0B159-4BF7-48EF-A779-DBA24A9DC4B3}"/>
   <bookViews>
     <workbookView xWindow="252" yWindow="48" windowWidth="22548" windowHeight="12360" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -499,11 +499,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:M142"/>
+  <dimension ref="A1:M145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J148" sqref="J148"/>
+      <selection pane="bottomLeft" activeCell="A146" sqref="A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6344,6 +6344,129 @@
         <v>4</v>
       </c>
     </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>18</v>
+      </c>
+      <c r="B143" s="1">
+        <v>45474</v>
+      </c>
+      <c r="C143" t="s">
+        <v>25</v>
+      </c>
+      <c r="D143">
+        <v>20</v>
+      </c>
+      <c r="E143">
+        <v>0.73</v>
+      </c>
+      <c r="F143">
+        <v>66</v>
+      </c>
+      <c r="G143">
+        <v>20</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143" t="s">
+        <v>27</v>
+      </c>
+      <c r="M143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>14</v>
+      </c>
+      <c r="B144" s="1">
+        <v>45474</v>
+      </c>
+      <c r="C144" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144">
+        <v>23</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>23</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144" t="s">
+        <v>3</v>
+      </c>
+      <c r="M144">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>18</v>
+      </c>
+      <c r="B145" s="1">
+        <v>45475</v>
+      </c>
+      <c r="C145" t="s">
+        <v>21</v>
+      </c>
+      <c r="D145">
+        <v>57</v>
+      </c>
+      <c r="E145">
+        <v>14.77</v>
+      </c>
+      <c r="F145">
+        <v>863</v>
+      </c>
+      <c r="G145">
+        <v>9</v>
+      </c>
+      <c r="H145">
+        <v>45</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145" t="s">
+        <v>27</v>
+      </c>
+      <c r="M145">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M92" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="357" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4F0B159-4BF7-48EF-A779-DBA24A9DC4B3}"/>
+  <xr:revisionPtr revIDLastSave="398" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEDA408E-5969-4D26-B898-C09B63B1230A}"/>
   <bookViews>
     <workbookView xWindow="252" yWindow="48" windowWidth="22548" windowHeight="12360" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -499,11 +499,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:M145"/>
+  <dimension ref="A1:M148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A146" sqref="A146"/>
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A149" sqref="A149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6467,6 +6467,129 @@
         <v>4</v>
       </c>
     </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>24</v>
+      </c>
+      <c r="B146" s="1">
+        <v>45475</v>
+      </c>
+      <c r="C146" t="s">
+        <v>20</v>
+      </c>
+      <c r="D146">
+        <v>76</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>21</v>
+      </c>
+      <c r="H146">
+        <v>46</v>
+      </c>
+      <c r="I146">
+        <v>9</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146" t="s">
+        <v>2</v>
+      </c>
+      <c r="M146">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>24</v>
+      </c>
+      <c r="B147" s="1">
+        <v>45475</v>
+      </c>
+      <c r="C147" t="s">
+        <v>25</v>
+      </c>
+      <c r="D147">
+        <v>23</v>
+      </c>
+      <c r="E147">
+        <v>1.23</v>
+      </c>
+      <c r="F147">
+        <v>46</v>
+      </c>
+      <c r="G147">
+        <v>23</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147" t="s">
+        <v>2</v>
+      </c>
+      <c r="M147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>19</v>
+      </c>
+      <c r="B148" s="1">
+        <v>45475</v>
+      </c>
+      <c r="C148" t="s">
+        <v>20</v>
+      </c>
+      <c r="D148">
+        <v>79</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>15</v>
+      </c>
+      <c r="H148">
+        <v>38</v>
+      </c>
+      <c r="I148">
+        <v>25</v>
+      </c>
+      <c r="J148">
+        <v>2</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148" t="s">
+        <v>2</v>
+      </c>
+      <c r="M148">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M92" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="398" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEDA408E-5969-4D26-B898-C09B63B1230A}"/>
+  <xr:revisionPtr revIDLastSave="450" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA63F14D-BDF1-42CB-A53F-FB7B1D837F61}"/>
   <bookViews>
     <workbookView xWindow="252" yWindow="48" windowWidth="22548" windowHeight="12360" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -499,11 +499,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:M148"/>
+  <dimension ref="A1:M152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A149" sqref="A149"/>
+      <selection pane="bottomLeft" activeCell="E153" sqref="E153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6590,6 +6590,170 @@
         <v>4</v>
       </c>
     </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>14</v>
+      </c>
+      <c r="B149" s="1">
+        <v>45475</v>
+      </c>
+      <c r="C149" t="s">
+        <v>20</v>
+      </c>
+      <c r="D149">
+        <v>44</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>23</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149" t="s">
+        <v>3</v>
+      </c>
+      <c r="M149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>18</v>
+      </c>
+      <c r="B150" s="1">
+        <v>45476</v>
+      </c>
+      <c r="C150" t="s">
+        <v>25</v>
+      </c>
+      <c r="D150">
+        <v>21</v>
+      </c>
+      <c r="E150">
+        <v>0.97</v>
+      </c>
+      <c r="F150">
+        <v>56</v>
+      </c>
+      <c r="G150">
+        <v>21</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150" t="s">
+        <v>27</v>
+      </c>
+      <c r="M150">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>19</v>
+      </c>
+      <c r="B151" s="1">
+        <v>45476</v>
+      </c>
+      <c r="C151" t="s">
+        <v>20</v>
+      </c>
+      <c r="D151">
+        <v>56</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>54</v>
+      </c>
+      <c r="H151">
+        <v>2</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151" t="s">
+        <v>2</v>
+      </c>
+      <c r="M151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>24</v>
+      </c>
+      <c r="B152" s="1">
+        <v>45476</v>
+      </c>
+      <c r="C152" t="s">
+        <v>23</v>
+      </c>
+      <c r="D152">
+        <v>30</v>
+      </c>
+      <c r="E152">
+        <v>3.02</v>
+      </c>
+      <c r="F152">
+        <v>62</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152">
+        <v>3</v>
+      </c>
+      <c r="J152">
+        <v>16</v>
+      </c>
+      <c r="K152">
+        <v>7</v>
+      </c>
+      <c r="L152" t="s">
+        <v>2</v>
+      </c>
+      <c r="M152">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M92" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="450" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA63F14D-BDF1-42CB-A53F-FB7B1D837F61}"/>
+  <xr:revisionPtr revIDLastSave="568" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{445C2FAA-124B-4602-968B-897047427188}"/>
   <bookViews>
     <workbookView xWindow="252" yWindow="48" windowWidth="22548" windowHeight="12360" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -499,11 +499,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:M152"/>
+  <dimension ref="A1:M161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E153" sqref="E153"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A162" sqref="A162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6754,6 +6754,375 @@
         <v>4</v>
       </c>
     </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>18</v>
+      </c>
+      <c r="B153" s="1">
+        <v>45477</v>
+      </c>
+      <c r="C153" t="s">
+        <v>23</v>
+      </c>
+      <c r="D153">
+        <v>45</v>
+      </c>
+      <c r="E153">
+        <v>4.58</v>
+      </c>
+      <c r="F153">
+        <v>295</v>
+      </c>
+      <c r="G153">
+        <v>3</v>
+      </c>
+      <c r="H153">
+        <v>34</v>
+      </c>
+      <c r="I153">
+        <v>5</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153" t="s">
+        <v>27</v>
+      </c>
+      <c r="M153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>18</v>
+      </c>
+      <c r="B154" s="1">
+        <v>45477</v>
+      </c>
+      <c r="C154" t="s">
+        <v>25</v>
+      </c>
+      <c r="D154">
+        <v>26</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>20</v>
+      </c>
+      <c r="G154">
+        <v>26</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154" t="s">
+        <v>27</v>
+      </c>
+      <c r="M154">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>24</v>
+      </c>
+      <c r="B155" s="1">
+        <v>45477</v>
+      </c>
+      <c r="C155" t="s">
+        <v>20</v>
+      </c>
+      <c r="D155">
+        <v>46</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>8</v>
+      </c>
+      <c r="H155">
+        <v>31</v>
+      </c>
+      <c r="I155">
+        <v>7</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155" t="s">
+        <v>2</v>
+      </c>
+      <c r="M155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>14</v>
+      </c>
+      <c r="B156" s="1">
+        <v>45477</v>
+      </c>
+      <c r="C156" t="s">
+        <v>25</v>
+      </c>
+      <c r="D156">
+        <v>30</v>
+      </c>
+      <c r="E156">
+        <v>1.62</v>
+      </c>
+      <c r="F156">
+        <v>33</v>
+      </c>
+      <c r="G156">
+        <v>30</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156" t="s">
+        <v>3</v>
+      </c>
+      <c r="M156">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>14</v>
+      </c>
+      <c r="B157" s="1">
+        <v>45477</v>
+      </c>
+      <c r="C157" t="s">
+        <v>25</v>
+      </c>
+      <c r="D157">
+        <v>27</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>243</v>
+      </c>
+      <c r="G157">
+        <v>22</v>
+      </c>
+      <c r="H157">
+        <v>4</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157" t="s">
+        <v>3</v>
+      </c>
+      <c r="M157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>19</v>
+      </c>
+      <c r="B158" s="1">
+        <v>45477</v>
+      </c>
+      <c r="C158" t="s">
+        <v>20</v>
+      </c>
+      <c r="D158">
+        <v>32</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>15</v>
+      </c>
+      <c r="H158">
+        <v>15</v>
+      </c>
+      <c r="I158">
+        <v>2</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158" t="s">
+        <v>2</v>
+      </c>
+      <c r="M158">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>14</v>
+      </c>
+      <c r="B159" s="1">
+        <v>45477</v>
+      </c>
+      <c r="C159" t="s">
+        <v>25</v>
+      </c>
+      <c r="D159">
+        <v>36</v>
+      </c>
+      <c r="E159">
+        <v>1.27</v>
+      </c>
+      <c r="F159">
+        <v>46</v>
+      </c>
+      <c r="G159">
+        <v>36</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159" t="s">
+        <v>3</v>
+      </c>
+      <c r="M159">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>14</v>
+      </c>
+      <c r="B160" s="1">
+        <v>45478</v>
+      </c>
+      <c r="C160" t="s">
+        <v>20</v>
+      </c>
+      <c r="D160">
+        <v>34</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>34</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160" t="s">
+        <v>3</v>
+      </c>
+      <c r="M160">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>14</v>
+      </c>
+      <c r="B161" s="1">
+        <v>45478</v>
+      </c>
+      <c r="C161" t="s">
+        <v>25</v>
+      </c>
+      <c r="D161">
+        <v>18</v>
+      </c>
+      <c r="E161">
+        <v>0.96</v>
+      </c>
+      <c r="F161">
+        <v>49</v>
+      </c>
+      <c r="G161">
+        <v>18</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161" t="s">
+        <v>3</v>
+      </c>
+      <c r="M161">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M92" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="568" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{445C2FAA-124B-4602-968B-897047427188}"/>
+  <xr:revisionPtr revIDLastSave="597" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5597EF65-F005-4D33-AD40-35BFCCDD8DD0}"/>
   <bookViews>
     <workbookView xWindow="252" yWindow="48" windowWidth="22548" windowHeight="12360" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -499,11 +499,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:M161"/>
+  <dimension ref="A1:M163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A162" sqref="A162"/>
+      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A164" sqref="A164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7123,6 +7123,88 @@
         <v>4</v>
       </c>
     </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>19</v>
+      </c>
+      <c r="B162" s="1">
+        <v>45478</v>
+      </c>
+      <c r="C162" t="s">
+        <v>20</v>
+      </c>
+      <c r="D162">
+        <v>59</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>41</v>
+      </c>
+      <c r="H162">
+        <v>15</v>
+      </c>
+      <c r="I162">
+        <v>2</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162" t="s">
+        <v>2</v>
+      </c>
+      <c r="M162">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>14</v>
+      </c>
+      <c r="B163" s="1">
+        <v>45478</v>
+      </c>
+      <c r="C163" t="s">
+        <v>25</v>
+      </c>
+      <c r="D163">
+        <v>35</v>
+      </c>
+      <c r="E163">
+        <v>1.4</v>
+      </c>
+      <c r="F163">
+        <v>85</v>
+      </c>
+      <c r="G163">
+        <v>35</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163" t="s">
+        <v>3</v>
+      </c>
+      <c r="M163">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M92" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="597" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5597EF65-F005-4D33-AD40-35BFCCDD8DD0}"/>
+  <xr:revisionPtr revIDLastSave="701" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8197B41C-690A-499B-A777-015D118EC76F}"/>
   <bookViews>
     <workbookView xWindow="252" yWindow="48" windowWidth="22548" windowHeight="12360" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -499,11 +499,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:M163"/>
+  <dimension ref="A1:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A164" sqref="A164"/>
+      <selection pane="bottomLeft" activeCell="A172" sqref="A172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7205,6 +7205,334 @@
         <v>4</v>
       </c>
     </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>18</v>
+      </c>
+      <c r="B164" s="1">
+        <v>45479</v>
+      </c>
+      <c r="C164" t="s">
+        <v>23</v>
+      </c>
+      <c r="D164">
+        <v>69</v>
+      </c>
+      <c r="E164">
+        <v>5.03</v>
+      </c>
+      <c r="F164">
+        <v>285</v>
+      </c>
+      <c r="G164">
+        <v>9</v>
+      </c>
+      <c r="H164">
+        <v>35</v>
+      </c>
+      <c r="I164">
+        <v>8</v>
+      </c>
+      <c r="J164">
+        <v>3</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164" t="s">
+        <v>27</v>
+      </c>
+      <c r="M164">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>14</v>
+      </c>
+      <c r="B165" s="1">
+        <v>45479</v>
+      </c>
+      <c r="C165" t="s">
+        <v>20</v>
+      </c>
+      <c r="D165">
+        <v>40</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>40</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165" t="s">
+        <v>3</v>
+      </c>
+      <c r="M165">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>14</v>
+      </c>
+      <c r="B166" s="1">
+        <v>45479</v>
+      </c>
+      <c r="C166" t="s">
+        <v>25</v>
+      </c>
+      <c r="D166">
+        <v>15</v>
+      </c>
+      <c r="E166">
+        <v>0.76</v>
+      </c>
+      <c r="F166">
+        <v>16</v>
+      </c>
+      <c r="G166">
+        <v>16</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166" t="s">
+        <v>3</v>
+      </c>
+      <c r="M166">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>24</v>
+      </c>
+      <c r="B167" s="1">
+        <v>45479</v>
+      </c>
+      <c r="C167" t="s">
+        <v>23</v>
+      </c>
+      <c r="D167">
+        <v>31</v>
+      </c>
+      <c r="E167">
+        <v>3.04</v>
+      </c>
+      <c r="F167">
+        <v>72</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
+      <c r="I167">
+        <v>10</v>
+      </c>
+      <c r="J167">
+        <v>16</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167" t="s">
+        <v>2</v>
+      </c>
+      <c r="M167">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>14</v>
+      </c>
+      <c r="B168" s="1">
+        <v>45479</v>
+      </c>
+      <c r="C168" t="s">
+        <v>25</v>
+      </c>
+      <c r="D168">
+        <v>17</v>
+      </c>
+      <c r="E168">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F168">
+        <v>89</v>
+      </c>
+      <c r="G168">
+        <v>17</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168" t="s">
+        <v>3</v>
+      </c>
+      <c r="M168">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>19</v>
+      </c>
+      <c r="B169" s="1">
+        <v>45479</v>
+      </c>
+      <c r="C169" t="s">
+        <v>21</v>
+      </c>
+      <c r="D169">
+        <v>30</v>
+      </c>
+      <c r="E169">
+        <v>11.24</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>24</v>
+      </c>
+      <c r="I169">
+        <v>5</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169" t="s">
+        <v>2</v>
+      </c>
+      <c r="M169">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>19</v>
+      </c>
+      <c r="B170" s="1">
+        <v>45479</v>
+      </c>
+      <c r="C170" t="s">
+        <v>20</v>
+      </c>
+      <c r="D170">
+        <v>23</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>21</v>
+      </c>
+      <c r="H170">
+        <v>2</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170" t="s">
+        <v>2</v>
+      </c>
+      <c r="M170">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>14</v>
+      </c>
+      <c r="B171" s="1">
+        <v>45479</v>
+      </c>
+      <c r="C171" t="s">
+        <v>25</v>
+      </c>
+      <c r="D171">
+        <v>44</v>
+      </c>
+      <c r="E171">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="F171">
+        <v>26</v>
+      </c>
+      <c r="G171">
+        <v>44</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171" t="s">
+        <v>3</v>
+      </c>
+      <c r="M171">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M92" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="701" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8197B41C-690A-499B-A777-015D118EC76F}"/>
+  <xr:revisionPtr revIDLastSave="779" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3644F64A-2FAD-41AE-8939-A942AD6F0AC5}"/>
   <bookViews>
     <workbookView xWindow="252" yWindow="48" windowWidth="22548" windowHeight="12360" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -499,11 +499,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:M171"/>
+  <dimension ref="A1:M177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A172" sqref="A172"/>
+      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A178" sqref="A178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7533,6 +7533,252 @@
         <v>4</v>
       </c>
     </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>18</v>
+      </c>
+      <c r="B172" s="1">
+        <v>45480</v>
+      </c>
+      <c r="C172" t="s">
+        <v>25</v>
+      </c>
+      <c r="D172">
+        <v>174</v>
+      </c>
+      <c r="E172">
+        <v>4.74</v>
+      </c>
+      <c r="F172">
+        <v>1453</v>
+      </c>
+      <c r="G172">
+        <v>150</v>
+      </c>
+      <c r="H172">
+        <v>13</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172" t="s">
+        <v>27</v>
+      </c>
+      <c r="M172">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>14</v>
+      </c>
+      <c r="B173" s="1">
+        <v>45480</v>
+      </c>
+      <c r="C173" t="s">
+        <v>21</v>
+      </c>
+      <c r="D173">
+        <v>127</v>
+      </c>
+      <c r="E173">
+        <v>20.079999999999998</v>
+      </c>
+      <c r="F173">
+        <v>295</v>
+      </c>
+      <c r="G173">
+        <v>46</v>
+      </c>
+      <c r="H173">
+        <v>109</v>
+      </c>
+      <c r="I173">
+        <v>11</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173" t="s">
+        <v>3</v>
+      </c>
+      <c r="M173">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>24</v>
+      </c>
+      <c r="B174" s="1">
+        <v>45480</v>
+      </c>
+      <c r="C174" t="s">
+        <v>20</v>
+      </c>
+      <c r="D174">
+        <v>91</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>22</v>
+      </c>
+      <c r="H174">
+        <v>48</v>
+      </c>
+      <c r="I174">
+        <v>15</v>
+      </c>
+      <c r="J174">
+        <v>6</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174" t="s">
+        <v>2</v>
+      </c>
+      <c r="M174">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>19</v>
+      </c>
+      <c r="B175" s="1">
+        <v>45480</v>
+      </c>
+      <c r="C175" t="s">
+        <v>21</v>
+      </c>
+      <c r="D175">
+        <v>30</v>
+      </c>
+      <c r="E175">
+        <v>11.16</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>23</v>
+      </c>
+      <c r="I175">
+        <v>7</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175" t="s">
+        <v>2</v>
+      </c>
+      <c r="M175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>19</v>
+      </c>
+      <c r="B176" s="1">
+        <v>45480</v>
+      </c>
+      <c r="C176" t="s">
+        <v>20</v>
+      </c>
+      <c r="D176">
+        <v>24</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>20</v>
+      </c>
+      <c r="H176">
+        <v>4</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176" t="s">
+        <v>2</v>
+      </c>
+      <c r="M176">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>24</v>
+      </c>
+      <c r="B177" s="1">
+        <v>45480</v>
+      </c>
+      <c r="C177" t="s">
+        <v>23</v>
+      </c>
+      <c r="D177">
+        <v>35</v>
+      </c>
+      <c r="E177">
+        <v>3.52</v>
+      </c>
+      <c r="F177">
+        <v>82</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>1</v>
+      </c>
+      <c r="I177">
+        <v>3</v>
+      </c>
+      <c r="J177">
+        <v>5</v>
+      </c>
+      <c r="K177">
+        <v>25</v>
+      </c>
+      <c r="L177" t="s">
+        <v>2</v>
+      </c>
+      <c r="M177">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M92" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="779" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3644F64A-2FAD-41AE-8939-A942AD6F0AC5}"/>
+  <xr:revisionPtr revIDLastSave="870" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6106E3CA-2429-4780-956F-7BE7542C666B}"/>
   <bookViews>
     <workbookView xWindow="252" yWindow="48" windowWidth="22548" windowHeight="12360" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -499,11 +499,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:M177"/>
+  <dimension ref="A1:M184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A178" sqref="A178"/>
+      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N184" sqref="N184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7779,6 +7779,293 @@
         <v>4</v>
       </c>
     </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>18</v>
+      </c>
+      <c r="B178" s="1">
+        <v>45481</v>
+      </c>
+      <c r="C178" t="s">
+        <v>25</v>
+      </c>
+      <c r="D178">
+        <v>50</v>
+      </c>
+      <c r="E178">
+        <v>1.95</v>
+      </c>
+      <c r="F178">
+        <v>56</v>
+      </c>
+      <c r="G178">
+        <v>50</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178" t="s">
+        <v>27</v>
+      </c>
+      <c r="M178">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>14</v>
+      </c>
+      <c r="B179" s="1">
+        <v>45481</v>
+      </c>
+      <c r="C179" t="s">
+        <v>20</v>
+      </c>
+      <c r="D179">
+        <v>27</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>27</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179" t="s">
+        <v>13</v>
+      </c>
+      <c r="M179">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>18</v>
+      </c>
+      <c r="B180" s="1">
+        <v>45481</v>
+      </c>
+      <c r="C180" t="s">
+        <v>25</v>
+      </c>
+      <c r="D180">
+        <v>45</v>
+      </c>
+      <c r="E180">
+        <v>1.73</v>
+      </c>
+      <c r="F180">
+        <v>59</v>
+      </c>
+      <c r="G180">
+        <v>45</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180" t="s">
+        <v>27</v>
+      </c>
+      <c r="M180">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>14</v>
+      </c>
+      <c r="B181" s="1">
+        <v>45481</v>
+      </c>
+      <c r="C181" t="s">
+        <v>20</v>
+      </c>
+      <c r="D181">
+        <v>35</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>1</v>
+      </c>
+      <c r="H181">
+        <v>10</v>
+      </c>
+      <c r="I181">
+        <v>21</v>
+      </c>
+      <c r="J181">
+        <v>3</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181" t="s">
+        <v>13</v>
+      </c>
+      <c r="M181">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>24</v>
+      </c>
+      <c r="B182" s="1">
+        <v>45481</v>
+      </c>
+      <c r="C182" t="s">
+        <v>20</v>
+      </c>
+      <c r="D182">
+        <v>66</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>23</v>
+      </c>
+      <c r="H182">
+        <v>40</v>
+      </c>
+      <c r="I182">
+        <v>4</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182" t="s">
+        <v>26</v>
+      </c>
+      <c r="M182">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>14</v>
+      </c>
+      <c r="B183" s="1">
+        <v>45481</v>
+      </c>
+      <c r="C183" t="s">
+        <v>25</v>
+      </c>
+      <c r="D183">
+        <v>25</v>
+      </c>
+      <c r="E183">
+        <v>1.26</v>
+      </c>
+      <c r="F183">
+        <v>33</v>
+      </c>
+      <c r="G183">
+        <v>25</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183" t="s">
+        <v>13</v>
+      </c>
+      <c r="M183">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>14</v>
+      </c>
+      <c r="B184" s="1">
+        <v>45482</v>
+      </c>
+      <c r="C184" t="s">
+        <v>25</v>
+      </c>
+      <c r="D184">
+        <v>26</v>
+      </c>
+      <c r="E184">
+        <v>1.28</v>
+      </c>
+      <c r="F184">
+        <v>23</v>
+      </c>
+      <c r="G184">
+        <v>26</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184" t="s">
+        <v>13</v>
+      </c>
+      <c r="M184">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M92" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="870" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6106E3CA-2429-4780-956F-7BE7542C666B}"/>
+  <xr:revisionPtr revIDLastSave="1015" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5643885E-2992-4957-90AB-0ECD5BBDCD0B}"/>
   <bookViews>
     <workbookView xWindow="252" yWindow="48" windowWidth="22548" windowHeight="12360" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -499,11 +499,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:M184"/>
+  <dimension ref="A1:M195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N184" sqref="N184"/>
+      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A196" sqref="A196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8066,6 +8066,457 @@
         <v>5</v>
       </c>
     </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>18</v>
+      </c>
+      <c r="B185" s="1">
+        <v>45482</v>
+      </c>
+      <c r="C185" t="s">
+        <v>25</v>
+      </c>
+      <c r="D185">
+        <v>50</v>
+      </c>
+      <c r="E185">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F185">
+        <v>174</v>
+      </c>
+      <c r="G185">
+        <v>42</v>
+      </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185" t="s">
+        <v>27</v>
+      </c>
+      <c r="M185">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>14</v>
+      </c>
+      <c r="B186" s="1">
+        <v>45482</v>
+      </c>
+      <c r="C186" t="s">
+        <v>20</v>
+      </c>
+      <c r="D186">
+        <v>23</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>21</v>
+      </c>
+      <c r="H186">
+        <v>2</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186" t="s">
+        <v>13</v>
+      </c>
+      <c r="M186">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>19</v>
+      </c>
+      <c r="B187" s="1">
+        <v>45482</v>
+      </c>
+      <c r="C187" t="s">
+        <v>20</v>
+      </c>
+      <c r="D187">
+        <v>44</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>34</v>
+      </c>
+      <c r="H187">
+        <v>10</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187" t="s">
+        <v>26</v>
+      </c>
+      <c r="M187">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>24</v>
+      </c>
+      <c r="B188" s="1">
+        <v>45482</v>
+      </c>
+      <c r="C188" t="s">
+        <v>23</v>
+      </c>
+      <c r="D188">
+        <v>66</v>
+      </c>
+      <c r="E188">
+        <v>6.06</v>
+      </c>
+      <c r="F188">
+        <v>115</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>5</v>
+      </c>
+      <c r="I188">
+        <v>24</v>
+      </c>
+      <c r="J188">
+        <v>34</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188" t="s">
+        <v>26</v>
+      </c>
+      <c r="M188">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>14</v>
+      </c>
+      <c r="B189" s="1">
+        <v>45482</v>
+      </c>
+      <c r="C189" t="s">
+        <v>25</v>
+      </c>
+      <c r="D189">
+        <v>21</v>
+      </c>
+      <c r="E189">
+        <v>0.72</v>
+      </c>
+      <c r="F189">
+        <v>138</v>
+      </c>
+      <c r="G189">
+        <v>20</v>
+      </c>
+      <c r="H189">
+        <v>1</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189" t="s">
+        <v>13</v>
+      </c>
+      <c r="M189">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>18</v>
+      </c>
+      <c r="B190" s="1">
+        <v>45483</v>
+      </c>
+      <c r="C190" t="s">
+        <v>25</v>
+      </c>
+      <c r="D190">
+        <v>182</v>
+      </c>
+      <c r="E190">
+        <v>5.54</v>
+      </c>
+      <c r="F190">
+        <v>912</v>
+      </c>
+      <c r="G190">
+        <v>168</v>
+      </c>
+      <c r="H190">
+        <v>4</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190" t="s">
+        <v>27</v>
+      </c>
+      <c r="M190">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>19</v>
+      </c>
+      <c r="B191" s="1">
+        <v>45483</v>
+      </c>
+      <c r="C191" t="s">
+        <v>20</v>
+      </c>
+      <c r="D191">
+        <v>45</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>40</v>
+      </c>
+      <c r="H191">
+        <v>5</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="L191" t="s">
+        <v>26</v>
+      </c>
+      <c r="M191">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>14</v>
+      </c>
+      <c r="B192" s="1">
+        <v>45483</v>
+      </c>
+      <c r="C192" t="s">
+        <v>20</v>
+      </c>
+      <c r="D192">
+        <v>31</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <v>18</v>
+      </c>
+      <c r="H192">
+        <v>12</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192" t="s">
+        <v>13</v>
+      </c>
+      <c r="M192">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>17</v>
+      </c>
+      <c r="B193" s="1">
+        <v>45483</v>
+      </c>
+      <c r="C193" t="s">
+        <v>23</v>
+      </c>
+      <c r="D193">
+        <v>30</v>
+      </c>
+      <c r="E193">
+        <v>2.93</v>
+      </c>
+      <c r="F193">
+        <v>233</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>13</v>
+      </c>
+      <c r="I193">
+        <v>14</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193" t="s">
+        <v>27</v>
+      </c>
+      <c r="M193">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>18</v>
+      </c>
+      <c r="B194" s="1">
+        <v>45483</v>
+      </c>
+      <c r="C194" t="s">
+        <v>23</v>
+      </c>
+      <c r="D194">
+        <v>52</v>
+      </c>
+      <c r="E194">
+        <v>4</v>
+      </c>
+      <c r="F194">
+        <v>1079</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>10</v>
+      </c>
+      <c r="I194">
+        <v>8</v>
+      </c>
+      <c r="J194">
+        <v>19</v>
+      </c>
+      <c r="K194">
+        <v>6</v>
+      </c>
+      <c r="L194" t="s">
+        <v>27</v>
+      </c>
+      <c r="M194">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>14</v>
+      </c>
+      <c r="B195" s="1">
+        <v>45484</v>
+      </c>
+      <c r="C195" t="s">
+        <v>25</v>
+      </c>
+      <c r="D195">
+        <v>20</v>
+      </c>
+      <c r="E195">
+        <v>1</v>
+      </c>
+      <c r="F195">
+        <v>20</v>
+      </c>
+      <c r="G195">
+        <v>20</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195" t="s">
+        <v>13</v>
+      </c>
+      <c r="M195">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M92" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1015" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5643885E-2992-4957-90AB-0ECD5BBDCD0B}"/>
+  <xr:revisionPtr revIDLastSave="1080" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0A773AB-81EB-4E8A-B5EA-202E28D29E86}"/>
   <bookViews>
     <workbookView xWindow="252" yWindow="48" windowWidth="22548" windowHeight="12360" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -499,11 +499,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:M195"/>
+  <dimension ref="A1:M200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A196" sqref="A196"/>
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A201" sqref="A201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8517,6 +8517,211 @@
         <v>5</v>
       </c>
     </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>24</v>
+      </c>
+      <c r="B196" s="1">
+        <v>45484</v>
+      </c>
+      <c r="C196" t="s">
+        <v>20</v>
+      </c>
+      <c r="D196">
+        <v>86</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>25</v>
+      </c>
+      <c r="H196">
+        <v>53</v>
+      </c>
+      <c r="I196">
+        <v>8</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196" t="s">
+        <v>26</v>
+      </c>
+      <c r="M196">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>19</v>
+      </c>
+      <c r="B197" s="1">
+        <v>45484</v>
+      </c>
+      <c r="C197" t="s">
+        <v>20</v>
+      </c>
+      <c r="D197">
+        <v>55</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>51</v>
+      </c>
+      <c r="H197">
+        <v>4</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197" t="s">
+        <v>26</v>
+      </c>
+      <c r="M197">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>17</v>
+      </c>
+      <c r="B198" s="1">
+        <v>45484</v>
+      </c>
+      <c r="C198" t="s">
+        <v>20</v>
+      </c>
+      <c r="D198">
+        <v>63</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>56</v>
+      </c>
+      <c r="H198">
+        <v>7</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+      <c r="L198" t="s">
+        <v>27</v>
+      </c>
+      <c r="M198">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>14</v>
+      </c>
+      <c r="B199" s="1">
+        <v>45484</v>
+      </c>
+      <c r="C199" t="s">
+        <v>25</v>
+      </c>
+      <c r="D199">
+        <v>128</v>
+      </c>
+      <c r="E199">
+        <v>4.68</v>
+      </c>
+      <c r="F199">
+        <v>719</v>
+      </c>
+      <c r="G199">
+        <v>109</v>
+      </c>
+      <c r="H199">
+        <v>8</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+      <c r="L199" t="s">
+        <v>13</v>
+      </c>
+      <c r="M199">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>14</v>
+      </c>
+      <c r="B200" s="1">
+        <v>45485</v>
+      </c>
+      <c r="C200" t="s">
+        <v>23</v>
+      </c>
+      <c r="D200">
+        <v>18</v>
+      </c>
+      <c r="E200">
+        <v>1.84</v>
+      </c>
+      <c r="F200">
+        <v>26</v>
+      </c>
+      <c r="G200">
+        <v>1</v>
+      </c>
+      <c r="H200">
+        <v>2</v>
+      </c>
+      <c r="I200">
+        <v>14</v>
+      </c>
+      <c r="J200">
+        <v>1</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200" t="s">
+        <v>13</v>
+      </c>
+      <c r="M200">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M92" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1080" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0A773AB-81EB-4E8A-B5EA-202E28D29E86}"/>
+  <xr:revisionPtr revIDLastSave="1132" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A5389AE-3068-447E-BDC5-1D4A064C8745}"/>
   <bookViews>
     <workbookView xWindow="252" yWindow="48" windowWidth="22548" windowHeight="12360" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -499,11 +499,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:M200"/>
+  <dimension ref="A1:M204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A201" sqref="A201"/>
+      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A205" sqref="A205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8722,6 +8722,170 @@
         <v>5</v>
       </c>
     </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>14</v>
+      </c>
+      <c r="B201" s="1">
+        <v>45485</v>
+      </c>
+      <c r="C201" t="s">
+        <v>25</v>
+      </c>
+      <c r="D201">
+        <v>61</v>
+      </c>
+      <c r="E201">
+        <v>3.38</v>
+      </c>
+      <c r="F201">
+        <v>75</v>
+      </c>
+      <c r="G201">
+        <v>58</v>
+      </c>
+      <c r="H201">
+        <v>4</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>0</v>
+      </c>
+      <c r="L201" t="s">
+        <v>13</v>
+      </c>
+      <c r="M201">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>17</v>
+      </c>
+      <c r="B202" s="1">
+        <v>45485</v>
+      </c>
+      <c r="C202" t="s">
+        <v>20</v>
+      </c>
+      <c r="D202">
+        <v>70</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <v>42</v>
+      </c>
+      <c r="H202">
+        <v>14</v>
+      </c>
+      <c r="I202">
+        <v>13</v>
+      </c>
+      <c r="J202">
+        <v>2</v>
+      </c>
+      <c r="K202">
+        <v>0</v>
+      </c>
+      <c r="L202" t="s">
+        <v>27</v>
+      </c>
+      <c r="M202">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>19</v>
+      </c>
+      <c r="B203" s="1">
+        <v>45485</v>
+      </c>
+      <c r="C203" t="s">
+        <v>20</v>
+      </c>
+      <c r="D203">
+        <v>50</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+      <c r="G203">
+        <v>47</v>
+      </c>
+      <c r="H203">
+        <v>3</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
+      <c r="L203" t="s">
+        <v>26</v>
+      </c>
+      <c r="M203">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>14</v>
+      </c>
+      <c r="B204" s="1">
+        <v>45485</v>
+      </c>
+      <c r="C204" t="s">
+        <v>25</v>
+      </c>
+      <c r="D204">
+        <v>24</v>
+      </c>
+      <c r="E204">
+        <v>1.18</v>
+      </c>
+      <c r="F204">
+        <v>7</v>
+      </c>
+      <c r="G204">
+        <v>24</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>0</v>
+      </c>
+      <c r="L204" t="s">
+        <v>13</v>
+      </c>
+      <c r="M204">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M92" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1132" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A5389AE-3068-447E-BDC5-1D4A064C8745}"/>
+  <xr:revisionPtr revIDLastSave="1172" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C2BDFBB-7A08-4CF7-BDB0-6D6C90BA75B0}"/>
   <bookViews>
     <workbookView xWindow="252" yWindow="48" windowWidth="22548" windowHeight="12360" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -499,11 +499,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:M204"/>
+  <dimension ref="A1:M207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A205" sqref="A205"/>
+      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A208" sqref="A208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8886,6 +8886,129 @@
         <v>5</v>
       </c>
     </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>19</v>
+      </c>
+      <c r="B205" s="1">
+        <v>45486</v>
+      </c>
+      <c r="C205" t="s">
+        <v>20</v>
+      </c>
+      <c r="D205">
+        <v>50</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205">
+        <v>37</v>
+      </c>
+      <c r="H205">
+        <v>13</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
+      <c r="L205" t="s">
+        <v>26</v>
+      </c>
+      <c r="M205">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>19</v>
+      </c>
+      <c r="B206" s="1">
+        <v>45486</v>
+      </c>
+      <c r="C206" t="s">
+        <v>23</v>
+      </c>
+      <c r="D206">
+        <v>23</v>
+      </c>
+      <c r="E206">
+        <v>2.71</v>
+      </c>
+      <c r="F206">
+        <v>173</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+      <c r="H206">
+        <v>5</v>
+      </c>
+      <c r="I206">
+        <v>9</v>
+      </c>
+      <c r="J206">
+        <v>5</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+      <c r="L206" t="s">
+        <v>26</v>
+      </c>
+      <c r="M206">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>14</v>
+      </c>
+      <c r="B207" s="1">
+        <v>45486</v>
+      </c>
+      <c r="C207" t="s">
+        <v>25</v>
+      </c>
+      <c r="D207">
+        <v>29</v>
+      </c>
+      <c r="E207">
+        <v>1.61</v>
+      </c>
+      <c r="F207">
+        <v>26</v>
+      </c>
+      <c r="G207">
+        <v>29</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>0</v>
+      </c>
+      <c r="L207" t="s">
+        <v>13</v>
+      </c>
+      <c r="M207">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M92" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1172" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C2BDFBB-7A08-4CF7-BDB0-6D6C90BA75B0}"/>
+  <xr:revisionPtr revIDLastSave="1237" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{287514E0-4062-4BDB-BEC1-AEB868F952E6}"/>
   <bookViews>
     <workbookView xWindow="252" yWindow="48" windowWidth="22548" windowHeight="12360" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -499,11 +499,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:M207"/>
+  <dimension ref="A1:M212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A208" sqref="A208"/>
+      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A213" sqref="A213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9009,6 +9009,211 @@
         <v>5</v>
       </c>
     </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>14</v>
+      </c>
+      <c r="B208" s="1">
+        <v>45486</v>
+      </c>
+      <c r="C208" t="s">
+        <v>25</v>
+      </c>
+      <c r="D208">
+        <v>33</v>
+      </c>
+      <c r="E208">
+        <v>1.51</v>
+      </c>
+      <c r="F208">
+        <v>59</v>
+      </c>
+      <c r="G208">
+        <v>33</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
+      <c r="L208" t="s">
+        <v>13</v>
+      </c>
+      <c r="M208">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>24</v>
+      </c>
+      <c r="B209" s="1">
+        <v>45486</v>
+      </c>
+      <c r="C209" t="s">
+        <v>20</v>
+      </c>
+      <c r="D209">
+        <v>54</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+      <c r="G209">
+        <v>6</v>
+      </c>
+      <c r="H209">
+        <v>38</v>
+      </c>
+      <c r="I209">
+        <v>10</v>
+      </c>
+      <c r="J209">
+        <v>3</v>
+      </c>
+      <c r="K209">
+        <v>0</v>
+      </c>
+      <c r="L209" t="s">
+        <v>26</v>
+      </c>
+      <c r="M209">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>19</v>
+      </c>
+      <c r="B210" s="1">
+        <v>45487</v>
+      </c>
+      <c r="C210" t="s">
+        <v>21</v>
+      </c>
+      <c r="D210">
+        <v>30</v>
+      </c>
+      <c r="E210">
+        <v>11.12</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210">
+        <v>2</v>
+      </c>
+      <c r="H210">
+        <v>23</v>
+      </c>
+      <c r="I210">
+        <v>5</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>0</v>
+      </c>
+      <c r="L210" t="s">
+        <v>26</v>
+      </c>
+      <c r="M210">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>19</v>
+      </c>
+      <c r="B211" s="1">
+        <v>45487</v>
+      </c>
+      <c r="C211" t="s">
+        <v>20</v>
+      </c>
+      <c r="D211">
+        <v>18</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211">
+        <v>18</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
+      <c r="L211" t="s">
+        <v>26</v>
+      </c>
+      <c r="M211">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>14</v>
+      </c>
+      <c r="B212" s="1">
+        <v>45487</v>
+      </c>
+      <c r="C212" t="s">
+        <v>25</v>
+      </c>
+      <c r="D212">
+        <v>42</v>
+      </c>
+      <c r="E212">
+        <v>1.99</v>
+      </c>
+      <c r="F212">
+        <v>98</v>
+      </c>
+      <c r="G212">
+        <v>41</v>
+      </c>
+      <c r="H212">
+        <v>1</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+      <c r="L212" t="s">
+        <v>13</v>
+      </c>
+      <c r="M212">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M92" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1237" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{287514E0-4062-4BDB-BEC1-AEB868F952E6}"/>
+  <xr:revisionPtr revIDLastSave="1331" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CE5D192-7CE0-4891-AF21-D588286D1277}"/>
   <bookViews>
-    <workbookView xWindow="252" yWindow="48" windowWidth="22548" windowHeight="12360" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
+    <workbookView xWindow="252" yWindow="0" windowWidth="22548" windowHeight="12360" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$212</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -499,11 +499,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:M212"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:M219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A213" sqref="A213"/>
+      <pane ySplit="1" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A220" sqref="A220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -563,7 +564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -604,7 +605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -645,7 +646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -686,7 +687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -727,7 +728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -768,7 +769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -809,7 +810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -850,7 +851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -891,7 +892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -932,7 +933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -973,7 +974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1014,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1055,7 +1056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1096,7 +1097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1137,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1178,7 +1179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1219,7 +1220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1260,7 +1261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1301,7 +1302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1342,7 +1343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1383,7 +1384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1424,7 +1425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1465,7 +1466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1506,7 +1507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -1547,7 +1548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -1588,7 +1589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1629,7 +1630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -1670,7 +1671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1711,7 +1712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1752,7 +1753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -1793,7 +1794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -1834,7 +1835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -1875,7 +1876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -1916,7 +1917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -1957,7 +1958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -1998,7 +1999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -2039,7 +2040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -2080,7 +2081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -2121,7 +2122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -2162,7 +2163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -2203,7 +2204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -2244,7 +2245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -2285,7 +2286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -2326,7 +2327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -2367,7 +2368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -2408,7 +2409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -2449,7 +2450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -2490,7 +2491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -2531,7 +2532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>18</v>
       </c>
@@ -2572,7 +2573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -2613,7 +2614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -2654,7 +2655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -2695,7 +2696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -2736,7 +2737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -2777,7 +2778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -2818,7 +2819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>24</v>
       </c>
@@ -2859,7 +2860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -2900,7 +2901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -2941,7 +2942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -2982,7 +2983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>19</v>
       </c>
@@ -3023,7 +3024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>18</v>
       </c>
@@ -3064,7 +3065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>18</v>
       </c>
@@ -3105,7 +3106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -3146,7 +3147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>18</v>
       </c>
@@ -3187,7 +3188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>18</v>
       </c>
@@ -3228,7 +3229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>24</v>
       </c>
@@ -3269,7 +3270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>14</v>
       </c>
@@ -3310,7 +3311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -3351,7 +3352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -3392,7 +3393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>24</v>
       </c>
@@ -3433,7 +3434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -3474,7 +3475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>14</v>
       </c>
@@ -3515,7 +3516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>18</v>
       </c>
@@ -3556,7 +3557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>14</v>
       </c>
@@ -3597,7 +3598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>14</v>
       </c>
@@ -3638,7 +3639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>24</v>
       </c>
@@ -3679,7 +3680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>17</v>
       </c>
@@ -3720,7 +3721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>14</v>
       </c>
@@ -3761,7 +3762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>19</v>
       </c>
@@ -3802,7 +3803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>18</v>
       </c>
@@ -3843,7 +3844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>18</v>
       </c>
@@ -3884,7 +3885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>24</v>
       </c>
@@ -3925,7 +3926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>14</v>
       </c>
@@ -3966,7 +3967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>17</v>
       </c>
@@ -4007,7 +4008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -4048,7 +4049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -4089,7 +4090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>19</v>
       </c>
@@ -4130,7 +4131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -4171,7 +4172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -4212,7 +4213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>24</v>
       </c>
@@ -4253,7 +4254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -4294,7 +4295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>19</v>
       </c>
@@ -4335,7 +4336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>19</v>
       </c>
@@ -4376,7 +4377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>19</v>
       </c>
@@ -4417,7 +4418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>18</v>
       </c>
@@ -4458,7 +4459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>18</v>
       </c>
@@ -4499,7 +4500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>14</v>
       </c>
@@ -4540,7 +4541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>24</v>
       </c>
@@ -4581,7 +4582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>14</v>
       </c>
@@ -4622,7 +4623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>24</v>
       </c>
@@ -4663,7 +4664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>14</v>
       </c>
@@ -4704,7 +4705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>18</v>
       </c>
@@ -4745,7 +4746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>19</v>
       </c>
@@ -4786,7 +4787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>19</v>
       </c>
@@ -4827,7 +4828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>18</v>
       </c>
@@ -4868,7 +4869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>14</v>
       </c>
@@ -4909,7 +4910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>19</v>
       </c>
@@ -4950,7 +4951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>18</v>
       </c>
@@ -4991,7 +4992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>14</v>
       </c>
@@ -5032,7 +5033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>14</v>
       </c>
@@ -5073,7 +5074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>24</v>
       </c>
@@ -5114,7 +5115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>14</v>
       </c>
@@ -5155,7 +5156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>18</v>
       </c>
@@ -5196,7 +5197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>19</v>
       </c>
@@ -5237,7 +5238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>14</v>
       </c>
@@ -5278,7 +5279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>14</v>
       </c>
@@ -5319,7 +5320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>14</v>
       </c>
@@ -5360,7 +5361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>14</v>
       </c>
@@ -5401,7 +5402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>17</v>
       </c>
@@ -5442,7 +5443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>18</v>
       </c>
@@ -5483,7 +5484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>19</v>
       </c>
@@ -5524,7 +5525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>14</v>
       </c>
@@ -5565,7 +5566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>24</v>
       </c>
@@ -5606,7 +5607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>14</v>
       </c>
@@ -5647,7 +5648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>17</v>
       </c>
@@ -5688,7 +5689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>18</v>
       </c>
@@ -5729,7 +5730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>24</v>
       </c>
@@ -5770,7 +5771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>18</v>
       </c>
@@ -5811,7 +5812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>14</v>
       </c>
@@ -5852,7 +5853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>17</v>
       </c>
@@ -5893,7 +5894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>17</v>
       </c>
@@ -5934,7 +5935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>14</v>
       </c>
@@ -5975,7 +5976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>18</v>
       </c>
@@ -6016,7 +6017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>18</v>
       </c>
@@ -6057,7 +6058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>24</v>
       </c>
@@ -6098,7 +6099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>14</v>
       </c>
@@ -6139,7 +6140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>17</v>
       </c>
@@ -6180,7 +6181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>18</v>
       </c>
@@ -6221,7 +6222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>19</v>
       </c>
@@ -6262,7 +6263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>14</v>
       </c>
@@ -6303,7 +6304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>14</v>
       </c>
@@ -6344,7 +6345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>18</v>
       </c>
@@ -6385,7 +6386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>14</v>
       </c>
@@ -6426,7 +6427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>18</v>
       </c>
@@ -6467,7 +6468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>24</v>
       </c>
@@ -6508,7 +6509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>24</v>
       </c>
@@ -6549,7 +6550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>19</v>
       </c>
@@ -6590,7 +6591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>14</v>
       </c>
@@ -6631,7 +6632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>18</v>
       </c>
@@ -6672,7 +6673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>19</v>
       </c>
@@ -6713,7 +6714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>24</v>
       </c>
@@ -6754,7 +6755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>18</v>
       </c>
@@ -6795,7 +6796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>18</v>
       </c>
@@ -6836,7 +6837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>24</v>
       </c>
@@ -6877,7 +6878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>14</v>
       </c>
@@ -6918,7 +6919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>14</v>
       </c>
@@ -6959,7 +6960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>19</v>
       </c>
@@ -7000,7 +7001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>14</v>
       </c>
@@ -7041,7 +7042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>14</v>
       </c>
@@ -7082,7 +7083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>14</v>
       </c>
@@ -7123,7 +7124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>19</v>
       </c>
@@ -7164,7 +7165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>14</v>
       </c>
@@ -7205,7 +7206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>18</v>
       </c>
@@ -7246,7 +7247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>14</v>
       </c>
@@ -7287,7 +7288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>14</v>
       </c>
@@ -7328,7 +7329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>24</v>
       </c>
@@ -7369,7 +7370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>14</v>
       </c>
@@ -7410,7 +7411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>19</v>
       </c>
@@ -7451,7 +7452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>19</v>
       </c>
@@ -7492,7 +7493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>14</v>
       </c>
@@ -7533,7 +7534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>18</v>
       </c>
@@ -7574,7 +7575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>14</v>
       </c>
@@ -7615,7 +7616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>24</v>
       </c>
@@ -7656,7 +7657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>19</v>
       </c>
@@ -7697,7 +7698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>19</v>
       </c>
@@ -7738,7 +7739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>24</v>
       </c>
@@ -9214,8 +9215,301 @@
         <v>5</v>
       </c>
     </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>24</v>
+      </c>
+      <c r="B213" s="1">
+        <v>45487</v>
+      </c>
+      <c r="C213" t="s">
+        <v>20</v>
+      </c>
+      <c r="D213">
+        <v>82</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+      <c r="G213">
+        <v>4</v>
+      </c>
+      <c r="H213">
+        <v>79</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>0</v>
+      </c>
+      <c r="L213" t="s">
+        <v>26</v>
+      </c>
+      <c r="M213">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>24</v>
+      </c>
+      <c r="B214" s="1">
+        <v>45487</v>
+      </c>
+      <c r="C214" t="s">
+        <v>20</v>
+      </c>
+      <c r="D214">
+        <v>9</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214">
+        <v>7</v>
+      </c>
+      <c r="H214">
+        <v>2</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214" t="s">
+        <v>26</v>
+      </c>
+      <c r="M214">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>19</v>
+      </c>
+      <c r="B215" s="1">
+        <v>45488</v>
+      </c>
+      <c r="C215" t="s">
+        <v>20</v>
+      </c>
+      <c r="D215">
+        <v>29</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215">
+        <v>20</v>
+      </c>
+      <c r="H215">
+        <v>10</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+      <c r="L215" t="s">
+        <v>26</v>
+      </c>
+      <c r="M215">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>14</v>
+      </c>
+      <c r="B216" s="1">
+        <v>45488</v>
+      </c>
+      <c r="C216" t="s">
+        <v>25</v>
+      </c>
+      <c r="D216">
+        <v>36</v>
+      </c>
+      <c r="E216">
+        <v>1.79</v>
+      </c>
+      <c r="F216">
+        <v>102</v>
+      </c>
+      <c r="G216">
+        <v>36</v>
+      </c>
+      <c r="H216">
+        <v>0</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>0</v>
+      </c>
+      <c r="L216" t="s">
+        <v>13</v>
+      </c>
+      <c r="M216">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>17</v>
+      </c>
+      <c r="B217" s="1">
+        <v>45488</v>
+      </c>
+      <c r="C217" t="s">
+        <v>20</v>
+      </c>
+      <c r="D217">
+        <v>40</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <v>40</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
+      <c r="L217" t="s">
+        <v>27</v>
+      </c>
+      <c r="M217">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>19</v>
+      </c>
+      <c r="B218" s="1">
+        <v>45489</v>
+      </c>
+      <c r="C218" t="s">
+        <v>23</v>
+      </c>
+      <c r="D218">
+        <v>19</v>
+      </c>
+      <c r="E218">
+        <v>2.11</v>
+      </c>
+      <c r="F218">
+        <v>147</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+      <c r="H218">
+        <v>5</v>
+      </c>
+      <c r="I218">
+        <v>10</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+      <c r="L218" t="s">
+        <v>26</v>
+      </c>
+      <c r="M218">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>14</v>
+      </c>
+      <c r="B219" s="1">
+        <v>45489</v>
+      </c>
+      <c r="C219" t="s">
+        <v>23</v>
+      </c>
+      <c r="D219">
+        <v>49</v>
+      </c>
+      <c r="E219">
+        <v>4.54</v>
+      </c>
+      <c r="F219">
+        <v>243</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+      <c r="H219">
+        <v>2</v>
+      </c>
+      <c r="I219">
+        <v>11</v>
+      </c>
+      <c r="J219">
+        <v>34</v>
+      </c>
+      <c r="K219">
+        <v>1</v>
+      </c>
+      <c r="L219" t="s">
+        <v>13</v>
+      </c>
+      <c r="M219">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M92" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
+  <autoFilter ref="A1:M212" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
+    <filterColumn colId="12">
+      <filters>
+        <filter val="5"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1331" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CE5D192-7CE0-4891-AF21-D588286D1277}"/>
+  <xr:revisionPtr revIDLastSave="1476" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46952BE6-A011-43B1-85E8-59C18C257F54}"/>
   <bookViews>
     <workbookView xWindow="252" yWindow="0" windowWidth="22548" windowHeight="12360" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -500,11 +500,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M219"/>
+  <dimension ref="A1:M230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A220" sqref="A220"/>
+      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L221" sqref="L221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9502,6 +9502,454 @@
         <v>6</v>
       </c>
     </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>24</v>
+      </c>
+      <c r="B220" s="1">
+        <v>45489</v>
+      </c>
+      <c r="C220" t="s">
+        <v>20</v>
+      </c>
+      <c r="D220">
+        <v>55</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <v>23</v>
+      </c>
+      <c r="H220">
+        <v>30</v>
+      </c>
+      <c r="I220">
+        <v>2</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220" t="s">
+        <v>26</v>
+      </c>
+      <c r="M220">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>14</v>
+      </c>
+      <c r="B221" s="1">
+        <v>45489</v>
+      </c>
+      <c r="C221" t="s">
+        <v>20</v>
+      </c>
+      <c r="D221">
+        <v>38</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+      <c r="G221">
+        <v>8</v>
+      </c>
+      <c r="H221">
+        <v>18</v>
+      </c>
+      <c r="I221">
+        <v>12</v>
+      </c>
+      <c r="J221">
+        <v>1</v>
+      </c>
+      <c r="K221">
+        <v>0</v>
+      </c>
+      <c r="L221" t="s">
+        <v>13</v>
+      </c>
+      <c r="M221">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>14</v>
+      </c>
+      <c r="B222" s="1">
+        <v>45489</v>
+      </c>
+      <c r="C222" t="s">
+        <v>25</v>
+      </c>
+      <c r="D222">
+        <v>30</v>
+      </c>
+      <c r="E222">
+        <v>1.44</v>
+      </c>
+      <c r="F222">
+        <v>98</v>
+      </c>
+      <c r="G222">
+        <v>30</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222" t="s">
+        <v>13</v>
+      </c>
+      <c r="M222">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>19</v>
+      </c>
+      <c r="B223" s="1">
+        <v>45490</v>
+      </c>
+      <c r="C223" t="s">
+        <v>20</v>
+      </c>
+      <c r="D223">
+        <v>41</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <v>40</v>
+      </c>
+      <c r="H223">
+        <v>1</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223" t="s">
+        <v>26</v>
+      </c>
+      <c r="M223">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>24</v>
+      </c>
+      <c r="B224" s="1">
+        <v>45490</v>
+      </c>
+      <c r="C224" t="s">
+        <v>20</v>
+      </c>
+      <c r="D224">
+        <v>30</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>21</v>
+      </c>
+      <c r="H224">
+        <v>10</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224" t="s">
+        <v>26</v>
+      </c>
+      <c r="M224">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>17</v>
+      </c>
+      <c r="B225" s="1">
+        <v>45490</v>
+      </c>
+      <c r="C225" t="s">
+        <v>20</v>
+      </c>
+      <c r="D225">
+        <v>22</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>22</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225" t="s">
+        <v>27</v>
+      </c>
+      <c r="M225">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>18</v>
+      </c>
+      <c r="B226" s="1">
+        <v>45490</v>
+      </c>
+      <c r="C226" t="s">
+        <v>21</v>
+      </c>
+      <c r="D226">
+        <v>63</v>
+      </c>
+      <c r="E226">
+        <v>20.010000000000002</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>18</v>
+      </c>
+      <c r="H226">
+        <v>46</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226" t="s">
+        <v>26</v>
+      </c>
+      <c r="M226">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>14</v>
+      </c>
+      <c r="B227" s="1">
+        <v>45491</v>
+      </c>
+      <c r="C227" t="s">
+        <v>23</v>
+      </c>
+      <c r="D227">
+        <v>26</v>
+      </c>
+      <c r="E227">
+        <v>2.39</v>
+      </c>
+      <c r="F227">
+        <v>135</v>
+      </c>
+      <c r="G227">
+        <v>1</v>
+      </c>
+      <c r="H227">
+        <v>6</v>
+      </c>
+      <c r="I227">
+        <v>15</v>
+      </c>
+      <c r="J227">
+        <v>4</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227" t="s">
+        <v>13</v>
+      </c>
+      <c r="M227">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>14</v>
+      </c>
+      <c r="B228" s="1">
+        <v>45491</v>
+      </c>
+      <c r="C228" t="s">
+        <v>25</v>
+      </c>
+      <c r="D228">
+        <v>28</v>
+      </c>
+      <c r="E228">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F228">
+        <v>85</v>
+      </c>
+      <c r="G228">
+        <v>27</v>
+      </c>
+      <c r="H228">
+        <v>1</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228" t="s">
+        <v>13</v>
+      </c>
+      <c r="M228">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>18</v>
+      </c>
+      <c r="B229" s="1">
+        <v>45491</v>
+      </c>
+      <c r="C229" t="s">
+        <v>23</v>
+      </c>
+      <c r="D229">
+        <v>48</v>
+      </c>
+      <c r="E229">
+        <v>5.41</v>
+      </c>
+      <c r="F229">
+        <v>361</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>2</v>
+      </c>
+      <c r="I229">
+        <v>10</v>
+      </c>
+      <c r="J229">
+        <v>8</v>
+      </c>
+      <c r="K229">
+        <v>25</v>
+      </c>
+      <c r="L229" t="s">
+        <v>26</v>
+      </c>
+      <c r="M229">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>18</v>
+      </c>
+      <c r="B230" s="1">
+        <v>45491</v>
+      </c>
+      <c r="C230" t="s">
+        <v>25</v>
+      </c>
+      <c r="D230">
+        <v>10</v>
+      </c>
+      <c r="E230">
+        <v>0.3</v>
+      </c>
+      <c r="F230">
+        <v>23</v>
+      </c>
+      <c r="G230">
+        <v>10</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M212" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
     <filterColumn colId="12">

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1476" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46952BE6-A011-43B1-85E8-59C18C257F54}"/>
+  <xr:revisionPtr revIDLastSave="1477" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADE7D874-31C6-4CB6-91E0-42451BB3C4FE}"/>
   <bookViews>
     <workbookView xWindow="252" yWindow="0" windowWidth="22548" windowHeight="12360" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -503,8 +503,8 @@
   <dimension ref="A1:M230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L221" sqref="L221"/>
+      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M231" sqref="M231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9949,6 +9949,9 @@
       <c r="L230" t="s">
         <v>26</v>
       </c>
+      <c r="M230">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:M212" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1477" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADE7D874-31C6-4CB6-91E0-42451BB3C4FE}"/>
+  <xr:revisionPtr revIDLastSave="1568" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCC5B286-60D4-4C00-BB4C-33F27476B952}"/>
   <bookViews>
     <workbookView xWindow="252" yWindow="0" windowWidth="22548" windowHeight="12360" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -500,11 +500,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M230"/>
+  <dimension ref="A1:M237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M231" sqref="M231"/>
+      <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A238" sqref="A238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9953,6 +9953,293 @@
         <v>6</v>
       </c>
     </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>24</v>
+      </c>
+      <c r="B231" s="1">
+        <v>45491</v>
+      </c>
+      <c r="C231" t="s">
+        <v>23</v>
+      </c>
+      <c r="D231">
+        <v>39</v>
+      </c>
+      <c r="E231">
+        <v>4</v>
+      </c>
+      <c r="F231">
+        <v>325</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>3</v>
+      </c>
+      <c r="J231">
+        <v>11</v>
+      </c>
+      <c r="K231">
+        <v>22</v>
+      </c>
+      <c r="L231" t="s">
+        <v>26</v>
+      </c>
+      <c r="M231">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>14</v>
+      </c>
+      <c r="B232" s="1">
+        <v>45491</v>
+      </c>
+      <c r="C232" t="s">
+        <v>25</v>
+      </c>
+      <c r="D232">
+        <v>21</v>
+      </c>
+      <c r="E232">
+        <v>1.03</v>
+      </c>
+      <c r="F232">
+        <v>23</v>
+      </c>
+      <c r="G232">
+        <v>21</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232" t="s">
+        <v>13</v>
+      </c>
+      <c r="M232">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>14</v>
+      </c>
+      <c r="B233" s="1">
+        <v>45491</v>
+      </c>
+      <c r="C233" t="s">
+        <v>25</v>
+      </c>
+      <c r="D233">
+        <v>32</v>
+      </c>
+      <c r="E233">
+        <v>1.63</v>
+      </c>
+      <c r="F233">
+        <v>102</v>
+      </c>
+      <c r="G233">
+        <v>32</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233" t="s">
+        <v>13</v>
+      </c>
+      <c r="M233">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>17</v>
+      </c>
+      <c r="B234" s="1">
+        <v>45491</v>
+      </c>
+      <c r="C234" t="s">
+        <v>23</v>
+      </c>
+      <c r="D234">
+        <v>15</v>
+      </c>
+      <c r="E234">
+        <v>1.59</v>
+      </c>
+      <c r="F234">
+        <v>118</v>
+      </c>
+      <c r="G234">
+        <v>1</v>
+      </c>
+      <c r="H234">
+        <v>4</v>
+      </c>
+      <c r="I234">
+        <v>8</v>
+      </c>
+      <c r="J234">
+        <v>1</v>
+      </c>
+      <c r="K234">
+        <v>0</v>
+      </c>
+      <c r="L234" t="s">
+        <v>27</v>
+      </c>
+      <c r="M234">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>17</v>
+      </c>
+      <c r="B235" s="1">
+        <v>45491</v>
+      </c>
+      <c r="C235" t="s">
+        <v>20</v>
+      </c>
+      <c r="D235">
+        <v>53</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235">
+        <v>34</v>
+      </c>
+      <c r="H235">
+        <v>18</v>
+      </c>
+      <c r="I235">
+        <v>1</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="K235">
+        <v>0</v>
+      </c>
+      <c r="L235" t="s">
+        <v>27</v>
+      </c>
+      <c r="M235">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>17</v>
+      </c>
+      <c r="B236" s="1">
+        <v>45491</v>
+      </c>
+      <c r="C236" t="s">
+        <v>23</v>
+      </c>
+      <c r="D236">
+        <v>16</v>
+      </c>
+      <c r="E236">
+        <v>1.63</v>
+      </c>
+      <c r="F236">
+        <v>117</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+      <c r="H236">
+        <v>2</v>
+      </c>
+      <c r="I236">
+        <v>5</v>
+      </c>
+      <c r="J236">
+        <v>5</v>
+      </c>
+      <c r="K236">
+        <v>0</v>
+      </c>
+      <c r="L236" t="s">
+        <v>27</v>
+      </c>
+      <c r="M236">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>14</v>
+      </c>
+      <c r="B237" s="1">
+        <v>45492</v>
+      </c>
+      <c r="C237" t="s">
+        <v>25</v>
+      </c>
+      <c r="D237">
+        <v>31</v>
+      </c>
+      <c r="E237">
+        <v>1.69</v>
+      </c>
+      <c r="F237">
+        <v>108</v>
+      </c>
+      <c r="G237">
+        <v>31</v>
+      </c>
+      <c r="H237">
+        <v>0</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>0</v>
+      </c>
+      <c r="L237" t="s">
+        <v>13</v>
+      </c>
+      <c r="M237">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M212" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
     <filterColumn colId="12">

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1568" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCC5B286-60D4-4C00-BB4C-33F27476B952}"/>
+  <xr:revisionPtr revIDLastSave="1650" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BEF58EB-F00E-48A6-80BE-D35F8B5D59BD}"/>
   <bookViews>
-    <workbookView xWindow="252" yWindow="0" windowWidth="22548" windowHeight="12360" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -500,11 +500,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M237"/>
+  <dimension ref="A1:M243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A238" sqref="A238"/>
+      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A244" sqref="A244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10240,6 +10240,252 @@
         <v>6</v>
       </c>
     </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>18</v>
+      </c>
+      <c r="B238" s="1">
+        <v>45492</v>
+      </c>
+      <c r="C238" t="s">
+        <v>21</v>
+      </c>
+      <c r="D238">
+        <v>76</v>
+      </c>
+      <c r="E238">
+        <v>21.24</v>
+      </c>
+      <c r="F238">
+        <v>1158</v>
+      </c>
+      <c r="G238">
+        <v>6</v>
+      </c>
+      <c r="H238">
+        <v>33</v>
+      </c>
+      <c r="I238">
+        <v>26</v>
+      </c>
+      <c r="J238">
+        <v>8</v>
+      </c>
+      <c r="K238">
+        <v>1</v>
+      </c>
+      <c r="L238" t="s">
+        <v>26</v>
+      </c>
+      <c r="M238">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>19</v>
+      </c>
+      <c r="B239" s="1">
+        <v>45492</v>
+      </c>
+      <c r="C239" t="s">
+        <v>20</v>
+      </c>
+      <c r="D239">
+        <v>47</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+      <c r="G239">
+        <v>44</v>
+      </c>
+      <c r="H239">
+        <v>2</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="K239">
+        <v>0</v>
+      </c>
+      <c r="L239" t="s">
+        <v>26</v>
+      </c>
+      <c r="M239">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>14</v>
+      </c>
+      <c r="B240" s="1">
+        <v>45492</v>
+      </c>
+      <c r="C240" t="s">
+        <v>25</v>
+      </c>
+      <c r="D240">
+        <v>30</v>
+      </c>
+      <c r="E240">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F240">
+        <v>36</v>
+      </c>
+      <c r="G240">
+        <v>30</v>
+      </c>
+      <c r="H240">
+        <v>0</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>0</v>
+      </c>
+      <c r="L240" t="s">
+        <v>13</v>
+      </c>
+      <c r="M240">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>14</v>
+      </c>
+      <c r="B241" s="1">
+        <v>45492</v>
+      </c>
+      <c r="C241" t="s">
+        <v>25</v>
+      </c>
+      <c r="D241">
+        <v>34</v>
+      </c>
+      <c r="E241">
+        <v>1.71</v>
+      </c>
+      <c r="F241">
+        <v>49</v>
+      </c>
+      <c r="G241">
+        <v>34</v>
+      </c>
+      <c r="H241">
+        <v>0</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>0</v>
+      </c>
+      <c r="L241" t="s">
+        <v>13</v>
+      </c>
+      <c r="M241">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>14</v>
+      </c>
+      <c r="B242" s="1">
+        <v>45493</v>
+      </c>
+      <c r="C242" t="s">
+        <v>23</v>
+      </c>
+      <c r="D242">
+        <v>30</v>
+      </c>
+      <c r="E242">
+        <v>2.85</v>
+      </c>
+      <c r="F242">
+        <v>118</v>
+      </c>
+      <c r="G242">
+        <v>1</v>
+      </c>
+      <c r="H242">
+        <v>1</v>
+      </c>
+      <c r="I242">
+        <v>19</v>
+      </c>
+      <c r="J242">
+        <v>8</v>
+      </c>
+      <c r="K242">
+        <v>0</v>
+      </c>
+      <c r="L242" t="s">
+        <v>13</v>
+      </c>
+      <c r="M242">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>19</v>
+      </c>
+      <c r="B243" s="1">
+        <v>45493</v>
+      </c>
+      <c r="C243" t="s">
+        <v>20</v>
+      </c>
+      <c r="D243">
+        <v>61</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="G243">
+        <v>61</v>
+      </c>
+      <c r="H243">
+        <v>0</v>
+      </c>
+      <c r="I243">
+        <v>0</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>0</v>
+      </c>
+      <c r="L243" t="s">
+        <v>26</v>
+      </c>
+      <c r="M243">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M212" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
     <filterColumn colId="12">

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1650" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BEF58EB-F00E-48A6-80BE-D35F8B5D59BD}"/>
+  <xr:revisionPtr revIDLastSave="1757" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3838E2D-F0D8-487D-8A90-13EE1FA9A493}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -500,11 +500,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M243"/>
+  <dimension ref="A1:M251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A244" sqref="A244"/>
+      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A252" sqref="A252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10486,6 +10486,334 @@
         <v>6</v>
       </c>
     </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>14</v>
+      </c>
+      <c r="B244" s="1">
+        <v>45493</v>
+      </c>
+      <c r="C244" t="s">
+        <v>25</v>
+      </c>
+      <c r="D244">
+        <v>23</v>
+      </c>
+      <c r="E244">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F244">
+        <v>56</v>
+      </c>
+      <c r="G244">
+        <v>23</v>
+      </c>
+      <c r="H244">
+        <v>0</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244">
+        <v>0</v>
+      </c>
+      <c r="L244" t="s">
+        <v>13</v>
+      </c>
+      <c r="M244">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>14</v>
+      </c>
+      <c r="B245" s="1">
+        <v>45493</v>
+      </c>
+      <c r="C245" t="s">
+        <v>25</v>
+      </c>
+      <c r="D245">
+        <v>27</v>
+      </c>
+      <c r="E245">
+        <v>1.2</v>
+      </c>
+      <c r="F245">
+        <v>59</v>
+      </c>
+      <c r="G245">
+        <v>27</v>
+      </c>
+      <c r="H245">
+        <v>0</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <v>0</v>
+      </c>
+      <c r="L245" t="s">
+        <v>13</v>
+      </c>
+      <c r="M245">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>18</v>
+      </c>
+      <c r="B246" s="1">
+        <v>45493</v>
+      </c>
+      <c r="C246" t="s">
+        <v>23</v>
+      </c>
+      <c r="D246">
+        <v>74</v>
+      </c>
+      <c r="E246">
+        <v>6.01</v>
+      </c>
+      <c r="F246">
+        <v>561</v>
+      </c>
+      <c r="G246">
+        <v>3</v>
+      </c>
+      <c r="H246">
+        <v>35</v>
+      </c>
+      <c r="I246">
+        <v>20</v>
+      </c>
+      <c r="J246">
+        <v>6</v>
+      </c>
+      <c r="K246">
+        <v>0</v>
+      </c>
+      <c r="L246" t="s">
+        <v>26</v>
+      </c>
+      <c r="M246">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>18</v>
+      </c>
+      <c r="B247" s="1">
+        <v>45493</v>
+      </c>
+      <c r="C247" t="s">
+        <v>25</v>
+      </c>
+      <c r="D247">
+        <v>0.25</v>
+      </c>
+      <c r="E247">
+        <v>6</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="G247">
+        <v>6</v>
+      </c>
+      <c r="H247">
+        <v>0</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>0</v>
+      </c>
+      <c r="L247" t="s">
+        <v>26</v>
+      </c>
+      <c r="M247">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>17</v>
+      </c>
+      <c r="B248" s="1">
+        <v>45493</v>
+      </c>
+      <c r="C248" t="s">
+        <v>20</v>
+      </c>
+      <c r="D248">
+        <v>61</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+      <c r="G248">
+        <v>7</v>
+      </c>
+      <c r="H248">
+        <v>38</v>
+      </c>
+      <c r="I248">
+        <v>16</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>0</v>
+      </c>
+      <c r="L248" t="s">
+        <v>27</v>
+      </c>
+      <c r="M248">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>14</v>
+      </c>
+      <c r="B249" s="1">
+        <v>45493</v>
+      </c>
+      <c r="C249" t="s">
+        <v>25</v>
+      </c>
+      <c r="D249">
+        <v>44</v>
+      </c>
+      <c r="E249">
+        <v>2.27</v>
+      </c>
+      <c r="F249">
+        <v>89</v>
+      </c>
+      <c r="G249">
+        <v>36</v>
+      </c>
+      <c r="H249">
+        <v>8</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249">
+        <v>0</v>
+      </c>
+      <c r="L249" t="s">
+        <v>13</v>
+      </c>
+      <c r="M249">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>24</v>
+      </c>
+      <c r="B250" s="1">
+        <v>45493</v>
+      </c>
+      <c r="C250" t="s">
+        <v>20</v>
+      </c>
+      <c r="D250">
+        <v>45</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+      <c r="G250">
+        <v>45</v>
+      </c>
+      <c r="H250">
+        <v>0</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250">
+        <v>0</v>
+      </c>
+      <c r="L250" t="s">
+        <v>26</v>
+      </c>
+      <c r="M250">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>14</v>
+      </c>
+      <c r="B251" s="1">
+        <v>45493</v>
+      </c>
+      <c r="C251" t="s">
+        <v>25</v>
+      </c>
+      <c r="D251">
+        <v>28</v>
+      </c>
+      <c r="E251">
+        <v>1.38</v>
+      </c>
+      <c r="F251">
+        <v>56</v>
+      </c>
+      <c r="G251">
+        <v>27</v>
+      </c>
+      <c r="H251">
+        <v>1</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>0</v>
+      </c>
+      <c r="L251" t="s">
+        <v>13</v>
+      </c>
+      <c r="M251">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M212" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
     <filterColumn colId="12">

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1757" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3838E2D-F0D8-487D-8A90-13EE1FA9A493}"/>
+  <xr:revisionPtr revIDLastSave="1863" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48A44D3C-8362-48DE-AF41-22244EF185B5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -500,11 +500,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M251"/>
+  <dimension ref="A1:M259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A252" sqref="A252"/>
+      <pane ySplit="1" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A260" sqref="A260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10814,6 +10814,334 @@
         <v>6</v>
       </c>
     </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>14</v>
+      </c>
+      <c r="B252" s="1">
+        <v>45494</v>
+      </c>
+      <c r="C252" t="s">
+        <v>25</v>
+      </c>
+      <c r="D252">
+        <v>24</v>
+      </c>
+      <c r="E252">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F252">
+        <v>46</v>
+      </c>
+      <c r="G252">
+        <v>24</v>
+      </c>
+      <c r="H252">
+        <v>0</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252">
+        <v>0</v>
+      </c>
+      <c r="L252" t="s">
+        <v>13</v>
+      </c>
+      <c r="M252">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>14</v>
+      </c>
+      <c r="B253" s="1">
+        <v>45494</v>
+      </c>
+      <c r="C253" t="s">
+        <v>20</v>
+      </c>
+      <c r="D253">
+        <v>57</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+      <c r="G253">
+        <v>47</v>
+      </c>
+      <c r="H253">
+        <v>10</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253">
+        <v>0</v>
+      </c>
+      <c r="L253" t="s">
+        <v>13</v>
+      </c>
+      <c r="M253">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>18</v>
+      </c>
+      <c r="B254" s="1">
+        <v>45494</v>
+      </c>
+      <c r="C254" t="s">
+        <v>21</v>
+      </c>
+      <c r="D254">
+        <v>45</v>
+      </c>
+      <c r="E254">
+        <v>7.91</v>
+      </c>
+      <c r="F254">
+        <v>256</v>
+      </c>
+      <c r="G254">
+        <v>19</v>
+      </c>
+      <c r="H254">
+        <v>22</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+      <c r="K254">
+        <v>0</v>
+      </c>
+      <c r="L254" t="s">
+        <v>26</v>
+      </c>
+      <c r="M254">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>18</v>
+      </c>
+      <c r="B255" s="1">
+        <v>45494</v>
+      </c>
+      <c r="C255" t="s">
+        <v>21</v>
+      </c>
+      <c r="D255">
+        <v>45</v>
+      </c>
+      <c r="E255">
+        <v>7.92</v>
+      </c>
+      <c r="F255">
+        <v>338</v>
+      </c>
+      <c r="G255">
+        <v>10</v>
+      </c>
+      <c r="H255">
+        <v>28</v>
+      </c>
+      <c r="I255">
+        <v>3</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="K255">
+        <v>0</v>
+      </c>
+      <c r="L255" t="s">
+        <v>26</v>
+      </c>
+      <c r="M255">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>17</v>
+      </c>
+      <c r="B256" s="1">
+        <v>45494</v>
+      </c>
+      <c r="C256" t="s">
+        <v>20</v>
+      </c>
+      <c r="D256">
+        <v>34</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+      <c r="F256">
+        <v>0</v>
+      </c>
+      <c r="G256">
+        <v>33</v>
+      </c>
+      <c r="H256">
+        <v>1</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="K256">
+        <v>0</v>
+      </c>
+      <c r="L256" t="s">
+        <v>27</v>
+      </c>
+      <c r="M256">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>24</v>
+      </c>
+      <c r="B257" s="1">
+        <v>45494</v>
+      </c>
+      <c r="C257" t="s">
+        <v>20</v>
+      </c>
+      <c r="D257">
+        <v>82</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+      <c r="G257">
+        <v>52</v>
+      </c>
+      <c r="H257">
+        <v>30</v>
+      </c>
+      <c r="I257">
+        <v>1</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+      <c r="K257">
+        <v>0</v>
+      </c>
+      <c r="L257" t="s">
+        <v>26</v>
+      </c>
+      <c r="M257">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>17</v>
+      </c>
+      <c r="B258" s="1">
+        <v>45494</v>
+      </c>
+      <c r="C258" t="s">
+        <v>23</v>
+      </c>
+      <c r="D258">
+        <v>31</v>
+      </c>
+      <c r="E258">
+        <v>3.1</v>
+      </c>
+      <c r="F258">
+        <v>297</v>
+      </c>
+      <c r="G258">
+        <v>1</v>
+      </c>
+      <c r="H258">
+        <v>9</v>
+      </c>
+      <c r="I258">
+        <v>11</v>
+      </c>
+      <c r="J258">
+        <v>8</v>
+      </c>
+      <c r="K258">
+        <v>0</v>
+      </c>
+      <c r="L258" t="s">
+        <v>27</v>
+      </c>
+      <c r="M258">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>14</v>
+      </c>
+      <c r="B259" s="1">
+        <v>45494</v>
+      </c>
+      <c r="C259" t="s">
+        <v>25</v>
+      </c>
+      <c r="D259">
+        <v>26</v>
+      </c>
+      <c r="E259">
+        <v>1.19</v>
+      </c>
+      <c r="F259">
+        <v>36</v>
+      </c>
+      <c r="G259">
+        <v>26</v>
+      </c>
+      <c r="H259">
+        <v>0</v>
+      </c>
+      <c r="I259">
+        <v>0</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+      <c r="K259">
+        <v>0</v>
+      </c>
+      <c r="L259" t="s">
+        <v>13</v>
+      </c>
+      <c r="M259">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M212" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
     <filterColumn colId="12">

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1863" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48A44D3C-8362-48DE-AF41-22244EF185B5}"/>
+  <xr:revisionPtr revIDLastSave="1916" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6D16F05-EE1B-4F60-BEDE-847B70ED5C61}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -500,11 +500,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M259"/>
+  <dimension ref="A1:M263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A260" sqref="A260"/>
+      <selection pane="bottomLeft" activeCell="A264" sqref="A264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11142,6 +11142,170 @@
         <v>6</v>
       </c>
     </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>14</v>
+      </c>
+      <c r="B260" s="1">
+        <v>45495</v>
+      </c>
+      <c r="C260" t="s">
+        <v>25</v>
+      </c>
+      <c r="D260">
+        <v>37</v>
+      </c>
+      <c r="E260">
+        <v>1.96</v>
+      </c>
+      <c r="F260">
+        <v>92</v>
+      </c>
+      <c r="G260">
+        <v>37</v>
+      </c>
+      <c r="H260">
+        <v>0</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <v>0</v>
+      </c>
+      <c r="L260" t="s">
+        <v>13</v>
+      </c>
+      <c r="M260">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>14</v>
+      </c>
+      <c r="B261" s="1">
+        <v>45495</v>
+      </c>
+      <c r="C261" t="s">
+        <v>20</v>
+      </c>
+      <c r="D261">
+        <v>26</v>
+      </c>
+      <c r="E261">
+        <v>0</v>
+      </c>
+      <c r="F261">
+        <v>0</v>
+      </c>
+      <c r="G261">
+        <v>23</v>
+      </c>
+      <c r="H261">
+        <v>3</v>
+      </c>
+      <c r="I261">
+        <v>0</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="K261">
+        <v>0</v>
+      </c>
+      <c r="L261" t="s">
+        <v>13</v>
+      </c>
+      <c r="M261">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>14</v>
+      </c>
+      <c r="B262" s="1">
+        <v>45495</v>
+      </c>
+      <c r="C262" t="s">
+        <v>25</v>
+      </c>
+      <c r="D262">
+        <v>25</v>
+      </c>
+      <c r="E262">
+        <v>1</v>
+      </c>
+      <c r="F262">
+        <v>33</v>
+      </c>
+      <c r="G262">
+        <v>25</v>
+      </c>
+      <c r="H262">
+        <v>0</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+      <c r="K262">
+        <v>0</v>
+      </c>
+      <c r="L262" t="s">
+        <v>13</v>
+      </c>
+      <c r="M262">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>14</v>
+      </c>
+      <c r="B263" s="1">
+        <v>45495</v>
+      </c>
+      <c r="C263" t="s">
+        <v>25</v>
+      </c>
+      <c r="D263">
+        <v>27</v>
+      </c>
+      <c r="E263">
+        <v>1.29</v>
+      </c>
+      <c r="F263">
+        <v>52</v>
+      </c>
+      <c r="G263">
+        <v>27</v>
+      </c>
+      <c r="H263">
+        <v>0</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="K263">
+        <v>0</v>
+      </c>
+      <c r="L263" t="s">
+        <v>13</v>
+      </c>
+      <c r="M263">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M212" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
     <filterColumn colId="12">

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1916" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6D16F05-EE1B-4F60-BEDE-847B70ED5C61}"/>
+  <xr:revisionPtr revIDLastSave="1995" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49952E5C-C667-41FA-A388-D24B9B1AD083}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -500,11 +500,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M263"/>
+  <dimension ref="A1:M269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A264" sqref="A264"/>
+      <selection pane="bottomLeft" activeCell="D270" sqref="D270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11306,6 +11306,252 @@
         <v>7</v>
       </c>
     </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>18</v>
+      </c>
+      <c r="B264" s="1">
+        <v>45496</v>
+      </c>
+      <c r="C264" t="s">
+        <v>23</v>
+      </c>
+      <c r="D264">
+        <v>41</v>
+      </c>
+      <c r="E264">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="F264">
+        <v>276</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+      <c r="H264">
+        <v>15</v>
+      </c>
+      <c r="I264">
+        <v>11</v>
+      </c>
+      <c r="J264">
+        <v>12</v>
+      </c>
+      <c r="K264">
+        <v>0</v>
+      </c>
+      <c r="L264" t="s">
+        <v>2</v>
+      </c>
+      <c r="M264">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>18</v>
+      </c>
+      <c r="B265" s="1">
+        <v>45496</v>
+      </c>
+      <c r="C265" t="s">
+        <v>25</v>
+      </c>
+      <c r="D265">
+        <v>3</v>
+      </c>
+      <c r="E265">
+        <v>0.13</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
+      <c r="G265">
+        <v>3</v>
+      </c>
+      <c r="H265">
+        <v>0</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="K265">
+        <v>0</v>
+      </c>
+      <c r="L265" t="s">
+        <v>2</v>
+      </c>
+      <c r="M265">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>19</v>
+      </c>
+      <c r="B266" s="1">
+        <v>45496</v>
+      </c>
+      <c r="C266" t="s">
+        <v>23</v>
+      </c>
+      <c r="D266">
+        <v>20</v>
+      </c>
+      <c r="E266">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F266">
+        <v>104</v>
+      </c>
+      <c r="G266">
+        <v>0</v>
+      </c>
+      <c r="H266">
+        <v>11</v>
+      </c>
+      <c r="I266">
+        <v>7</v>
+      </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
+      <c r="K266">
+        <v>0</v>
+      </c>
+      <c r="L266" t="s">
+        <v>27</v>
+      </c>
+      <c r="M266">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>14</v>
+      </c>
+      <c r="B267" s="1">
+        <v>45496</v>
+      </c>
+      <c r="C267" t="s">
+        <v>25</v>
+      </c>
+      <c r="D267">
+        <v>41</v>
+      </c>
+      <c r="E267">
+        <v>2.16</v>
+      </c>
+      <c r="F267">
+        <v>89</v>
+      </c>
+      <c r="G267">
+        <v>41</v>
+      </c>
+      <c r="H267">
+        <v>0</v>
+      </c>
+      <c r="I267">
+        <v>0</v>
+      </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
+      <c r="K267">
+        <v>0</v>
+      </c>
+      <c r="L267" t="s">
+        <v>13</v>
+      </c>
+      <c r="M267">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>14</v>
+      </c>
+      <c r="B268" s="1">
+        <v>45496</v>
+      </c>
+      <c r="C268" t="s">
+        <v>25</v>
+      </c>
+      <c r="D268">
+        <v>31</v>
+      </c>
+      <c r="E268">
+        <v>1.44</v>
+      </c>
+      <c r="F268">
+        <v>49</v>
+      </c>
+      <c r="G268">
+        <v>31</v>
+      </c>
+      <c r="H268">
+        <v>0</v>
+      </c>
+      <c r="I268">
+        <v>0</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+      <c r="K268">
+        <v>0</v>
+      </c>
+      <c r="L268" t="s">
+        <v>13</v>
+      </c>
+      <c r="M268">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>14</v>
+      </c>
+      <c r="B269" s="1">
+        <v>45497</v>
+      </c>
+      <c r="C269" t="s">
+        <v>25</v>
+      </c>
+      <c r="D269">
+        <v>27</v>
+      </c>
+      <c r="E269">
+        <v>1.33</v>
+      </c>
+      <c r="F269">
+        <v>66</v>
+      </c>
+      <c r="G269">
+        <v>27</v>
+      </c>
+      <c r="H269">
+        <v>0</v>
+      </c>
+      <c r="I269">
+        <v>0</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="K269">
+        <v>0</v>
+      </c>
+      <c r="L269" t="s">
+        <v>13</v>
+      </c>
+      <c r="M269">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M212" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
     <filterColumn colId="12">

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1995" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49952E5C-C667-41FA-A388-D24B9B1AD083}"/>
+  <xr:revisionPtr revIDLastSave="2125" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C57BDFBC-1BE5-4685-B085-F02DE741EF76}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -500,11 +500,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M269"/>
+  <dimension ref="A1:M279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D270" sqref="D270"/>
+      <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A280" sqref="A280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11552,6 +11552,416 @@
         <v>7</v>
       </c>
     </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>19</v>
+      </c>
+      <c r="B270" s="1">
+        <v>45497</v>
+      </c>
+      <c r="C270" t="s">
+        <v>23</v>
+      </c>
+      <c r="D270">
+        <v>23</v>
+      </c>
+      <c r="E270">
+        <v>2.46</v>
+      </c>
+      <c r="F270">
+        <v>133</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+      <c r="H270">
+        <v>16</v>
+      </c>
+      <c r="I270">
+        <v>5</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+      <c r="K270">
+        <v>0</v>
+      </c>
+      <c r="L270" t="s">
+        <v>27</v>
+      </c>
+      <c r="M270">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>14</v>
+      </c>
+      <c r="B271" s="1">
+        <v>45497</v>
+      </c>
+      <c r="C271" t="s">
+        <v>20</v>
+      </c>
+      <c r="D271">
+        <v>64</v>
+      </c>
+      <c r="E271">
+        <v>0</v>
+      </c>
+      <c r="F271">
+        <v>0</v>
+      </c>
+      <c r="G271">
+        <v>44</v>
+      </c>
+      <c r="H271">
+        <v>19</v>
+      </c>
+      <c r="I271">
+        <v>2</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="K271">
+        <v>0</v>
+      </c>
+      <c r="L271" t="s">
+        <v>13</v>
+      </c>
+      <c r="M271">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>14</v>
+      </c>
+      <c r="B272" s="1">
+        <v>45497</v>
+      </c>
+      <c r="C272" t="s">
+        <v>25</v>
+      </c>
+      <c r="D272">
+        <v>33</v>
+      </c>
+      <c r="E272">
+        <v>1.73</v>
+      </c>
+      <c r="F272">
+        <v>82</v>
+      </c>
+      <c r="G272">
+        <v>33</v>
+      </c>
+      <c r="H272">
+        <v>0</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+      <c r="K272">
+        <v>0</v>
+      </c>
+      <c r="L272" t="s">
+        <v>13</v>
+      </c>
+      <c r="M272">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>14</v>
+      </c>
+      <c r="B273" s="1">
+        <v>45497</v>
+      </c>
+      <c r="C273" t="s">
+        <v>25</v>
+      </c>
+      <c r="D273">
+        <v>45</v>
+      </c>
+      <c r="E273">
+        <v>1.9</v>
+      </c>
+      <c r="F273">
+        <v>66</v>
+      </c>
+      <c r="G273">
+        <v>45</v>
+      </c>
+      <c r="H273">
+        <v>0</v>
+      </c>
+      <c r="I273">
+        <v>0</v>
+      </c>
+      <c r="J273">
+        <v>0</v>
+      </c>
+      <c r="K273">
+        <v>0</v>
+      </c>
+      <c r="L273" t="s">
+        <v>13</v>
+      </c>
+      <c r="M273">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>14</v>
+      </c>
+      <c r="B274" s="1">
+        <v>45497</v>
+      </c>
+      <c r="C274" t="s">
+        <v>25</v>
+      </c>
+      <c r="D274">
+        <v>29</v>
+      </c>
+      <c r="E274">
+        <v>1.45</v>
+      </c>
+      <c r="F274">
+        <v>69</v>
+      </c>
+      <c r="G274">
+        <v>29</v>
+      </c>
+      <c r="H274">
+        <v>0</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="K274">
+        <v>0</v>
+      </c>
+      <c r="L274" t="s">
+        <v>13</v>
+      </c>
+      <c r="M274">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>18</v>
+      </c>
+      <c r="B275" s="1">
+        <v>45497</v>
+      </c>
+      <c r="C275" t="s">
+        <v>25</v>
+      </c>
+      <c r="D275">
+        <v>25</v>
+      </c>
+      <c r="E275">
+        <v>0.93</v>
+      </c>
+      <c r="F275">
+        <v>69</v>
+      </c>
+      <c r="G275">
+        <v>25</v>
+      </c>
+      <c r="H275">
+        <v>0</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
+      <c r="K275">
+        <v>0</v>
+      </c>
+      <c r="L275" t="s">
+        <v>2</v>
+      </c>
+      <c r="M275">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>17</v>
+      </c>
+      <c r="B276" s="1">
+        <v>45497</v>
+      </c>
+      <c r="C276" t="s">
+        <v>20</v>
+      </c>
+      <c r="D276">
+        <v>79</v>
+      </c>
+      <c r="E276">
+        <v>0</v>
+      </c>
+      <c r="F276">
+        <v>0</v>
+      </c>
+      <c r="G276">
+        <v>55</v>
+      </c>
+      <c r="H276">
+        <v>23</v>
+      </c>
+      <c r="I276">
+        <v>2</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="K276">
+        <v>0</v>
+      </c>
+      <c r="L276" t="s">
+        <v>27</v>
+      </c>
+      <c r="M276">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>14</v>
+      </c>
+      <c r="B277" s="1">
+        <v>45498</v>
+      </c>
+      <c r="C277" t="s">
+        <v>23</v>
+      </c>
+      <c r="D277">
+        <v>36</v>
+      </c>
+      <c r="E277">
+        <v>3.05</v>
+      </c>
+      <c r="F277">
+        <v>69</v>
+      </c>
+      <c r="G277">
+        <v>2</v>
+      </c>
+      <c r="H277">
+        <v>7</v>
+      </c>
+      <c r="I277">
+        <v>24</v>
+      </c>
+      <c r="J277">
+        <v>1</v>
+      </c>
+      <c r="K277">
+        <v>0</v>
+      </c>
+      <c r="L277" t="s">
+        <v>13</v>
+      </c>
+      <c r="M277">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>14</v>
+      </c>
+      <c r="B278" s="1">
+        <v>45498</v>
+      </c>
+      <c r="C278" t="s">
+        <v>25</v>
+      </c>
+      <c r="D278">
+        <v>17</v>
+      </c>
+      <c r="E278">
+        <v>0.85</v>
+      </c>
+      <c r="F278">
+        <v>49</v>
+      </c>
+      <c r="G278">
+        <v>17</v>
+      </c>
+      <c r="H278">
+        <v>0</v>
+      </c>
+      <c r="I278">
+        <v>0</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="K278">
+        <v>0</v>
+      </c>
+      <c r="L278" t="s">
+        <v>13</v>
+      </c>
+      <c r="M278">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>14</v>
+      </c>
+      <c r="B279" s="1">
+        <v>45498</v>
+      </c>
+      <c r="C279" t="s">
+        <v>25</v>
+      </c>
+      <c r="D279">
+        <v>20</v>
+      </c>
+      <c r="E279">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F279">
+        <v>56</v>
+      </c>
+      <c r="G279">
+        <v>20</v>
+      </c>
+      <c r="H279">
+        <v>0</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+      <c r="K279">
+        <v>0</v>
+      </c>
+      <c r="L279" t="s">
+        <v>13</v>
+      </c>
+      <c r="M279">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M212" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
     <filterColumn colId="12">

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2125" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C57BDFBC-1BE5-4685-B085-F02DE741EF76}"/>
+  <xr:revisionPtr revIDLastSave="2216" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{098730AF-32BD-4231-BAE9-5150B8D8C573}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -500,11 +500,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M279"/>
+  <dimension ref="A1:M286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A280" sqref="A280"/>
+      <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P276" sqref="P276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11962,6 +11962,293 @@
         <v>7</v>
       </c>
     </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>17</v>
+      </c>
+      <c r="B280" s="1">
+        <v>45498</v>
+      </c>
+      <c r="C280" t="s">
+        <v>23</v>
+      </c>
+      <c r="D280">
+        <v>7</v>
+      </c>
+      <c r="E280">
+        <v>0.63</v>
+      </c>
+      <c r="F280">
+        <v>73</v>
+      </c>
+      <c r="G280">
+        <v>1</v>
+      </c>
+      <c r="H280">
+        <v>2</v>
+      </c>
+      <c r="I280">
+        <v>0</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="K280">
+        <v>0</v>
+      </c>
+      <c r="L280" t="s">
+        <v>27</v>
+      </c>
+      <c r="M280">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>17</v>
+      </c>
+      <c r="B281" s="1">
+        <v>45498</v>
+      </c>
+      <c r="C281" t="s">
+        <v>20</v>
+      </c>
+      <c r="D281">
+        <v>56</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+      <c r="G281">
+        <v>26</v>
+      </c>
+      <c r="H281">
+        <v>28</v>
+      </c>
+      <c r="I281">
+        <v>2</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="K281">
+        <v>0</v>
+      </c>
+      <c r="L281" t="s">
+        <v>27</v>
+      </c>
+      <c r="M281">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>17</v>
+      </c>
+      <c r="B282" s="1">
+        <v>45498</v>
+      </c>
+      <c r="C282" t="s">
+        <v>23</v>
+      </c>
+      <c r="D282">
+        <v>13</v>
+      </c>
+      <c r="E282">
+        <v>1.56</v>
+      </c>
+      <c r="F282">
+        <v>117</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="H282">
+        <v>2</v>
+      </c>
+      <c r="I282">
+        <v>6</v>
+      </c>
+      <c r="J282">
+        <v>4</v>
+      </c>
+      <c r="K282">
+        <v>0</v>
+      </c>
+      <c r="L282" t="s">
+        <v>27</v>
+      </c>
+      <c r="M282">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>24</v>
+      </c>
+      <c r="B283" s="1">
+        <v>45498</v>
+      </c>
+      <c r="C283" t="s">
+        <v>20</v>
+      </c>
+      <c r="D283">
+        <v>92</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283">
+        <v>58</v>
+      </c>
+      <c r="H283">
+        <v>31</v>
+      </c>
+      <c r="I283">
+        <v>4</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="K283">
+        <v>0</v>
+      </c>
+      <c r="L283" t="s">
+        <v>27</v>
+      </c>
+      <c r="M283">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>17</v>
+      </c>
+      <c r="B284" s="1">
+        <v>45498</v>
+      </c>
+      <c r="C284" t="s">
+        <v>25</v>
+      </c>
+      <c r="D284">
+        <v>18</v>
+      </c>
+      <c r="E284">
+        <v>1.04</v>
+      </c>
+      <c r="F284">
+        <v>44</v>
+      </c>
+      <c r="G284">
+        <v>18</v>
+      </c>
+      <c r="H284">
+        <v>0</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="K284">
+        <v>0</v>
+      </c>
+      <c r="L284" t="s">
+        <v>27</v>
+      </c>
+      <c r="M284">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>18</v>
+      </c>
+      <c r="B285" s="1">
+        <v>45498</v>
+      </c>
+      <c r="C285" t="s">
+        <v>20</v>
+      </c>
+      <c r="D285">
+        <v>50</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285">
+        <v>28</v>
+      </c>
+      <c r="H285">
+        <v>20</v>
+      </c>
+      <c r="I285">
+        <v>3</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="K285">
+        <v>0</v>
+      </c>
+      <c r="L285" t="s">
+        <v>2</v>
+      </c>
+      <c r="M285">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>14</v>
+      </c>
+      <c r="B286" s="1">
+        <v>45498</v>
+      </c>
+      <c r="C286" t="s">
+        <v>25</v>
+      </c>
+      <c r="D286">
+        <v>38</v>
+      </c>
+      <c r="E286">
+        <v>2.04</v>
+      </c>
+      <c r="F286">
+        <v>66</v>
+      </c>
+      <c r="G286">
+        <v>38</v>
+      </c>
+      <c r="H286">
+        <v>0</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="K286">
+        <v>0</v>
+      </c>
+      <c r="L286" t="s">
+        <v>13</v>
+      </c>
+      <c r="M286">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M212" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
     <filterColumn colId="12">

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2216" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{098730AF-32BD-4231-BAE9-5150B8D8C573}"/>
+  <xr:revisionPtr revIDLastSave="2255" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D94F8479-6488-4C2F-9A4D-4CB867F0CFEC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -500,11 +500,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M286"/>
+  <dimension ref="A1:M289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P276" sqref="P276"/>
+      <pane ySplit="1" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A290" sqref="A290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12249,6 +12249,129 @@
         <v>7</v>
       </c>
     </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>14</v>
+      </c>
+      <c r="B287" s="1">
+        <v>45499</v>
+      </c>
+      <c r="C287" t="s">
+        <v>25</v>
+      </c>
+      <c r="D287">
+        <v>21</v>
+      </c>
+      <c r="E287">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F287">
+        <v>30</v>
+      </c>
+      <c r="G287">
+        <v>21</v>
+      </c>
+      <c r="H287">
+        <v>0</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
+      <c r="K287">
+        <v>0</v>
+      </c>
+      <c r="L287" t="s">
+        <v>13</v>
+      </c>
+      <c r="M287">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>14</v>
+      </c>
+      <c r="B288" s="1">
+        <v>45500</v>
+      </c>
+      <c r="C288" t="s">
+        <v>23</v>
+      </c>
+      <c r="D288">
+        <v>13</v>
+      </c>
+      <c r="E288">
+        <v>1.38</v>
+      </c>
+      <c r="F288">
+        <v>66</v>
+      </c>
+      <c r="G288">
+        <v>1</v>
+      </c>
+      <c r="H288">
+        <v>1</v>
+      </c>
+      <c r="I288">
+        <v>8</v>
+      </c>
+      <c r="J288">
+        <v>3</v>
+      </c>
+      <c r="K288">
+        <v>0</v>
+      </c>
+      <c r="L288" t="s">
+        <v>13</v>
+      </c>
+      <c r="M288">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>14</v>
+      </c>
+      <c r="B289" s="1">
+        <v>45500</v>
+      </c>
+      <c r="C289" t="s">
+        <v>20</v>
+      </c>
+      <c r="D289">
+        <v>10</v>
+      </c>
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+      <c r="G289">
+        <v>5</v>
+      </c>
+      <c r="H289">
+        <v>5</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <v>0</v>
+      </c>
+      <c r="K289">
+        <v>0</v>
+      </c>
+      <c r="L289" t="s">
+        <v>13</v>
+      </c>
+      <c r="M289">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M212" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
     <filterColumn colId="12">

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2255" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D94F8479-6488-4C2F-9A4D-4CB867F0CFEC}"/>
+  <xr:revisionPtr revIDLastSave="2414" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{148D4BFE-D7B9-476F-AE6D-B504105181EA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -500,11 +500,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M289"/>
+  <dimension ref="A1:M301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A290" sqref="A290"/>
+      <selection pane="bottomLeft" activeCell="A302" sqref="A302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12372,6 +12372,498 @@
         <v>7</v>
       </c>
     </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>18</v>
+      </c>
+      <c r="B290" s="1">
+        <v>45500</v>
+      </c>
+      <c r="C290" t="s">
+        <v>23</v>
+      </c>
+      <c r="D290">
+        <v>53</v>
+      </c>
+      <c r="E290">
+        <v>4.78</v>
+      </c>
+      <c r="F290">
+        <v>253</v>
+      </c>
+      <c r="G290">
+        <v>1</v>
+      </c>
+      <c r="H290">
+        <v>38</v>
+      </c>
+      <c r="I290">
+        <v>7</v>
+      </c>
+      <c r="J290">
+        <v>1</v>
+      </c>
+      <c r="K290">
+        <v>0</v>
+      </c>
+      <c r="L290" t="s">
+        <v>2</v>
+      </c>
+      <c r="M290">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>18</v>
+      </c>
+      <c r="B291" s="1">
+        <v>45500</v>
+      </c>
+      <c r="C291" t="s">
+        <v>25</v>
+      </c>
+      <c r="D291">
+        <v>2</v>
+      </c>
+      <c r="E291">
+        <v>0.08</v>
+      </c>
+      <c r="F291">
+        <v>0</v>
+      </c>
+      <c r="G291">
+        <v>2</v>
+      </c>
+      <c r="H291">
+        <v>0</v>
+      </c>
+      <c r="I291">
+        <v>0</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291">
+        <v>0</v>
+      </c>
+      <c r="L291" t="s">
+        <v>2</v>
+      </c>
+      <c r="M291">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>19</v>
+      </c>
+      <c r="B292" s="1">
+        <v>45500</v>
+      </c>
+      <c r="C292" t="s">
+        <v>21</v>
+      </c>
+      <c r="D292">
+        <v>144</v>
+      </c>
+      <c r="E292">
+        <v>39.979999999999997</v>
+      </c>
+      <c r="F292">
+        <v>2243</v>
+      </c>
+      <c r="G292">
+        <v>1</v>
+      </c>
+      <c r="H292">
+        <v>36</v>
+      </c>
+      <c r="I292">
+        <v>74</v>
+      </c>
+      <c r="J292">
+        <v>29</v>
+      </c>
+      <c r="K292">
+        <v>0</v>
+      </c>
+      <c r="L292" t="s">
+        <v>27</v>
+      </c>
+      <c r="M292">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>18</v>
+      </c>
+      <c r="B293" s="1">
+        <v>45500</v>
+      </c>
+      <c r="C293" t="s">
+        <v>21</v>
+      </c>
+      <c r="D293">
+        <v>20</v>
+      </c>
+      <c r="E293">
+        <v>6.11</v>
+      </c>
+      <c r="F293">
+        <v>0</v>
+      </c>
+      <c r="G293">
+        <v>3</v>
+      </c>
+      <c r="H293">
+        <v>17</v>
+      </c>
+      <c r="I293">
+        <v>0</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293">
+        <v>0</v>
+      </c>
+      <c r="L293" t="s">
+        <v>2</v>
+      </c>
+      <c r="M293">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>17</v>
+      </c>
+      <c r="B294" s="1">
+        <v>45500</v>
+      </c>
+      <c r="C294" t="s">
+        <v>25</v>
+      </c>
+      <c r="D294">
+        <v>80</v>
+      </c>
+      <c r="E294">
+        <v>2.88</v>
+      </c>
+      <c r="F294">
+        <v>345</v>
+      </c>
+      <c r="G294">
+        <v>80</v>
+      </c>
+      <c r="H294">
+        <v>0</v>
+      </c>
+      <c r="I294">
+        <v>0</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+      <c r="K294">
+        <v>0</v>
+      </c>
+      <c r="L294" t="s">
+        <v>27</v>
+      </c>
+      <c r="M294">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>14</v>
+      </c>
+      <c r="B295" s="1">
+        <v>45500</v>
+      </c>
+      <c r="C295" t="s">
+        <v>25</v>
+      </c>
+      <c r="D295">
+        <v>45</v>
+      </c>
+      <c r="E295">
+        <v>2.23</v>
+      </c>
+      <c r="F295">
+        <v>75</v>
+      </c>
+      <c r="G295">
+        <v>45</v>
+      </c>
+      <c r="H295">
+        <v>0</v>
+      </c>
+      <c r="I295">
+        <v>0</v>
+      </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
+      <c r="K295">
+        <v>0</v>
+      </c>
+      <c r="L295" t="s">
+        <v>13</v>
+      </c>
+      <c r="M295">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>14</v>
+      </c>
+      <c r="B296" s="1">
+        <v>45500</v>
+      </c>
+      <c r="C296" t="s">
+        <v>25</v>
+      </c>
+      <c r="D296">
+        <v>27</v>
+      </c>
+      <c r="E296">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F296">
+        <v>30</v>
+      </c>
+      <c r="G296">
+        <v>27</v>
+      </c>
+      <c r="H296">
+        <v>0</v>
+      </c>
+      <c r="I296">
+        <v>0</v>
+      </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
+      <c r="K296">
+        <v>0</v>
+      </c>
+      <c r="L296" t="s">
+        <v>13</v>
+      </c>
+      <c r="M296">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>24</v>
+      </c>
+      <c r="B297" s="1">
+        <v>45500</v>
+      </c>
+      <c r="C297" t="s">
+        <v>20</v>
+      </c>
+      <c r="D297">
+        <v>60</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297">
+        <v>0</v>
+      </c>
+      <c r="G297">
+        <v>21</v>
+      </c>
+      <c r="H297">
+        <v>41</v>
+      </c>
+      <c r="I297">
+        <v>0</v>
+      </c>
+      <c r="J297">
+        <v>0</v>
+      </c>
+      <c r="K297">
+        <v>0</v>
+      </c>
+      <c r="L297" t="s">
+        <v>27</v>
+      </c>
+      <c r="M297">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>14</v>
+      </c>
+      <c r="B298" s="1">
+        <v>45501</v>
+      </c>
+      <c r="C298" t="s">
+        <v>25</v>
+      </c>
+      <c r="D298">
+        <v>33</v>
+      </c>
+      <c r="E298">
+        <v>1.71</v>
+      </c>
+      <c r="F298">
+        <v>79</v>
+      </c>
+      <c r="G298">
+        <v>33</v>
+      </c>
+      <c r="H298">
+        <v>0</v>
+      </c>
+      <c r="I298">
+        <v>0</v>
+      </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
+      <c r="K298">
+        <v>0</v>
+      </c>
+      <c r="L298" t="s">
+        <v>13</v>
+      </c>
+      <c r="M298">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" s="1">
+        <v>45501</v>
+      </c>
+      <c r="C299" t="s">
+        <v>20</v>
+      </c>
+      <c r="D299">
+        <v>24</v>
+      </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
+      </c>
+      <c r="G299">
+        <v>16</v>
+      </c>
+      <c r="H299">
+        <v>8</v>
+      </c>
+      <c r="I299">
+        <v>0</v>
+      </c>
+      <c r="J299">
+        <v>0</v>
+      </c>
+      <c r="K299">
+        <v>0</v>
+      </c>
+      <c r="L299" t="s">
+        <v>13</v>
+      </c>
+      <c r="M299">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>18</v>
+      </c>
+      <c r="B300" s="1">
+        <v>45501</v>
+      </c>
+      <c r="C300" t="s">
+        <v>23</v>
+      </c>
+      <c r="D300">
+        <v>113</v>
+      </c>
+      <c r="E300">
+        <v>10.01</v>
+      </c>
+      <c r="F300">
+        <v>486</v>
+      </c>
+      <c r="G300">
+        <v>4</v>
+      </c>
+      <c r="H300">
+        <v>73</v>
+      </c>
+      <c r="I300">
+        <v>21</v>
+      </c>
+      <c r="J300">
+        <v>4</v>
+      </c>
+      <c r="K300">
+        <v>0</v>
+      </c>
+      <c r="L300" t="s">
+        <v>2</v>
+      </c>
+      <c r="M300">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>18</v>
+      </c>
+      <c r="B301" s="1">
+        <v>45501</v>
+      </c>
+      <c r="C301" t="s">
+        <v>25</v>
+      </c>
+      <c r="D301">
+        <v>6</v>
+      </c>
+      <c r="E301">
+        <v>0.19</v>
+      </c>
+      <c r="F301">
+        <v>0</v>
+      </c>
+      <c r="G301">
+        <v>6</v>
+      </c>
+      <c r="H301">
+        <v>0</v>
+      </c>
+      <c r="I301">
+        <v>0</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
+      <c r="K301">
+        <v>0</v>
+      </c>
+      <c r="L301" t="s">
+        <v>2</v>
+      </c>
+      <c r="M301">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M212" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
     <filterColumn colId="12">

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2414" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{148D4BFE-D7B9-476F-AE6D-B504105181EA}"/>
+  <xr:revisionPtr revIDLastSave="2467" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB3B8DBF-4155-437D-936E-65B1F5999EB4}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -176,10 +176,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -500,11 +496,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M301"/>
+  <dimension ref="A1:M305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A302" sqref="A302"/>
+      <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M305" sqref="M305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12864,6 +12860,170 @@
         <v>7</v>
       </c>
     </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>24</v>
+      </c>
+      <c r="B302" s="1">
+        <v>45501</v>
+      </c>
+      <c r="C302" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302">
+        <v>62</v>
+      </c>
+      <c r="E302">
+        <v>0</v>
+      </c>
+      <c r="F302">
+        <v>0</v>
+      </c>
+      <c r="G302">
+        <v>41</v>
+      </c>
+      <c r="H302">
+        <v>21</v>
+      </c>
+      <c r="I302">
+        <v>1</v>
+      </c>
+      <c r="J302">
+        <v>0</v>
+      </c>
+      <c r="K302">
+        <v>0</v>
+      </c>
+      <c r="L302" t="s">
+        <v>27</v>
+      </c>
+      <c r="M302">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>18</v>
+      </c>
+      <c r="B303" s="1">
+        <v>45501</v>
+      </c>
+      <c r="C303" t="s">
+        <v>25</v>
+      </c>
+      <c r="D303">
+        <v>15</v>
+      </c>
+      <c r="E303">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F303">
+        <v>30</v>
+      </c>
+      <c r="G303">
+        <v>15</v>
+      </c>
+      <c r="H303">
+        <v>0</v>
+      </c>
+      <c r="I303">
+        <v>0</v>
+      </c>
+      <c r="J303">
+        <v>0</v>
+      </c>
+      <c r="K303">
+        <v>0</v>
+      </c>
+      <c r="L303" t="s">
+        <v>2</v>
+      </c>
+      <c r="M303">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" s="1">
+        <v>45502</v>
+      </c>
+      <c r="C304" t="s">
+        <v>25</v>
+      </c>
+      <c r="D304">
+        <v>28</v>
+      </c>
+      <c r="E304">
+        <v>1.35</v>
+      </c>
+      <c r="F304">
+        <v>52</v>
+      </c>
+      <c r="G304">
+        <v>28</v>
+      </c>
+      <c r="H304">
+        <v>0</v>
+      </c>
+      <c r="I304">
+        <v>0</v>
+      </c>
+      <c r="J304">
+        <v>0</v>
+      </c>
+      <c r="K304">
+        <v>0</v>
+      </c>
+      <c r="L304" t="s">
+        <v>13</v>
+      </c>
+      <c r="M304">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" s="1">
+        <v>45503</v>
+      </c>
+      <c r="C305" t="s">
+        <v>25</v>
+      </c>
+      <c r="D305">
+        <v>23</v>
+      </c>
+      <c r="E305">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F305">
+        <v>36</v>
+      </c>
+      <c r="G305">
+        <v>23</v>
+      </c>
+      <c r="H305">
+        <v>0</v>
+      </c>
+      <c r="I305">
+        <v>0</v>
+      </c>
+      <c r="J305">
+        <v>0</v>
+      </c>
+      <c r="K305">
+        <v>0</v>
+      </c>
+      <c r="L305" t="s">
+        <v>13</v>
+      </c>
+      <c r="M305">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M212" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
     <filterColumn colId="12">

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2467" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB3B8DBF-4155-437D-936E-65B1F5999EB4}"/>
+  <xr:revisionPtr revIDLastSave="2545" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7C4F554-C4E3-46EA-9DB1-1615BD3D2FE5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
+    <workbookView xWindow="-19035" yWindow="1845" windowWidth="17280" windowHeight="8970" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -176,6 +176,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -496,11 +500,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M305"/>
+  <dimension ref="A1:M311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M305" sqref="M305"/>
+      <pane ySplit="1" topLeftCell="A300" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A312" sqref="A312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13024,6 +13028,252 @@
         <v>8</v>
       </c>
     </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>19</v>
+      </c>
+      <c r="B306" s="1">
+        <v>45503</v>
+      </c>
+      <c r="C306" t="s">
+        <v>20</v>
+      </c>
+      <c r="D306">
+        <v>45</v>
+      </c>
+      <c r="E306">
+        <v>0</v>
+      </c>
+      <c r="F306">
+        <v>0</v>
+      </c>
+      <c r="G306">
+        <v>12</v>
+      </c>
+      <c r="H306">
+        <v>27</v>
+      </c>
+      <c r="I306">
+        <v>5</v>
+      </c>
+      <c r="J306">
+        <v>0</v>
+      </c>
+      <c r="K306">
+        <v>0</v>
+      </c>
+      <c r="L306" t="s">
+        <v>2</v>
+      </c>
+      <c r="M306">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>24</v>
+      </c>
+      <c r="B307" s="1">
+        <v>45503</v>
+      </c>
+      <c r="C307" t="s">
+        <v>23</v>
+      </c>
+      <c r="D307">
+        <v>73</v>
+      </c>
+      <c r="E307">
+        <v>7.27</v>
+      </c>
+      <c r="F307">
+        <v>230</v>
+      </c>
+      <c r="G307">
+        <v>0</v>
+      </c>
+      <c r="H307">
+        <v>2</v>
+      </c>
+      <c r="I307">
+        <v>5</v>
+      </c>
+      <c r="J307">
+        <v>28</v>
+      </c>
+      <c r="K307">
+        <v>36</v>
+      </c>
+      <c r="L307" t="s">
+        <v>2</v>
+      </c>
+      <c r="M307">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>14</v>
+      </c>
+      <c r="B308" s="1">
+        <v>45503</v>
+      </c>
+      <c r="C308" t="s">
+        <v>25</v>
+      </c>
+      <c r="D308">
+        <v>111</v>
+      </c>
+      <c r="E308">
+        <v>5.3</v>
+      </c>
+      <c r="F308">
+        <v>348</v>
+      </c>
+      <c r="G308">
+        <v>109</v>
+      </c>
+      <c r="H308">
+        <v>2</v>
+      </c>
+      <c r="I308">
+        <v>0</v>
+      </c>
+      <c r="J308">
+        <v>0</v>
+      </c>
+      <c r="K308">
+        <v>0</v>
+      </c>
+      <c r="L308" t="s">
+        <v>13</v>
+      </c>
+      <c r="M308">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>18</v>
+      </c>
+      <c r="B309" s="1">
+        <v>45503</v>
+      </c>
+      <c r="C309" t="s">
+        <v>21</v>
+      </c>
+      <c r="D309">
+        <v>45</v>
+      </c>
+      <c r="E309">
+        <v>13.97</v>
+      </c>
+      <c r="F309">
+        <v>0</v>
+      </c>
+      <c r="G309">
+        <v>7</v>
+      </c>
+      <c r="H309">
+        <v>38</v>
+      </c>
+      <c r="I309">
+        <v>0</v>
+      </c>
+      <c r="J309">
+        <v>0</v>
+      </c>
+      <c r="K309">
+        <v>0</v>
+      </c>
+      <c r="L309" t="s">
+        <v>2</v>
+      </c>
+      <c r="M309">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>19</v>
+      </c>
+      <c r="B310" s="1">
+        <v>45504</v>
+      </c>
+      <c r="C310" t="s">
+        <v>20</v>
+      </c>
+      <c r="D310">
+        <v>54</v>
+      </c>
+      <c r="E310">
+        <v>0</v>
+      </c>
+      <c r="F310">
+        <v>0</v>
+      </c>
+      <c r="G310">
+        <v>48</v>
+      </c>
+      <c r="H310">
+        <v>7</v>
+      </c>
+      <c r="I310">
+        <v>0</v>
+      </c>
+      <c r="J310">
+        <v>0</v>
+      </c>
+      <c r="K310">
+        <v>0</v>
+      </c>
+      <c r="L310" t="s">
+        <v>2</v>
+      </c>
+      <c r="M310">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>24</v>
+      </c>
+      <c r="B311" s="1">
+        <v>45504</v>
+      </c>
+      <c r="C311" t="s">
+        <v>20</v>
+      </c>
+      <c r="D311">
+        <v>85</v>
+      </c>
+      <c r="E311">
+        <v>0</v>
+      </c>
+      <c r="F311">
+        <v>0</v>
+      </c>
+      <c r="G311">
+        <v>51</v>
+      </c>
+      <c r="H311">
+        <v>32</v>
+      </c>
+      <c r="I311">
+        <v>2</v>
+      </c>
+      <c r="J311">
+        <v>0</v>
+      </c>
+      <c r="K311">
+        <v>0</v>
+      </c>
+      <c r="L311" t="s">
+        <v>2</v>
+      </c>
+      <c r="M311">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M212" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
     <filterColumn colId="12">

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2545" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7C4F554-C4E3-46EA-9DB1-1615BD3D2FE5}"/>
+  <xr:revisionPtr revIDLastSave="2623" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23FACB0C-D4DD-4A28-B249-A2786E05EAA0}"/>
   <bookViews>
-    <workbookView xWindow="-19035" yWindow="1845" windowWidth="17280" windowHeight="8970" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
+    <workbookView xWindow="-19035" yWindow="1845" windowWidth="17280" windowHeight="13305" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -500,11 +500,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M311"/>
+  <dimension ref="A1:M317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A300" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A312" sqref="A312"/>
+      <selection pane="bottomLeft" activeCell="A318" sqref="A318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13274,6 +13274,252 @@
         <v>8</v>
       </c>
     </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>24</v>
+      </c>
+      <c r="B312" s="1">
+        <v>45504</v>
+      </c>
+      <c r="C312" t="s">
+        <v>25</v>
+      </c>
+      <c r="D312">
+        <v>18</v>
+      </c>
+      <c r="E312">
+        <v>0.75</v>
+      </c>
+      <c r="F312">
+        <v>26</v>
+      </c>
+      <c r="G312">
+        <v>10</v>
+      </c>
+      <c r="H312">
+        <v>1</v>
+      </c>
+      <c r="I312">
+        <v>0</v>
+      </c>
+      <c r="J312">
+        <v>0</v>
+      </c>
+      <c r="K312">
+        <v>0</v>
+      </c>
+      <c r="L312" t="s">
+        <v>2</v>
+      </c>
+      <c r="M312">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>14</v>
+      </c>
+      <c r="B313" s="1">
+        <v>45504</v>
+      </c>
+      <c r="C313" t="s">
+        <v>25</v>
+      </c>
+      <c r="D313">
+        <v>61</v>
+      </c>
+      <c r="E313">
+        <v>3.57</v>
+      </c>
+      <c r="F313">
+        <v>673</v>
+      </c>
+      <c r="G313">
+        <v>73</v>
+      </c>
+      <c r="H313">
+        <v>8</v>
+      </c>
+      <c r="I313">
+        <v>0</v>
+      </c>
+      <c r="J313">
+        <v>0</v>
+      </c>
+      <c r="K313">
+        <v>0</v>
+      </c>
+      <c r="L313" t="s">
+        <v>13</v>
+      </c>
+      <c r="M313">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>18</v>
+      </c>
+      <c r="B314" s="1">
+        <v>45504</v>
+      </c>
+      <c r="C314" t="s">
+        <v>20</v>
+      </c>
+      <c r="D314">
+        <v>47</v>
+      </c>
+      <c r="E314">
+        <v>0</v>
+      </c>
+      <c r="F314">
+        <v>0</v>
+      </c>
+      <c r="G314">
+        <v>38</v>
+      </c>
+      <c r="H314">
+        <v>9</v>
+      </c>
+      <c r="I314">
+        <v>0</v>
+      </c>
+      <c r="J314">
+        <v>0</v>
+      </c>
+      <c r="K314">
+        <v>0</v>
+      </c>
+      <c r="L314" t="s">
+        <v>2</v>
+      </c>
+      <c r="M314">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>19</v>
+      </c>
+      <c r="B315" s="1">
+        <v>45505</v>
+      </c>
+      <c r="C315" t="s">
+        <v>20</v>
+      </c>
+      <c r="D315">
+        <v>70</v>
+      </c>
+      <c r="E315">
+        <v>0</v>
+      </c>
+      <c r="F315">
+        <v>0</v>
+      </c>
+      <c r="G315">
+        <v>61</v>
+      </c>
+      <c r="H315">
+        <v>9</v>
+      </c>
+      <c r="I315">
+        <v>0</v>
+      </c>
+      <c r="J315">
+        <v>0</v>
+      </c>
+      <c r="K315">
+        <v>0</v>
+      </c>
+      <c r="L315" t="s">
+        <v>2</v>
+      </c>
+      <c r="M315">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>19</v>
+      </c>
+      <c r="B316" s="1">
+        <v>45505</v>
+      </c>
+      <c r="C316" t="s">
+        <v>23</v>
+      </c>
+      <c r="D316">
+        <v>40</v>
+      </c>
+      <c r="E316">
+        <v>4</v>
+      </c>
+      <c r="F316">
+        <v>240</v>
+      </c>
+      <c r="G316">
+        <v>0</v>
+      </c>
+      <c r="H316">
+        <v>18</v>
+      </c>
+      <c r="I316">
+        <v>15</v>
+      </c>
+      <c r="J316">
+        <v>1</v>
+      </c>
+      <c r="K316">
+        <v>0</v>
+      </c>
+      <c r="L316" t="s">
+        <v>2</v>
+      </c>
+      <c r="M316">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>14</v>
+      </c>
+      <c r="B317" s="1">
+        <v>45505</v>
+      </c>
+      <c r="C317" t="s">
+        <v>25</v>
+      </c>
+      <c r="D317">
+        <v>20</v>
+      </c>
+      <c r="E317">
+        <v>0.95</v>
+      </c>
+      <c r="F317">
+        <v>33</v>
+      </c>
+      <c r="G317">
+        <v>20</v>
+      </c>
+      <c r="H317">
+        <v>0</v>
+      </c>
+      <c r="I317">
+        <v>0</v>
+      </c>
+      <c r="J317">
+        <v>0</v>
+      </c>
+      <c r="K317">
+        <v>0</v>
+      </c>
+      <c r="L317" t="s">
+        <v>13</v>
+      </c>
+      <c r="M317">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M212" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
     <filterColumn colId="12">

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2623" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23FACB0C-D4DD-4A28-B249-A2786E05EAA0}"/>
+  <xr:revisionPtr revIDLastSave="2701" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D34BCE3-DC89-4493-B804-ABE227A6E77F}"/>
   <bookViews>
     <workbookView xWindow="-19035" yWindow="1845" windowWidth="17280" windowHeight="13305" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -500,11 +500,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M317"/>
+  <dimension ref="A1:M323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A300" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A318" sqref="A318"/>
+      <selection pane="bottomLeft" activeCell="A324" sqref="A324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13520,6 +13520,252 @@
         <v>8</v>
       </c>
     </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>18</v>
+      </c>
+      <c r="B318" s="1">
+        <v>45505</v>
+      </c>
+      <c r="C318" t="s">
+        <v>23</v>
+      </c>
+      <c r="D318">
+        <v>33</v>
+      </c>
+      <c r="E318">
+        <v>4</v>
+      </c>
+      <c r="F318">
+        <v>256</v>
+      </c>
+      <c r="G318">
+        <v>0</v>
+      </c>
+      <c r="H318">
+        <v>2</v>
+      </c>
+      <c r="I318">
+        <v>9</v>
+      </c>
+      <c r="J318">
+        <v>9</v>
+      </c>
+      <c r="K318">
+        <v>12</v>
+      </c>
+      <c r="L318" t="s">
+        <v>2</v>
+      </c>
+      <c r="M318">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>14</v>
+      </c>
+      <c r="B319" s="1">
+        <v>45505</v>
+      </c>
+      <c r="C319" t="s">
+        <v>25</v>
+      </c>
+      <c r="D319">
+        <v>23</v>
+      </c>
+      <c r="E319">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F319">
+        <v>36</v>
+      </c>
+      <c r="G319">
+        <v>23</v>
+      </c>
+      <c r="H319">
+        <v>0</v>
+      </c>
+      <c r="I319">
+        <v>0</v>
+      </c>
+      <c r="J319">
+        <v>0</v>
+      </c>
+      <c r="K319">
+        <v>0</v>
+      </c>
+      <c r="L319" t="s">
+        <v>13</v>
+      </c>
+      <c r="M319">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>17</v>
+      </c>
+      <c r="B320" s="1">
+        <v>45505</v>
+      </c>
+      <c r="C320" t="s">
+        <v>20</v>
+      </c>
+      <c r="D320">
+        <v>69</v>
+      </c>
+      <c r="E320">
+        <v>0</v>
+      </c>
+      <c r="F320">
+        <v>0</v>
+      </c>
+      <c r="G320">
+        <v>38</v>
+      </c>
+      <c r="H320">
+        <v>21</v>
+      </c>
+      <c r="I320">
+        <v>6</v>
+      </c>
+      <c r="J320">
+        <v>4</v>
+      </c>
+      <c r="K320">
+        <v>0</v>
+      </c>
+      <c r="L320" t="s">
+        <v>27</v>
+      </c>
+      <c r="M320">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>19</v>
+      </c>
+      <c r="B321" s="1">
+        <v>45506</v>
+      </c>
+      <c r="C321" t="s">
+        <v>20</v>
+      </c>
+      <c r="D321">
+        <v>68</v>
+      </c>
+      <c r="E321">
+        <v>0</v>
+      </c>
+      <c r="F321">
+        <v>0</v>
+      </c>
+      <c r="G321">
+        <v>51</v>
+      </c>
+      <c r="H321">
+        <v>17</v>
+      </c>
+      <c r="I321">
+        <v>0</v>
+      </c>
+      <c r="J321">
+        <v>0</v>
+      </c>
+      <c r="K321">
+        <v>0</v>
+      </c>
+      <c r="L321" t="s">
+        <v>2</v>
+      </c>
+      <c r="M321">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>14</v>
+      </c>
+      <c r="B322" s="1">
+        <v>45506</v>
+      </c>
+      <c r="C322" t="s">
+        <v>23</v>
+      </c>
+      <c r="D322">
+        <v>39</v>
+      </c>
+      <c r="E322">
+        <v>3.26</v>
+      </c>
+      <c r="F322">
+        <v>95</v>
+      </c>
+      <c r="G322">
+        <v>18</v>
+      </c>
+      <c r="H322">
+        <v>21</v>
+      </c>
+      <c r="I322">
+        <v>1</v>
+      </c>
+      <c r="J322">
+        <v>0</v>
+      </c>
+      <c r="K322">
+        <v>0</v>
+      </c>
+      <c r="L322" t="s">
+        <v>13</v>
+      </c>
+      <c r="M322">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>24</v>
+      </c>
+      <c r="B323" s="1">
+        <v>45506</v>
+      </c>
+      <c r="C323" t="s">
+        <v>23</v>
+      </c>
+      <c r="D323">
+        <v>77</v>
+      </c>
+      <c r="E323">
+        <v>7.3</v>
+      </c>
+      <c r="F323">
+        <v>223</v>
+      </c>
+      <c r="G323">
+        <v>0</v>
+      </c>
+      <c r="H323">
+        <v>31</v>
+      </c>
+      <c r="I323">
+        <v>43</v>
+      </c>
+      <c r="J323">
+        <v>0</v>
+      </c>
+      <c r="K323">
+        <v>0</v>
+      </c>
+      <c r="L323" t="s">
+        <v>2</v>
+      </c>
+      <c r="M323">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M212" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
     <filterColumn colId="12">

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2701" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D34BCE3-DC89-4493-B804-ABE227A6E77F}"/>
+  <xr:revisionPtr revIDLastSave="2779" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3977B13-0048-42F3-8AA2-B548C01FF3E8}"/>
   <bookViews>
     <workbookView xWindow="-19035" yWindow="1845" windowWidth="17280" windowHeight="13305" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -500,11 +500,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M323"/>
+  <dimension ref="A1:M329"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A300" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A324" sqref="A324"/>
+      <pane ySplit="1" topLeftCell="A301" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A330" sqref="A330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13766,6 +13766,252 @@
         <v>8</v>
       </c>
     </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>18</v>
+      </c>
+      <c r="B324" s="1">
+        <v>45506</v>
+      </c>
+      <c r="C324" t="s">
+        <v>21</v>
+      </c>
+      <c r="D324">
+        <v>78</v>
+      </c>
+      <c r="E324">
+        <v>21.26</v>
+      </c>
+      <c r="F324">
+        <v>1207</v>
+      </c>
+      <c r="G324">
+        <v>3</v>
+      </c>
+      <c r="H324">
+        <v>29</v>
+      </c>
+      <c r="I324">
+        <v>35</v>
+      </c>
+      <c r="J324">
+        <v>8</v>
+      </c>
+      <c r="K324">
+        <v>1</v>
+      </c>
+      <c r="L324" t="s">
+        <v>2</v>
+      </c>
+      <c r="M324">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>14</v>
+      </c>
+      <c r="B325" s="1">
+        <v>45506</v>
+      </c>
+      <c r="C325" t="s">
+        <v>25</v>
+      </c>
+      <c r="D325">
+        <v>28</v>
+      </c>
+      <c r="E325">
+        <v>1.27</v>
+      </c>
+      <c r="F325">
+        <v>56</v>
+      </c>
+      <c r="G325">
+        <v>28</v>
+      </c>
+      <c r="H325">
+        <v>0</v>
+      </c>
+      <c r="I325">
+        <v>0</v>
+      </c>
+      <c r="J325">
+        <v>0</v>
+      </c>
+      <c r="K325">
+        <v>0</v>
+      </c>
+      <c r="L325" t="s">
+        <v>13</v>
+      </c>
+      <c r="M325">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>14</v>
+      </c>
+      <c r="B326" s="1">
+        <v>45506</v>
+      </c>
+      <c r="C326" t="s">
+        <v>25</v>
+      </c>
+      <c r="D326">
+        <v>82</v>
+      </c>
+      <c r="E326">
+        <v>3.63</v>
+      </c>
+      <c r="F326">
+        <v>82</v>
+      </c>
+      <c r="G326">
+        <v>82</v>
+      </c>
+      <c r="H326">
+        <v>0</v>
+      </c>
+      <c r="I326">
+        <v>0</v>
+      </c>
+      <c r="J326">
+        <v>0</v>
+      </c>
+      <c r="K326">
+        <v>0</v>
+      </c>
+      <c r="L326" t="s">
+        <v>13</v>
+      </c>
+      <c r="M326">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>18</v>
+      </c>
+      <c r="B327" s="1">
+        <v>45507</v>
+      </c>
+      <c r="C327" t="s">
+        <v>23</v>
+      </c>
+      <c r="D327">
+        <v>45</v>
+      </c>
+      <c r="E327">
+        <v>4.58</v>
+      </c>
+      <c r="F327">
+        <v>207</v>
+      </c>
+      <c r="G327">
+        <v>1</v>
+      </c>
+      <c r="H327">
+        <v>23</v>
+      </c>
+      <c r="I327">
+        <v>10</v>
+      </c>
+      <c r="J327">
+        <v>8</v>
+      </c>
+      <c r="K327">
+        <v>0</v>
+      </c>
+      <c r="L327" t="s">
+        <v>2</v>
+      </c>
+      <c r="M327">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>18</v>
+      </c>
+      <c r="B328" s="1">
+        <v>45507</v>
+      </c>
+      <c r="C328" t="s">
+        <v>25</v>
+      </c>
+      <c r="D328">
+        <v>3</v>
+      </c>
+      <c r="E328">
+        <v>0.12</v>
+      </c>
+      <c r="F328">
+        <v>13</v>
+      </c>
+      <c r="G328">
+        <v>3</v>
+      </c>
+      <c r="H328">
+        <v>0</v>
+      </c>
+      <c r="I328">
+        <v>0</v>
+      </c>
+      <c r="J328">
+        <v>0</v>
+      </c>
+      <c r="K328">
+        <v>0</v>
+      </c>
+      <c r="L328" t="s">
+        <v>2</v>
+      </c>
+      <c r="M328">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>14</v>
+      </c>
+      <c r="B329" s="1">
+        <v>45507</v>
+      </c>
+      <c r="C329" t="s">
+        <v>25</v>
+      </c>
+      <c r="D329">
+        <v>142</v>
+      </c>
+      <c r="E329">
+        <v>6</v>
+      </c>
+      <c r="F329">
+        <v>472</v>
+      </c>
+      <c r="G329">
+        <v>142</v>
+      </c>
+      <c r="H329">
+        <v>0</v>
+      </c>
+      <c r="I329">
+        <v>0</v>
+      </c>
+      <c r="J329">
+        <v>0</v>
+      </c>
+      <c r="K329">
+        <v>0</v>
+      </c>
+      <c r="L329" t="s">
+        <v>13</v>
+      </c>
+      <c r="M329">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M212" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
     <filterColumn colId="12">

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2779" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3977B13-0048-42F3-8AA2-B548C01FF3E8}"/>
+  <xr:revisionPtr revIDLastSave="2847" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7884983-63AC-474D-B16F-4123BE2C660F}"/>
   <bookViews>
-    <workbookView xWindow="-19035" yWindow="1845" windowWidth="17280" windowHeight="13305" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
+    <workbookView xWindow="-18600" yWindow="2280" windowWidth="17280" windowHeight="13305" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -500,11 +500,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M329"/>
+  <dimension ref="A1:M334"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A301" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A330" sqref="A330"/>
+      <pane ySplit="1" topLeftCell="A319" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G344" sqref="G344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14012,6 +14012,211 @@
         <v>8</v>
       </c>
     </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>19</v>
+      </c>
+      <c r="B330" s="1">
+        <v>45508</v>
+      </c>
+      <c r="C330" t="s">
+        <v>20</v>
+      </c>
+      <c r="D330">
+        <v>47</v>
+      </c>
+      <c r="E330">
+        <v>0</v>
+      </c>
+      <c r="F330">
+        <v>0</v>
+      </c>
+      <c r="G330">
+        <v>47</v>
+      </c>
+      <c r="H330">
+        <v>0</v>
+      </c>
+      <c r="I330">
+        <v>0</v>
+      </c>
+      <c r="J330">
+        <v>0</v>
+      </c>
+      <c r="K330">
+        <v>0</v>
+      </c>
+      <c r="L330" t="s">
+        <v>2</v>
+      </c>
+      <c r="M330">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>18</v>
+      </c>
+      <c r="B331" s="1">
+        <v>45508</v>
+      </c>
+      <c r="C331" t="s">
+        <v>23</v>
+      </c>
+      <c r="D331">
+        <v>47</v>
+      </c>
+      <c r="E331">
+        <v>4.58</v>
+      </c>
+      <c r="F331">
+        <v>262</v>
+      </c>
+      <c r="G331">
+        <v>6</v>
+      </c>
+      <c r="H331">
+        <v>20</v>
+      </c>
+      <c r="I331">
+        <v>17</v>
+      </c>
+      <c r="J331">
+        <v>2</v>
+      </c>
+      <c r="K331">
+        <v>0</v>
+      </c>
+      <c r="L331" t="s">
+        <v>2</v>
+      </c>
+      <c r="M331">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>18</v>
+      </c>
+      <c r="B332" s="1">
+        <v>45508</v>
+      </c>
+      <c r="C332" t="s">
+        <v>25</v>
+      </c>
+      <c r="D332">
+        <v>3</v>
+      </c>
+      <c r="E332">
+        <v>0.15</v>
+      </c>
+      <c r="F332">
+        <v>0</v>
+      </c>
+      <c r="G332">
+        <v>3</v>
+      </c>
+      <c r="H332">
+        <v>0</v>
+      </c>
+      <c r="I332">
+        <v>0</v>
+      </c>
+      <c r="J332">
+        <v>0</v>
+      </c>
+      <c r="K332">
+        <v>0</v>
+      </c>
+      <c r="L332" t="s">
+        <v>2</v>
+      </c>
+      <c r="M332">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>24</v>
+      </c>
+      <c r="B333" s="1">
+        <v>45508</v>
+      </c>
+      <c r="C333" t="s">
+        <v>20</v>
+      </c>
+      <c r="D333">
+        <v>78</v>
+      </c>
+      <c r="E333">
+        <v>0</v>
+      </c>
+      <c r="F333">
+        <v>0</v>
+      </c>
+      <c r="G333">
+        <v>21</v>
+      </c>
+      <c r="H333">
+        <v>46</v>
+      </c>
+      <c r="I333">
+        <v>10</v>
+      </c>
+      <c r="J333">
+        <v>1</v>
+      </c>
+      <c r="K333">
+        <v>0</v>
+      </c>
+      <c r="L333" t="s">
+        <v>2</v>
+      </c>
+      <c r="M333">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>19</v>
+      </c>
+      <c r="B334" s="1">
+        <v>45509</v>
+      </c>
+      <c r="C334" t="s">
+        <v>20</v>
+      </c>
+      <c r="D334">
+        <v>79</v>
+      </c>
+      <c r="E334">
+        <v>0</v>
+      </c>
+      <c r="F334">
+        <v>0</v>
+      </c>
+      <c r="G334">
+        <v>68</v>
+      </c>
+      <c r="H334">
+        <v>6</v>
+      </c>
+      <c r="I334">
+        <v>5</v>
+      </c>
+      <c r="J334">
+        <v>0</v>
+      </c>
+      <c r="K334">
+        <v>0</v>
+      </c>
+      <c r="L334" t="s">
+        <v>27</v>
+      </c>
+      <c r="M334">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M212" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
     <filterColumn colId="12">

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2847" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7884983-63AC-474D-B16F-4123BE2C660F}"/>
+  <xr:revisionPtr revIDLastSave="3044" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E65B7D6E-FB3D-47BF-B663-BDCCE7131909}"/>
   <bookViews>
-    <workbookView xWindow="-18600" yWindow="2280" windowWidth="17280" windowHeight="13305" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$212</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$346</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -499,12 +500,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:M334"/>
+  <dimension ref="A1:M346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A319" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G344" sqref="G344"/>
+      <pane ySplit="1" topLeftCell="A334" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C352" sqref="C352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,7 +564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -605,7 +605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -646,7 +646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -728,7 +728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -769,7 +769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -810,7 +810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -851,7 +851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -892,7 +892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -933,7 +933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -974,7 +974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>18</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>24</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>19</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>18</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>18</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>18</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>18</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>24</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>14</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>24</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>14</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>18</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>14</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>14</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>24</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>17</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>14</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>19</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>18</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>18</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>24</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>14</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>17</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>19</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>24</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>19</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>19</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>19</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>18</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>18</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>14</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>24</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>14</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>24</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>14</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>18</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>19</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>19</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>18</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>14</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>19</v>
       </c>
@@ -4951,7 +4951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>18</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>14</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>14</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>24</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>14</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>18</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>19</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>14</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>14</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>14</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>14</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>17</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>18</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>19</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>14</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>24</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>14</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>17</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>18</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>24</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>18</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>14</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>17</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>17</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>14</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>18</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>18</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>24</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>14</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>17</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>18</v>
       </c>
@@ -6222,7 +6222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>19</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>14</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>14</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>18</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>14</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>18</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>24</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>24</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>19</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>14</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>18</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>19</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>24</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>18</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>18</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>24</v>
       </c>
@@ -6878,7 +6878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>14</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>14</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>19</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>14</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>14</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>14</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>19</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>14</v>
       </c>
@@ -7206,7 +7206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>18</v>
       </c>
@@ -7247,7 +7247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>14</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>14</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>24</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>14</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>19</v>
       </c>
@@ -7452,7 +7452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>19</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>14</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>18</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>14</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>24</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>19</v>
       </c>
@@ -7698,7 +7698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>19</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>24</v>
       </c>
@@ -14184,25 +14184,25 @@
         <v>45509</v>
       </c>
       <c r="C334" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D334">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="E334">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="F334">
         <v>0</v>
       </c>
       <c r="G334">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="H334">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I334">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J334">
         <v>0</v>
@@ -14211,20 +14211,506 @@
         <v>0</v>
       </c>
       <c r="L334" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="M334">
         <v>9</v>
       </c>
     </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>19</v>
+      </c>
+      <c r="B335" s="1">
+        <v>45509</v>
+      </c>
+      <c r="C335" t="s">
+        <v>20</v>
+      </c>
+      <c r="D335">
+        <v>79</v>
+      </c>
+      <c r="E335">
+        <v>0</v>
+      </c>
+      <c r="F335">
+        <v>0</v>
+      </c>
+      <c r="G335">
+        <v>68</v>
+      </c>
+      <c r="H335">
+        <v>6</v>
+      </c>
+      <c r="I335">
+        <v>5</v>
+      </c>
+      <c r="J335">
+        <v>0</v>
+      </c>
+      <c r="K335">
+        <v>0</v>
+      </c>
+      <c r="L335" t="s">
+        <v>2</v>
+      </c>
+      <c r="M335">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>18</v>
+      </c>
+      <c r="B336" s="1">
+        <v>45509</v>
+      </c>
+      <c r="C336" t="s">
+        <v>25</v>
+      </c>
+      <c r="D336">
+        <v>37</v>
+      </c>
+      <c r="E336">
+        <v>1.45</v>
+      </c>
+      <c r="F336">
+        <v>102</v>
+      </c>
+      <c r="G336">
+        <v>37</v>
+      </c>
+      <c r="H336">
+        <v>0</v>
+      </c>
+      <c r="I336">
+        <v>0</v>
+      </c>
+      <c r="J336">
+        <v>0</v>
+      </c>
+      <c r="K336">
+        <v>0</v>
+      </c>
+      <c r="L336" t="s">
+        <v>2</v>
+      </c>
+      <c r="M336">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>18</v>
+      </c>
+      <c r="B337" s="1">
+        <v>45509</v>
+      </c>
+      <c r="C337" t="s">
+        <v>25</v>
+      </c>
+      <c r="D337">
+        <v>11</v>
+      </c>
+      <c r="E337">
+        <v>0.48</v>
+      </c>
+      <c r="F337">
+        <v>26</v>
+      </c>
+      <c r="G337">
+        <v>11</v>
+      </c>
+      <c r="H337">
+        <v>0</v>
+      </c>
+      <c r="I337">
+        <v>0</v>
+      </c>
+      <c r="J337">
+        <v>0</v>
+      </c>
+      <c r="K337">
+        <v>0</v>
+      </c>
+      <c r="L337" t="s">
+        <v>2</v>
+      </c>
+      <c r="M337">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>24</v>
+      </c>
+      <c r="B338" s="1">
+        <v>45509</v>
+      </c>
+      <c r="C338" t="s">
+        <v>20</v>
+      </c>
+      <c r="D338">
+        <v>32</v>
+      </c>
+      <c r="E338">
+        <v>0</v>
+      </c>
+      <c r="F338">
+        <v>0</v>
+      </c>
+      <c r="G338">
+        <v>3</v>
+      </c>
+      <c r="H338">
+        <v>4</v>
+      </c>
+      <c r="I338">
+        <v>12</v>
+      </c>
+      <c r="J338">
+        <v>13</v>
+      </c>
+      <c r="K338">
+        <v>0</v>
+      </c>
+      <c r="L338" t="s">
+        <v>26</v>
+      </c>
+      <c r="M338">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>18</v>
+      </c>
+      <c r="B339" s="1">
+        <v>45510</v>
+      </c>
+      <c r="C339" t="s">
+        <v>23</v>
+      </c>
+      <c r="D339">
+        <v>13</v>
+      </c>
+      <c r="E339">
+        <v>1.26</v>
+      </c>
+      <c r="F339">
+        <v>125</v>
+      </c>
+      <c r="G339">
+        <v>1</v>
+      </c>
+      <c r="H339">
+        <v>8</v>
+      </c>
+      <c r="I339">
+        <v>0</v>
+      </c>
+      <c r="J339">
+        <v>0</v>
+      </c>
+      <c r="K339">
+        <v>0</v>
+      </c>
+      <c r="L339" t="s">
+        <v>2</v>
+      </c>
+      <c r="M339">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>18</v>
+      </c>
+      <c r="B340" s="1">
+        <v>45510</v>
+      </c>
+      <c r="C340" t="s">
+        <v>23</v>
+      </c>
+      <c r="D340">
+        <v>25</v>
+      </c>
+      <c r="E340">
+        <v>1.85</v>
+      </c>
+      <c r="F340">
+        <v>325</v>
+      </c>
+      <c r="G340">
+        <v>2</v>
+      </c>
+      <c r="H340">
+        <v>0</v>
+      </c>
+      <c r="I340">
+        <v>0</v>
+      </c>
+      <c r="J340">
+        <v>0</v>
+      </c>
+      <c r="K340">
+        <v>0</v>
+      </c>
+      <c r="L340" t="s">
+        <v>2</v>
+      </c>
+      <c r="M340">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>14</v>
+      </c>
+      <c r="B341" s="1">
+        <v>45510</v>
+      </c>
+      <c r="C341" t="s">
+        <v>25</v>
+      </c>
+      <c r="D341">
+        <v>29</v>
+      </c>
+      <c r="E341">
+        <v>1.59</v>
+      </c>
+      <c r="F341">
+        <v>66</v>
+      </c>
+      <c r="G341">
+        <v>29</v>
+      </c>
+      <c r="H341">
+        <v>0</v>
+      </c>
+      <c r="I341">
+        <v>0</v>
+      </c>
+      <c r="J341">
+        <v>0</v>
+      </c>
+      <c r="K341">
+        <v>0</v>
+      </c>
+      <c r="L341" t="s">
+        <v>13</v>
+      </c>
+      <c r="M341">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>14</v>
+      </c>
+      <c r="B342" s="1">
+        <v>45510</v>
+      </c>
+      <c r="C342" t="s">
+        <v>25</v>
+      </c>
+      <c r="D342">
+        <v>98</v>
+      </c>
+      <c r="E342">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="F342">
+        <v>505</v>
+      </c>
+      <c r="G342">
+        <v>93</v>
+      </c>
+      <c r="H342">
+        <v>6</v>
+      </c>
+      <c r="I342">
+        <v>0</v>
+      </c>
+      <c r="J342">
+        <v>0</v>
+      </c>
+      <c r="K342">
+        <v>0</v>
+      </c>
+      <c r="L342" t="s">
+        <v>13</v>
+      </c>
+      <c r="M342">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>24</v>
+      </c>
+      <c r="B343" s="1">
+        <v>45510</v>
+      </c>
+      <c r="C343" t="s">
+        <v>20</v>
+      </c>
+      <c r="D343">
+        <v>70</v>
+      </c>
+      <c r="E343">
+        <v>0</v>
+      </c>
+      <c r="F343">
+        <v>0</v>
+      </c>
+      <c r="G343">
+        <v>51</v>
+      </c>
+      <c r="H343">
+        <v>19</v>
+      </c>
+      <c r="I343">
+        <v>0</v>
+      </c>
+      <c r="J343">
+        <v>0</v>
+      </c>
+      <c r="K343">
+        <v>0</v>
+      </c>
+      <c r="L343" t="s">
+        <v>26</v>
+      </c>
+      <c r="M343">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>24</v>
+      </c>
+      <c r="B344" s="1">
+        <v>45511</v>
+      </c>
+      <c r="C344" t="s">
+        <v>20</v>
+      </c>
+      <c r="D344">
+        <v>64</v>
+      </c>
+      <c r="E344">
+        <v>0</v>
+      </c>
+      <c r="F344">
+        <v>0</v>
+      </c>
+      <c r="G344">
+        <v>59</v>
+      </c>
+      <c r="H344">
+        <v>5</v>
+      </c>
+      <c r="I344">
+        <v>0</v>
+      </c>
+      <c r="J344">
+        <v>0</v>
+      </c>
+      <c r="K344">
+        <v>0</v>
+      </c>
+      <c r="L344" t="s">
+        <v>26</v>
+      </c>
+      <c r="M344">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>19</v>
+      </c>
+      <c r="B345" s="1">
+        <v>45511</v>
+      </c>
+      <c r="C345" t="s">
+        <v>20</v>
+      </c>
+      <c r="D345">
+        <v>57</v>
+      </c>
+      <c r="E345">
+        <v>0</v>
+      </c>
+      <c r="F345">
+        <v>0</v>
+      </c>
+      <c r="G345">
+        <v>55</v>
+      </c>
+      <c r="H345">
+        <v>1</v>
+      </c>
+      <c r="I345">
+        <v>0</v>
+      </c>
+      <c r="J345">
+        <v>0</v>
+      </c>
+      <c r="K345">
+        <v>0</v>
+      </c>
+      <c r="L345" t="s">
+        <v>2</v>
+      </c>
+      <c r="M345">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>14</v>
+      </c>
+      <c r="B346" s="1">
+        <v>45511</v>
+      </c>
+      <c r="C346" t="s">
+        <v>25</v>
+      </c>
+      <c r="D346">
+        <v>143</v>
+      </c>
+      <c r="E346">
+        <v>2.93</v>
+      </c>
+      <c r="F346">
+        <v>0</v>
+      </c>
+      <c r="G346">
+        <v>62</v>
+      </c>
+      <c r="H346">
+        <v>7</v>
+      </c>
+      <c r="I346">
+        <v>0</v>
+      </c>
+      <c r="J346">
+        <v>0</v>
+      </c>
+      <c r="K346">
+        <v>0</v>
+      </c>
+      <c r="L346" t="s">
+        <v>13</v>
+      </c>
+      <c r="M346">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M212" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-    <filterColumn colId="12">
-      <filters>
-        <filter val="5"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:M346" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3044" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E65B7D6E-FB3D-47BF-B663-BDCCE7131909}"/>
+  <xr:revisionPtr revIDLastSave="3148" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58C9AA60-4694-42DF-A681-893AF1909F65}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$346</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -500,11 +499,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:M346"/>
+  <dimension ref="A1:M354"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A334" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C352" sqref="C352"/>
+      <selection pane="bottomLeft" activeCell="A355" sqref="A355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14709,6 +14708,334 @@
         <v>9</v>
       </c>
     </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>14</v>
+      </c>
+      <c r="B347" s="1">
+        <v>45511</v>
+      </c>
+      <c r="C347" t="s">
+        <v>25</v>
+      </c>
+      <c r="D347">
+        <v>17</v>
+      </c>
+      <c r="E347">
+        <v>0.83</v>
+      </c>
+      <c r="F347">
+        <v>33</v>
+      </c>
+      <c r="G347">
+        <v>17</v>
+      </c>
+      <c r="H347">
+        <v>0</v>
+      </c>
+      <c r="I347">
+        <v>0</v>
+      </c>
+      <c r="J347">
+        <v>0</v>
+      </c>
+      <c r="K347">
+        <v>0</v>
+      </c>
+      <c r="L347" t="s">
+        <v>13</v>
+      </c>
+      <c r="M347">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>14</v>
+      </c>
+      <c r="B348" s="1">
+        <v>45511</v>
+      </c>
+      <c r="C348" t="s">
+        <v>25</v>
+      </c>
+      <c r="D348">
+        <v>72</v>
+      </c>
+      <c r="E348">
+        <v>3.5</v>
+      </c>
+      <c r="F348">
+        <v>285</v>
+      </c>
+      <c r="G348">
+        <v>65</v>
+      </c>
+      <c r="H348">
+        <v>7</v>
+      </c>
+      <c r="I348">
+        <v>0</v>
+      </c>
+      <c r="J348">
+        <v>0</v>
+      </c>
+      <c r="K348">
+        <v>0</v>
+      </c>
+      <c r="L348" t="s">
+        <v>13</v>
+      </c>
+      <c r="M348">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>14</v>
+      </c>
+      <c r="B349" s="1">
+        <v>45512</v>
+      </c>
+      <c r="C349" t="s">
+        <v>25</v>
+      </c>
+      <c r="D349">
+        <v>28</v>
+      </c>
+      <c r="E349">
+        <v>1.47</v>
+      </c>
+      <c r="F349">
+        <v>39</v>
+      </c>
+      <c r="G349">
+        <v>28</v>
+      </c>
+      <c r="H349">
+        <v>0</v>
+      </c>
+      <c r="I349">
+        <v>0</v>
+      </c>
+      <c r="J349">
+        <v>0</v>
+      </c>
+      <c r="K349">
+        <v>0</v>
+      </c>
+      <c r="L349" t="s">
+        <v>13</v>
+      </c>
+      <c r="M349">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>24</v>
+      </c>
+      <c r="B350" s="1">
+        <v>45512</v>
+      </c>
+      <c r="C350" t="s">
+        <v>20</v>
+      </c>
+      <c r="D350">
+        <v>36</v>
+      </c>
+      <c r="E350">
+        <v>0</v>
+      </c>
+      <c r="F350">
+        <v>0</v>
+      </c>
+      <c r="G350">
+        <v>34</v>
+      </c>
+      <c r="H350">
+        <v>2</v>
+      </c>
+      <c r="I350">
+        <v>0</v>
+      </c>
+      <c r="J350">
+        <v>0</v>
+      </c>
+      <c r="K350">
+        <v>0</v>
+      </c>
+      <c r="L350" t="s">
+        <v>26</v>
+      </c>
+      <c r="M350">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>18</v>
+      </c>
+      <c r="B351" s="1">
+        <v>45512</v>
+      </c>
+      <c r="C351" t="s">
+        <v>20</v>
+      </c>
+      <c r="D351">
+        <v>20</v>
+      </c>
+      <c r="E351">
+        <v>0.95</v>
+      </c>
+      <c r="F351">
+        <v>0</v>
+      </c>
+      <c r="G351">
+        <v>8</v>
+      </c>
+      <c r="H351">
+        <v>4</v>
+      </c>
+      <c r="I351">
+        <v>2</v>
+      </c>
+      <c r="J351">
+        <v>1</v>
+      </c>
+      <c r="K351">
+        <v>6</v>
+      </c>
+      <c r="L351" t="s">
+        <v>2</v>
+      </c>
+      <c r="M351">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>14</v>
+      </c>
+      <c r="B352" s="1">
+        <v>45512</v>
+      </c>
+      <c r="C352" t="s">
+        <v>25</v>
+      </c>
+      <c r="D352">
+        <v>18</v>
+      </c>
+      <c r="E352">
+        <v>0.95</v>
+      </c>
+      <c r="F352">
+        <v>30</v>
+      </c>
+      <c r="G352">
+        <v>18</v>
+      </c>
+      <c r="H352">
+        <v>0</v>
+      </c>
+      <c r="I352">
+        <v>0</v>
+      </c>
+      <c r="J352">
+        <v>0</v>
+      </c>
+      <c r="K352">
+        <v>0</v>
+      </c>
+      <c r="L352" t="s">
+        <v>13</v>
+      </c>
+      <c r="M352">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>17</v>
+      </c>
+      <c r="B353" s="1">
+        <v>45512</v>
+      </c>
+      <c r="C353" t="s">
+        <v>20</v>
+      </c>
+      <c r="D353">
+        <v>62</v>
+      </c>
+      <c r="E353">
+        <v>0</v>
+      </c>
+      <c r="F353">
+        <v>0</v>
+      </c>
+      <c r="G353">
+        <v>21</v>
+      </c>
+      <c r="H353">
+        <v>22</v>
+      </c>
+      <c r="I353">
+        <v>6</v>
+      </c>
+      <c r="J353">
+        <v>13</v>
+      </c>
+      <c r="K353">
+        <v>0</v>
+      </c>
+      <c r="L353" t="s">
+        <v>27</v>
+      </c>
+      <c r="M353">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>18</v>
+      </c>
+      <c r="B354" s="1">
+        <v>45512</v>
+      </c>
+      <c r="C354" t="s">
+        <v>20</v>
+      </c>
+      <c r="D354">
+        <v>32</v>
+      </c>
+      <c r="E354">
+        <v>0</v>
+      </c>
+      <c r="F354">
+        <v>0</v>
+      </c>
+      <c r="G354">
+        <v>27</v>
+      </c>
+      <c r="H354">
+        <v>6</v>
+      </c>
+      <c r="I354">
+        <v>0</v>
+      </c>
+      <c r="J354">
+        <v>0</v>
+      </c>
+      <c r="K354">
+        <v>0</v>
+      </c>
+      <c r="L354" t="s">
+        <v>2</v>
+      </c>
+      <c r="M354">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M346" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3148" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58C9AA60-4694-42DF-A681-893AF1909F65}"/>
+  <xr:revisionPtr revIDLastSave="3267" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{530B5F44-A374-433C-A03F-51428B9E4960}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -499,11 +499,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:M354"/>
+  <dimension ref="A1:M363"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A334" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A355" sqref="A355"/>
+      <pane ySplit="1" topLeftCell="A339" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A364" sqref="A364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15036,6 +15036,375 @@
         <v>9</v>
       </c>
     </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>17</v>
+      </c>
+      <c r="B355" s="1">
+        <v>45513</v>
+      </c>
+      <c r="C355" t="s">
+        <v>23</v>
+      </c>
+      <c r="D355">
+        <v>18</v>
+      </c>
+      <c r="E355">
+        <v>2.25</v>
+      </c>
+      <c r="F355">
+        <v>125</v>
+      </c>
+      <c r="G355">
+        <v>0</v>
+      </c>
+      <c r="H355">
+        <v>2</v>
+      </c>
+      <c r="I355">
+        <v>5</v>
+      </c>
+      <c r="J355">
+        <v>9</v>
+      </c>
+      <c r="K355">
+        <v>0</v>
+      </c>
+      <c r="L355" t="s">
+        <v>27</v>
+      </c>
+      <c r="M355">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>17</v>
+      </c>
+      <c r="B356" s="1">
+        <v>45513</v>
+      </c>
+      <c r="C356" t="s">
+        <v>20</v>
+      </c>
+      <c r="D356">
+        <v>58</v>
+      </c>
+      <c r="E356">
+        <v>0</v>
+      </c>
+      <c r="F356">
+        <v>0</v>
+      </c>
+      <c r="G356">
+        <v>35</v>
+      </c>
+      <c r="H356">
+        <v>22</v>
+      </c>
+      <c r="I356">
+        <v>0</v>
+      </c>
+      <c r="J356">
+        <v>0</v>
+      </c>
+      <c r="K356">
+        <v>0</v>
+      </c>
+      <c r="L356" t="s">
+        <v>27</v>
+      </c>
+      <c r="M356">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>18</v>
+      </c>
+      <c r="B357" s="1">
+        <v>45513</v>
+      </c>
+      <c r="C357" t="s">
+        <v>21</v>
+      </c>
+      <c r="D357">
+        <v>42</v>
+      </c>
+      <c r="E357">
+        <v>12.67</v>
+      </c>
+      <c r="F357">
+        <v>0</v>
+      </c>
+      <c r="G357">
+        <v>13</v>
+      </c>
+      <c r="H357">
+        <v>30</v>
+      </c>
+      <c r="I357">
+        <v>0</v>
+      </c>
+      <c r="J357">
+        <v>0</v>
+      </c>
+      <c r="K357">
+        <v>0</v>
+      </c>
+      <c r="L357" t="s">
+        <v>2</v>
+      </c>
+      <c r="M357">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>19</v>
+      </c>
+      <c r="B358" s="1">
+        <v>45514</v>
+      </c>
+      <c r="C358" t="s">
+        <v>20</v>
+      </c>
+      <c r="D358">
+        <v>33</v>
+      </c>
+      <c r="E358">
+        <v>0</v>
+      </c>
+      <c r="F358">
+        <v>0</v>
+      </c>
+      <c r="G358">
+        <v>11</v>
+      </c>
+      <c r="H358">
+        <v>16</v>
+      </c>
+      <c r="I358">
+        <v>6</v>
+      </c>
+      <c r="J358">
+        <v>0</v>
+      </c>
+      <c r="K358">
+        <v>0</v>
+      </c>
+      <c r="L358" t="s">
+        <v>2</v>
+      </c>
+      <c r="M358">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>18</v>
+      </c>
+      <c r="B359" s="1">
+        <v>45514</v>
+      </c>
+      <c r="C359" t="s">
+        <v>23</v>
+      </c>
+      <c r="D359">
+        <v>50</v>
+      </c>
+      <c r="E359">
+        <v>4.76</v>
+      </c>
+      <c r="F359">
+        <v>203</v>
+      </c>
+      <c r="G359">
+        <v>1</v>
+      </c>
+      <c r="H359">
+        <v>19</v>
+      </c>
+      <c r="I359">
+        <v>17</v>
+      </c>
+      <c r="J359">
+        <v>9</v>
+      </c>
+      <c r="K359">
+        <v>1</v>
+      </c>
+      <c r="L359" t="s">
+        <v>2</v>
+      </c>
+      <c r="M359">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>24</v>
+      </c>
+      <c r="B360" s="1">
+        <v>45514</v>
+      </c>
+      <c r="C360" t="s">
+        <v>23</v>
+      </c>
+      <c r="D360">
+        <v>12</v>
+      </c>
+      <c r="E360">
+        <v>1.26</v>
+      </c>
+      <c r="F360">
+        <v>46</v>
+      </c>
+      <c r="G360">
+        <v>0</v>
+      </c>
+      <c r="H360">
+        <v>7</v>
+      </c>
+      <c r="I360">
+        <v>0</v>
+      </c>
+      <c r="J360">
+        <v>0</v>
+      </c>
+      <c r="K360">
+        <v>0</v>
+      </c>
+      <c r="L360" t="s">
+        <v>26</v>
+      </c>
+      <c r="M360">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>24</v>
+      </c>
+      <c r="B361" s="1">
+        <v>45514</v>
+      </c>
+      <c r="C361" t="s">
+        <v>20</v>
+      </c>
+      <c r="D361">
+        <v>48</v>
+      </c>
+      <c r="E361">
+        <v>0</v>
+      </c>
+      <c r="F361">
+        <v>0</v>
+      </c>
+      <c r="G361">
+        <v>13</v>
+      </c>
+      <c r="H361">
+        <v>13</v>
+      </c>
+      <c r="I361">
+        <v>18</v>
+      </c>
+      <c r="J361">
+        <v>4</v>
+      </c>
+      <c r="K361">
+        <v>0</v>
+      </c>
+      <c r="L361" t="s">
+        <v>26</v>
+      </c>
+      <c r="M361">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>18</v>
+      </c>
+      <c r="B362" s="1">
+        <v>45514</v>
+      </c>
+      <c r="C362" t="s">
+        <v>25</v>
+      </c>
+      <c r="D362">
+        <v>23</v>
+      </c>
+      <c r="E362">
+        <v>1.03</v>
+      </c>
+      <c r="F362">
+        <v>85</v>
+      </c>
+      <c r="G362">
+        <v>16</v>
+      </c>
+      <c r="H362">
+        <v>0</v>
+      </c>
+      <c r="I362">
+        <v>0</v>
+      </c>
+      <c r="J362">
+        <v>0</v>
+      </c>
+      <c r="K362">
+        <v>0</v>
+      </c>
+      <c r="L362" t="s">
+        <v>2</v>
+      </c>
+      <c r="M362">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>14</v>
+      </c>
+      <c r="B363" s="1">
+        <v>45514</v>
+      </c>
+      <c r="C363" t="s">
+        <v>25</v>
+      </c>
+      <c r="D363">
+        <v>36</v>
+      </c>
+      <c r="E363">
+        <v>1.8</v>
+      </c>
+      <c r="F363">
+        <v>79</v>
+      </c>
+      <c r="G363">
+        <v>36</v>
+      </c>
+      <c r="H363">
+        <v>0</v>
+      </c>
+      <c r="I363">
+        <v>0</v>
+      </c>
+      <c r="J363">
+        <v>0</v>
+      </c>
+      <c r="K363">
+        <v>0</v>
+      </c>
+      <c r="L363" t="s">
+        <v>13</v>
+      </c>
+      <c r="M363">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M346" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3267" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{530B5F44-A374-433C-A03F-51428B9E4960}"/>
+  <xr:revisionPtr revIDLastSave="3346" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7053F77-C9F3-4412-963C-3252A9556E5F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -499,11 +499,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:M363"/>
+  <dimension ref="A1:M369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A339" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A364" sqref="A364"/>
+      <pane ySplit="1" topLeftCell="A348" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M369" sqref="M369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15405,6 +15405,252 @@
         <v>9</v>
       </c>
     </row>
+    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>18</v>
+      </c>
+      <c r="B364" s="1">
+        <v>45515</v>
+      </c>
+      <c r="C364" t="s">
+        <v>21</v>
+      </c>
+      <c r="D364">
+        <v>65</v>
+      </c>
+      <c r="E364">
+        <v>13.68</v>
+      </c>
+      <c r="F364">
+        <v>344</v>
+      </c>
+      <c r="G364">
+        <v>11</v>
+      </c>
+      <c r="H364">
+        <v>31</v>
+      </c>
+      <c r="I364">
+        <v>17</v>
+      </c>
+      <c r="J364">
+        <v>3</v>
+      </c>
+      <c r="K364">
+        <v>0</v>
+      </c>
+      <c r="L364" t="s">
+        <v>2</v>
+      </c>
+      <c r="M364">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>24</v>
+      </c>
+      <c r="B365" s="1">
+        <v>45515</v>
+      </c>
+      <c r="C365" t="s">
+        <v>20</v>
+      </c>
+      <c r="D365">
+        <v>92</v>
+      </c>
+      <c r="E365">
+        <v>0</v>
+      </c>
+      <c r="F365">
+        <v>0</v>
+      </c>
+      <c r="G365">
+        <v>38</v>
+      </c>
+      <c r="H365">
+        <v>48</v>
+      </c>
+      <c r="I365">
+        <v>5</v>
+      </c>
+      <c r="J365">
+        <v>1</v>
+      </c>
+      <c r="K365">
+        <v>0</v>
+      </c>
+      <c r="L365" t="s">
+        <v>26</v>
+      </c>
+      <c r="M365">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>14</v>
+      </c>
+      <c r="B366" s="1">
+        <v>45515</v>
+      </c>
+      <c r="C366" t="s">
+        <v>25</v>
+      </c>
+      <c r="D366">
+        <v>32</v>
+      </c>
+      <c r="E366">
+        <v>1.58</v>
+      </c>
+      <c r="F366">
+        <v>161</v>
+      </c>
+      <c r="G366">
+        <v>32</v>
+      </c>
+      <c r="H366">
+        <v>0</v>
+      </c>
+      <c r="I366">
+        <v>0</v>
+      </c>
+      <c r="J366">
+        <v>0</v>
+      </c>
+      <c r="K366">
+        <v>0</v>
+      </c>
+      <c r="L366" t="s">
+        <v>13</v>
+      </c>
+      <c r="M366">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="367" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>14</v>
+      </c>
+      <c r="B367" s="1">
+        <v>45515</v>
+      </c>
+      <c r="C367" t="s">
+        <v>25</v>
+      </c>
+      <c r="D367">
+        <v>13</v>
+      </c>
+      <c r="E367">
+        <v>0.77</v>
+      </c>
+      <c r="F367">
+        <v>36</v>
+      </c>
+      <c r="G367">
+        <v>13</v>
+      </c>
+      <c r="H367">
+        <v>0</v>
+      </c>
+      <c r="I367">
+        <v>0</v>
+      </c>
+      <c r="J367">
+        <v>0</v>
+      </c>
+      <c r="K367">
+        <v>0</v>
+      </c>
+      <c r="L367" t="s">
+        <v>13</v>
+      </c>
+      <c r="M367">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>14</v>
+      </c>
+      <c r="B368" s="1">
+        <v>45516</v>
+      </c>
+      <c r="C368" t="s">
+        <v>25</v>
+      </c>
+      <c r="D368">
+        <v>23</v>
+      </c>
+      <c r="E368">
+        <v>1.2</v>
+      </c>
+      <c r="F368">
+        <v>108</v>
+      </c>
+      <c r="G368">
+        <v>23</v>
+      </c>
+      <c r="H368">
+        <v>0</v>
+      </c>
+      <c r="I368">
+        <v>0</v>
+      </c>
+      <c r="J368">
+        <v>0</v>
+      </c>
+      <c r="K368">
+        <v>0</v>
+      </c>
+      <c r="L368" t="s">
+        <v>13</v>
+      </c>
+      <c r="M368">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="369" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>18</v>
+      </c>
+      <c r="B369" s="1">
+        <v>45516</v>
+      </c>
+      <c r="C369" t="s">
+        <v>25</v>
+      </c>
+      <c r="D369">
+        <v>10</v>
+      </c>
+      <c r="E369">
+        <v>0.48</v>
+      </c>
+      <c r="F369">
+        <v>0</v>
+      </c>
+      <c r="G369">
+        <v>10</v>
+      </c>
+      <c r="H369">
+        <v>0</v>
+      </c>
+      <c r="I369">
+        <v>0</v>
+      </c>
+      <c r="J369">
+        <v>0</v>
+      </c>
+      <c r="K369">
+        <v>0</v>
+      </c>
+      <c r="L369" t="s">
+        <v>2</v>
+      </c>
+      <c r="M369">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M346" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3346" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7053F77-C9F3-4412-963C-3252A9556E5F}"/>
+  <xr:revisionPtr revIDLastSave="3476" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD5D63D7-C7D8-48F9-A560-67AFAA0DD688}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -499,11 +499,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:M369"/>
+  <dimension ref="A1:M379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A348" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M369" sqref="M369"/>
+      <pane ySplit="1" topLeftCell="A361" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M379" sqref="M379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15651,6 +15651,416 @@
         <v>10</v>
       </c>
     </row>
+    <row r="370" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>18</v>
+      </c>
+      <c r="B370" s="1">
+        <v>45516</v>
+      </c>
+      <c r="C370" t="s">
+        <v>20</v>
+      </c>
+      <c r="D370">
+        <v>36</v>
+      </c>
+      <c r="E370">
+        <v>0</v>
+      </c>
+      <c r="F370">
+        <v>0</v>
+      </c>
+      <c r="G370">
+        <v>12</v>
+      </c>
+      <c r="H370">
+        <v>17</v>
+      </c>
+      <c r="I370">
+        <v>5</v>
+      </c>
+      <c r="J370">
+        <v>2</v>
+      </c>
+      <c r="K370">
+        <v>0</v>
+      </c>
+      <c r="L370" t="s">
+        <v>2</v>
+      </c>
+      <c r="M370">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>14</v>
+      </c>
+      <c r="B371" s="1">
+        <v>45516</v>
+      </c>
+      <c r="C371" t="s">
+        <v>20</v>
+      </c>
+      <c r="D371">
+        <v>25</v>
+      </c>
+      <c r="E371">
+        <v>0</v>
+      </c>
+      <c r="F371">
+        <v>0</v>
+      </c>
+      <c r="G371">
+        <v>21</v>
+      </c>
+      <c r="H371">
+        <v>3</v>
+      </c>
+      <c r="I371">
+        <v>1</v>
+      </c>
+      <c r="J371">
+        <v>0</v>
+      </c>
+      <c r="K371">
+        <v>0</v>
+      </c>
+      <c r="L371" t="s">
+        <v>13</v>
+      </c>
+      <c r="M371">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>14</v>
+      </c>
+      <c r="B372" s="1">
+        <v>45516</v>
+      </c>
+      <c r="C372" t="s">
+        <v>25</v>
+      </c>
+      <c r="D372">
+        <v>35</v>
+      </c>
+      <c r="E372">
+        <v>1.72</v>
+      </c>
+      <c r="F372">
+        <v>105</v>
+      </c>
+      <c r="G372">
+        <v>35</v>
+      </c>
+      <c r="H372">
+        <v>0</v>
+      </c>
+      <c r="I372">
+        <v>0</v>
+      </c>
+      <c r="J372">
+        <v>0</v>
+      </c>
+      <c r="K372">
+        <v>0</v>
+      </c>
+      <c r="L372" t="s">
+        <v>13</v>
+      </c>
+      <c r="M372">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="373" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>18</v>
+      </c>
+      <c r="B373" s="1">
+        <v>45517</v>
+      </c>
+      <c r="C373" t="s">
+        <v>23</v>
+      </c>
+      <c r="D373">
+        <v>27</v>
+      </c>
+      <c r="E373">
+        <v>3.21</v>
+      </c>
+      <c r="F373">
+        <v>240</v>
+      </c>
+      <c r="G373">
+        <v>0</v>
+      </c>
+      <c r="H373">
+        <v>1</v>
+      </c>
+      <c r="I373">
+        <v>6</v>
+      </c>
+      <c r="J373">
+        <v>16</v>
+      </c>
+      <c r="K373">
+        <v>2</v>
+      </c>
+      <c r="L373" t="s">
+        <v>2</v>
+      </c>
+      <c r="M373">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="374" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>18</v>
+      </c>
+      <c r="B374" s="1">
+        <v>45517</v>
+      </c>
+      <c r="C374" t="s">
+        <v>25</v>
+      </c>
+      <c r="D374">
+        <v>1</v>
+      </c>
+      <c r="E374">
+        <v>0.06</v>
+      </c>
+      <c r="F374">
+        <v>0</v>
+      </c>
+      <c r="G374">
+        <v>1</v>
+      </c>
+      <c r="H374">
+        <v>0</v>
+      </c>
+      <c r="I374">
+        <v>0</v>
+      </c>
+      <c r="J374">
+        <v>0</v>
+      </c>
+      <c r="K374">
+        <v>0</v>
+      </c>
+      <c r="L374" t="s">
+        <v>2</v>
+      </c>
+      <c r="M374">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="375" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>14</v>
+      </c>
+      <c r="B375" s="1">
+        <v>45517</v>
+      </c>
+      <c r="C375" t="s">
+        <v>20</v>
+      </c>
+      <c r="D375">
+        <v>15</v>
+      </c>
+      <c r="E375">
+        <v>0</v>
+      </c>
+      <c r="F375">
+        <v>0</v>
+      </c>
+      <c r="G375">
+        <v>15</v>
+      </c>
+      <c r="H375">
+        <v>0</v>
+      </c>
+      <c r="I375">
+        <v>0</v>
+      </c>
+      <c r="J375">
+        <v>0</v>
+      </c>
+      <c r="K375">
+        <v>0</v>
+      </c>
+      <c r="L375" t="s">
+        <v>13</v>
+      </c>
+      <c r="M375">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>14</v>
+      </c>
+      <c r="B376" s="1">
+        <v>45517</v>
+      </c>
+      <c r="C376" t="s">
+        <v>25</v>
+      </c>
+      <c r="D376">
+        <v>18</v>
+      </c>
+      <c r="E376">
+        <v>0.96</v>
+      </c>
+      <c r="F376">
+        <v>98</v>
+      </c>
+      <c r="G376">
+        <v>15</v>
+      </c>
+      <c r="H376">
+        <v>3</v>
+      </c>
+      <c r="I376">
+        <v>0</v>
+      </c>
+      <c r="J376">
+        <v>0</v>
+      </c>
+      <c r="K376">
+        <v>0</v>
+      </c>
+      <c r="L376" t="s">
+        <v>13</v>
+      </c>
+      <c r="M376">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="377" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>24</v>
+      </c>
+      <c r="B377" s="1">
+        <v>45517</v>
+      </c>
+      <c r="C377" t="s">
+        <v>23</v>
+      </c>
+      <c r="D377">
+        <v>44</v>
+      </c>
+      <c r="E377">
+        <v>3.86</v>
+      </c>
+      <c r="F377">
+        <v>131</v>
+      </c>
+      <c r="G377">
+        <v>0</v>
+      </c>
+      <c r="H377">
+        <v>14</v>
+      </c>
+      <c r="I377">
+        <v>24</v>
+      </c>
+      <c r="J377">
+        <v>0</v>
+      </c>
+      <c r="K377">
+        <v>0</v>
+      </c>
+      <c r="L377" t="s">
+        <v>27</v>
+      </c>
+      <c r="M377">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>14</v>
+      </c>
+      <c r="B378" s="1">
+        <v>45517</v>
+      </c>
+      <c r="C378" t="s">
+        <v>20</v>
+      </c>
+      <c r="D378">
+        <v>33</v>
+      </c>
+      <c r="E378">
+        <v>0</v>
+      </c>
+      <c r="F378">
+        <v>0</v>
+      </c>
+      <c r="G378">
+        <v>14</v>
+      </c>
+      <c r="H378">
+        <v>17</v>
+      </c>
+      <c r="I378">
+        <v>2</v>
+      </c>
+      <c r="J378">
+        <v>0</v>
+      </c>
+      <c r="K378">
+        <v>0</v>
+      </c>
+      <c r="L378" t="s">
+        <v>13</v>
+      </c>
+      <c r="M378">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>14</v>
+      </c>
+      <c r="B379" s="1">
+        <v>45517</v>
+      </c>
+      <c r="C379" t="s">
+        <v>25</v>
+      </c>
+      <c r="D379">
+        <v>35</v>
+      </c>
+      <c r="E379">
+        <v>1.76</v>
+      </c>
+      <c r="F379">
+        <v>157</v>
+      </c>
+      <c r="G379">
+        <v>34</v>
+      </c>
+      <c r="H379">
+        <v>1</v>
+      </c>
+      <c r="I379">
+        <v>0</v>
+      </c>
+      <c r="J379">
+        <v>0</v>
+      </c>
+      <c r="K379">
+        <v>0</v>
+      </c>
+      <c r="L379" t="s">
+        <v>13</v>
+      </c>
+      <c r="M379">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M346" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3476" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD5D63D7-C7D8-48F9-A560-67AFAA0DD688}"/>
+  <xr:revisionPtr revIDLastSave="3570" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74D83730-8F26-4DA1-A0EE-BC117B372ADF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -499,11 +499,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:M379"/>
+  <dimension ref="A1:M386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A361" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M379" sqref="M379"/>
+      <pane ySplit="1" topLeftCell="A362" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D387" sqref="D387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16061,6 +16061,293 @@
         <v>10</v>
       </c>
     </row>
+    <row r="380" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>14</v>
+      </c>
+      <c r="B380" s="1">
+        <v>45518</v>
+      </c>
+      <c r="C380" t="s">
+        <v>20</v>
+      </c>
+      <c r="D380">
+        <v>26</v>
+      </c>
+      <c r="E380">
+        <v>0</v>
+      </c>
+      <c r="F380">
+        <v>0</v>
+      </c>
+      <c r="G380">
+        <v>22</v>
+      </c>
+      <c r="H380">
+        <v>4</v>
+      </c>
+      <c r="I380">
+        <v>0</v>
+      </c>
+      <c r="J380">
+        <v>0</v>
+      </c>
+      <c r="K380">
+        <v>0</v>
+      </c>
+      <c r="L380" t="s">
+        <v>13</v>
+      </c>
+      <c r="M380">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>24</v>
+      </c>
+      <c r="B381" s="1">
+        <v>45518</v>
+      </c>
+      <c r="C381" t="s">
+        <v>20</v>
+      </c>
+      <c r="D381">
+        <v>94</v>
+      </c>
+      <c r="E381">
+        <v>0</v>
+      </c>
+      <c r="F381">
+        <v>0</v>
+      </c>
+      <c r="G381">
+        <v>40</v>
+      </c>
+      <c r="H381">
+        <v>46</v>
+      </c>
+      <c r="I381">
+        <v>8</v>
+      </c>
+      <c r="J381">
+        <v>0</v>
+      </c>
+      <c r="K381">
+        <v>0</v>
+      </c>
+      <c r="L381" t="s">
+        <v>27</v>
+      </c>
+      <c r="M381">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>14</v>
+      </c>
+      <c r="B382" s="1">
+        <v>45518</v>
+      </c>
+      <c r="C382" t="s">
+        <v>25</v>
+      </c>
+      <c r="D382">
+        <v>35</v>
+      </c>
+      <c r="E382">
+        <v>1.79</v>
+      </c>
+      <c r="F382">
+        <v>108</v>
+      </c>
+      <c r="G382">
+        <v>35</v>
+      </c>
+      <c r="H382">
+        <v>0</v>
+      </c>
+      <c r="I382">
+        <v>0</v>
+      </c>
+      <c r="J382">
+        <v>0</v>
+      </c>
+      <c r="K382">
+        <v>0</v>
+      </c>
+      <c r="L382" t="s">
+        <v>13</v>
+      </c>
+      <c r="M382">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>18</v>
+      </c>
+      <c r="B383" s="1">
+        <v>45518</v>
+      </c>
+      <c r="C383" t="s">
+        <v>25</v>
+      </c>
+      <c r="D383">
+        <v>34</v>
+      </c>
+      <c r="E383">
+        <v>1.44</v>
+      </c>
+      <c r="F383">
+        <v>108</v>
+      </c>
+      <c r="G383">
+        <v>34</v>
+      </c>
+      <c r="H383">
+        <v>0</v>
+      </c>
+      <c r="I383">
+        <v>0</v>
+      </c>
+      <c r="J383">
+        <v>0</v>
+      </c>
+      <c r="K383">
+        <v>0</v>
+      </c>
+      <c r="L383" t="s">
+        <v>2</v>
+      </c>
+      <c r="M383">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="384" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>19</v>
+      </c>
+      <c r="B384" s="1">
+        <v>45519</v>
+      </c>
+      <c r="C384" t="s">
+        <v>23</v>
+      </c>
+      <c r="D384">
+        <v>20</v>
+      </c>
+      <c r="E384">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="F384">
+        <v>151</v>
+      </c>
+      <c r="G384">
+        <v>0</v>
+      </c>
+      <c r="H384">
+        <v>13</v>
+      </c>
+      <c r="I384">
+        <v>2</v>
+      </c>
+      <c r="J384">
+        <v>0</v>
+      </c>
+      <c r="K384">
+        <v>0</v>
+      </c>
+      <c r="L384" t="s">
+        <v>27</v>
+      </c>
+      <c r="M384">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="385" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>14</v>
+      </c>
+      <c r="B385" s="1">
+        <v>45519</v>
+      </c>
+      <c r="C385" t="s">
+        <v>25</v>
+      </c>
+      <c r="D385">
+        <v>23</v>
+      </c>
+      <c r="E385">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F385">
+        <v>138</v>
+      </c>
+      <c r="G385">
+        <v>23</v>
+      </c>
+      <c r="H385">
+        <v>0</v>
+      </c>
+      <c r="I385">
+        <v>0</v>
+      </c>
+      <c r="J385">
+        <v>0</v>
+      </c>
+      <c r="K385">
+        <v>0</v>
+      </c>
+      <c r="L385" t="s">
+        <v>13</v>
+      </c>
+      <c r="M385">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="386" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>14</v>
+      </c>
+      <c r="B386" s="1">
+        <v>45519</v>
+      </c>
+      <c r="C386" t="s">
+        <v>23</v>
+      </c>
+      <c r="D386">
+        <v>29</v>
+      </c>
+      <c r="E386">
+        <v>2.68</v>
+      </c>
+      <c r="F386">
+        <v>154</v>
+      </c>
+      <c r="G386">
+        <v>2</v>
+      </c>
+      <c r="H386">
+        <v>2</v>
+      </c>
+      <c r="I386">
+        <v>24</v>
+      </c>
+      <c r="J386">
+        <v>1</v>
+      </c>
+      <c r="K386">
+        <v>0</v>
+      </c>
+      <c r="L386" t="s">
+        <v>13</v>
+      </c>
+      <c r="M386">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M346" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kilimanjaro_Weekly_Scoreboard.xlsx
+++ b/Kilimanjaro_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/strava_killimanjaro_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3570" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74D83730-8F26-4DA1-A0EE-BC117B372ADF}"/>
+  <xr:revisionPtr revIDLastSave="3661" documentId="8_{34047DD2-CCEC-4DF7-AD30-AAEEE65E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDF27AF5-0071-423D-A9F4-83393647F5B9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -499,11 +499,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:M386"/>
+  <dimension ref="A1:M393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A362" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D387" sqref="D387"/>
+      <pane ySplit="1" topLeftCell="A374" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A394" sqref="A394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16348,6 +16348,293 @@
         <v>10</v>
       </c>
     </row>
+    <row r="387" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>24</v>
+      </c>
+      <c r="B387" s="1">
+        <v>45519</v>
+      </c>
+      <c r="C387" t="s">
+        <v>25</v>
+      </c>
+      <c r="D387">
+        <v>42</v>
+      </c>
+      <c r="E387">
+        <v>2.13</v>
+      </c>
+      <c r="F387">
+        <v>66</v>
+      </c>
+      <c r="G387">
+        <v>42</v>
+      </c>
+      <c r="H387">
+        <v>0</v>
+      </c>
+      <c r="I387">
+        <v>0</v>
+      </c>
+      <c r="J387">
+        <v>0</v>
+      </c>
+      <c r="K387">
+        <v>0</v>
+      </c>
+      <c r="L387" t="s">
+        <v>27</v>
+      </c>
+      <c r="M387">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>14</v>
+      </c>
+      <c r="B388" s="1">
+        <v>45519</v>
+      </c>
+      <c r="C388" t="s">
+        <v>25</v>
+      </c>
+      <c r="D388">
+        <v>27</v>
+      </c>
+      <c r="E388">
+        <v>1.21</v>
+      </c>
+      <c r="F388">
+        <v>112</v>
+      </c>
+      <c r="G388">
+        <v>27</v>
+      </c>
+      <c r="H388">
+        <v>0</v>
+      </c>
+      <c r="I388">
+        <v>0</v>
+      </c>
+      <c r="J388">
+        <v>0</v>
+      </c>
+      <c r="K388">
+        <v>0</v>
+      </c>
+      <c r="L388" t="s">
+        <v>13</v>
+      </c>
+      <c r="M388">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="389" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>18</v>
+      </c>
+      <c r="B389" s="1">
+        <v>45519</v>
+      </c>
+      <c r="C389" t="s">
+        <v>21</v>
+      </c>
+      <c r="D389">
+        <v>30</v>
+      </c>
+      <c r="E389">
+        <v>8.94</v>
+      </c>
+      <c r="F389">
+        <v>0</v>
+      </c>
+      <c r="G389">
+        <v>7</v>
+      </c>
+      <c r="H389">
+        <v>23</v>
+      </c>
+      <c r="I389">
+        <v>0</v>
+      </c>
+      <c r="J389">
+        <v>0</v>
+      </c>
+      <c r="K389">
+        <v>0</v>
+      </c>
+      <c r="L389" t="s">
+        <v>2</v>
+      </c>
+      <c r="M389">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="390" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>19</v>
+      </c>
+      <c r="B390" s="1">
+        <v>45520</v>
+      </c>
+      <c r="C390" t="s">
+        <v>23</v>
+      </c>
+      <c r="D390">
+        <v>21</v>
+      </c>
+      <c r="E390">
+        <v>2.13</v>
+      </c>
+      <c r="F390">
+        <v>154</v>
+      </c>
+      <c r="G390">
+        <v>0</v>
+      </c>
+      <c r="H390">
+        <v>14</v>
+      </c>
+      <c r="I390">
+        <v>1</v>
+      </c>
+      <c r="J390">
+        <v>0</v>
+      </c>
+      <c r="K390">
+        <v>0</v>
+      </c>
+      <c r="L390" t="s">
+        <v>27</v>
+      </c>
+      <c r="M390">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="391" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>18</v>
+      </c>
+      <c r="B391" s="1">
+        <v>45520</v>
+      </c>
+      <c r="C391" t="s">
+        <v>23</v>
+      </c>
+      <c r="D391">
+        <v>40</v>
+      </c>
+      <c r="E391">
+        <v>4.32</v>
+      </c>
+      <c r="F391">
+        <v>259</v>
+      </c>
+      <c r="G391">
+        <v>1</v>
+      </c>
+      <c r="H391">
+        <v>7</v>
+      </c>
+      <c r="I391">
+        <v>13</v>
+      </c>
+      <c r="J391">
+        <v>16</v>
+      </c>
+      <c r="K391">
+        <v>0</v>
+      </c>
+      <c r="L391" t="s">
+        <v>2</v>
+      </c>
+      <c r="M391">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="392" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>18</v>
+      </c>
+      <c r="B392" s="1">
+        <v>45520</v>
+      </c>
+      <c r="C392" t="s">
+        <v>25</v>
+      </c>
+      <c r="D392">
+        <v>3</v>
+      </c>
+      <c r="E392">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F392">
+        <v>0</v>
+      </c>
+      <c r="G392">
+        <v>3</v>
+      </c>
+      <c r="H392">
+        <v>0</v>
+      </c>
+      <c r="I392">
+        <v>0</v>
+      </c>
+      <c r="J392">
+        <v>0</v>
+      </c>
+      <c r="K392">
+        <v>0</v>
+      </c>
+      <c r="L392" t="s">
+        <v>2</v>
+      </c>
+      <c r="M392">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="393" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>14</v>
+      </c>
+      <c r="B393" s="1">
+        <v>45520</v>
+      </c>
+      <c r="C393" t="s">
+        <v>25</v>
+      </c>
+      <c r="D393">
+        <v>30</v>
+      </c>
+      <c r="E393">
+        <v>1.44</v>
+      </c>
+      <c r="F393">
+        <v>82</v>
+      </c>
+      <c r="G393">
+        <v>30</v>
+      </c>
+      <c r="H393">
+        <v>0</v>
+      </c>
+      <c r="I393">
+        <v>0</v>
+      </c>
+      <c r="J393">
+        <v>0</v>
+      </c>
+      <c r="K393">
+        <v>0</v>
+      </c>
+      <c r="L393" t="s">
+        <v>13</v>
+      </c>
+      <c r="M393">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M346" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
